--- a/BackTest/2020-01-25 BackTest XLM.xlsx
+++ b/BackTest/2020-01-25 BackTest XLM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M322"/>
+  <dimension ref="A1:M323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>67.7</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="C2" t="n">
         <v>67.7</v>
@@ -442,13 +442,13 @@
         <v>67.7</v>
       </c>
       <c r="E2" t="n">
-        <v>67.7</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>37.9642</v>
+        <v>18773.0649</v>
       </c>
       <c r="G2" t="n">
-        <v>66.87616666666675</v>
+        <v>66.87566666666675</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>67.53</v>
+        <v>67.7</v>
       </c>
       <c r="C3" t="n">
-        <v>67.53</v>
+        <v>67.7</v>
       </c>
       <c r="D3" t="n">
-        <v>67.53</v>
+        <v>67.7</v>
       </c>
       <c r="E3" t="n">
-        <v>67.53</v>
+        <v>67.7</v>
       </c>
       <c r="F3" t="n">
-        <v>88433.36350000001</v>
+        <v>37.9642</v>
       </c>
       <c r="G3" t="n">
-        <v>66.87583333333342</v>
+        <v>66.87616666666675</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>67.68000000000001</v>
+        <v>67.53</v>
       </c>
       <c r="C4" t="n">
-        <v>67.68000000000001</v>
+        <v>67.53</v>
       </c>
       <c r="D4" t="n">
-        <v>67.68000000000001</v>
+        <v>67.53</v>
       </c>
       <c r="E4" t="n">
-        <v>67.68000000000001</v>
+        <v>67.53</v>
       </c>
       <c r="F4" t="n">
-        <v>354.7338</v>
+        <v>88433.36350000001</v>
       </c>
       <c r="G4" t="n">
-        <v>66.87566666666675</v>
+        <v>66.87583333333342</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>67.68000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>67.7</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>67.7</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="E5" t="n">
         <v>67.68000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>1365.7248</v>
+        <v>354.7338</v>
       </c>
       <c r="G5" t="n">
-        <v>66.87816666666673</v>
+        <v>66.87566666666675</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>67.68000000000001</v>
+      </c>
+      <c r="C6" t="n">
         <v>67.7</v>
       </c>
-      <c r="C6" t="n">
-        <v>67.8</v>
-      </c>
       <c r="D6" t="n">
-        <v>67.8</v>
+        <v>67.7</v>
       </c>
       <c r="E6" t="n">
-        <v>67.7</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>7368.6382</v>
+        <v>1365.7248</v>
       </c>
       <c r="G6" t="n">
-        <v>66.88400000000007</v>
+        <v>66.87816666666673</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67.73</v>
+        <v>67.7</v>
       </c>
       <c r="C7" t="n">
-        <v>67.78</v>
+        <v>67.8</v>
       </c>
       <c r="D7" t="n">
-        <v>67.78</v>
+        <v>67.8</v>
       </c>
       <c r="E7" t="n">
-        <v>67.73</v>
+        <v>67.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1259</v>
+        <v>7368.6382</v>
       </c>
       <c r="G7" t="n">
-        <v>66.88950000000008</v>
+        <v>66.88400000000007</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>67.79000000000001</v>
+        <v>67.73</v>
       </c>
       <c r="C8" t="n">
-        <v>67.79000000000001</v>
+        <v>67.78</v>
       </c>
       <c r="D8" t="n">
-        <v>67.79000000000001</v>
+        <v>67.78</v>
       </c>
       <c r="E8" t="n">
-        <v>67.79000000000001</v>
+        <v>67.73</v>
       </c>
       <c r="F8" t="n">
-        <v>519.6897</v>
+        <v>1259</v>
       </c>
       <c r="G8" t="n">
-        <v>66.89500000000008</v>
+        <v>66.88950000000008</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>67.79000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>67.8</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>67.8</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="E9" t="n">
         <v>67.79000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>2063.0013</v>
+        <v>519.6897</v>
       </c>
       <c r="G9" t="n">
-        <v>66.90116666666675</v>
+        <v>66.89500000000008</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>67.69</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>67.69</v>
+        <v>67.8</v>
       </c>
       <c r="D10" t="n">
-        <v>67.69</v>
+        <v>67.8</v>
       </c>
       <c r="E10" t="n">
-        <v>67.69</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>369.2274</v>
+        <v>2063.0013</v>
       </c>
       <c r="G10" t="n">
-        <v>66.90583333333342</v>
+        <v>66.90116666666675</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>67.69</v>
       </c>
       <c r="C11" t="n">
-        <v>67.59999999999999</v>
+        <v>67.69</v>
       </c>
       <c r="D11" t="n">
         <v>67.69</v>
       </c>
       <c r="E11" t="n">
-        <v>67.59999999999999</v>
+        <v>67.69</v>
       </c>
       <c r="F11" t="n">
-        <v>52845.6812</v>
+        <v>369.2274</v>
       </c>
       <c r="G11" t="n">
-        <v>66.91316666666675</v>
+        <v>66.90583333333342</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>67.44</v>
+        <v>67.69</v>
       </c>
       <c r="C12" t="n">
-        <v>67.44</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>67.44</v>
+        <v>67.69</v>
       </c>
       <c r="E12" t="n">
-        <v>67.44</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>18959.4399</v>
+        <v>52845.6812</v>
       </c>
       <c r="G12" t="n">
-        <v>66.91550000000009</v>
+        <v>66.91316666666675</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>67.44</v>
       </c>
       <c r="F13" t="n">
-        <v>835.1207000000001</v>
+        <v>18959.4399</v>
       </c>
       <c r="G13" t="n">
-        <v>66.92283333333343</v>
+        <v>66.91550000000009</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>67.43000000000001</v>
+        <v>67.44</v>
       </c>
       <c r="C14" t="n">
-        <v>67.43000000000001</v>
+        <v>67.44</v>
       </c>
       <c r="D14" t="n">
-        <v>67.43000000000001</v>
+        <v>67.44</v>
       </c>
       <c r="E14" t="n">
-        <v>67.43000000000001</v>
+        <v>67.44</v>
       </c>
       <c r="F14" t="n">
-        <v>36.9578</v>
+        <v>835.1207000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>66.93016666666675</v>
+        <v>66.92283333333343</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>67.44</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>67.44</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>67.44</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>67.44</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>37714</v>
+        <v>36.9578</v>
       </c>
       <c r="G15" t="n">
-        <v>66.93616666666676</v>
+        <v>66.93016666666675</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>67.43000000000001</v>
+        <v>67.44</v>
       </c>
       <c r="C16" t="n">
-        <v>67.28</v>
+        <v>67.44</v>
       </c>
       <c r="D16" t="n">
-        <v>67.43000000000001</v>
+        <v>67.44</v>
       </c>
       <c r="E16" t="n">
-        <v>67.28</v>
+        <v>67.44</v>
       </c>
       <c r="F16" t="n">
-        <v>662.2281</v>
+        <v>37714</v>
       </c>
       <c r="G16" t="n">
-        <v>66.94166666666676</v>
+        <v>66.93616666666676</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>67.28</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="C17" t="n">
         <v>67.28</v>
       </c>
       <c r="D17" t="n">
-        <v>67.28</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="E17" t="n">
         <v>67.28</v>
       </c>
       <c r="F17" t="n">
-        <v>117.0985</v>
+        <v>662.2281</v>
       </c>
       <c r="G17" t="n">
-        <v>66.9460000000001</v>
+        <v>66.94166666666676</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>67.28</v>
       </c>
       <c r="F18" t="n">
-        <v>23.5182</v>
+        <v>117.0985</v>
       </c>
       <c r="G18" t="n">
-        <v>66.95400000000011</v>
+        <v>66.9460000000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>67.09999999999999</v>
+        <v>67.28</v>
       </c>
       <c r="C19" t="n">
-        <v>67.09999999999999</v>
+        <v>67.28</v>
       </c>
       <c r="D19" t="n">
-        <v>67.09999999999999</v>
+        <v>67.28</v>
       </c>
       <c r="E19" t="n">
-        <v>67.09999999999999</v>
+        <v>67.28</v>
       </c>
       <c r="F19" t="n">
-        <v>3287.19</v>
+        <v>23.5182</v>
       </c>
       <c r="G19" t="n">
-        <v>66.9640000000001</v>
+        <v>66.95400000000011</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>67.09999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>11.9226</v>
+        <v>3287.19</v>
       </c>
       <c r="G20" t="n">
-        <v>66.9735000000001</v>
+        <v>66.9640000000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>66.81</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>66.78</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>66.81</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>66.78</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>54717.9689</v>
+        <v>11.9226</v>
       </c>
       <c r="G21" t="n">
-        <v>66.97816666666677</v>
+        <v>66.9735000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>66.81</v>
       </c>
       <c r="C22" t="n">
-        <v>66.8</v>
+        <v>66.78</v>
       </c>
       <c r="D22" t="n">
         <v>66.81</v>
       </c>
       <c r="E22" t="n">
-        <v>66.8</v>
+        <v>66.78</v>
       </c>
       <c r="F22" t="n">
-        <v>74394.2069</v>
+        <v>54717.9689</v>
       </c>
       <c r="G22" t="n">
-        <v>66.98316666666678</v>
+        <v>66.97816666666677</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>66.81</v>
+      </c>
+      <c r="C23" t="n">
         <v>66.8</v>
       </c>
-      <c r="C23" t="n">
-        <v>66.98999999999999</v>
-      </c>
       <c r="D23" t="n">
-        <v>66.98999999999999</v>
+        <v>66.81</v>
       </c>
       <c r="E23" t="n">
         <v>66.8</v>
       </c>
       <c r="F23" t="n">
-        <v>2955.0758</v>
+        <v>74394.2069</v>
       </c>
       <c r="G23" t="n">
-        <v>66.99216666666676</v>
+        <v>66.98316666666678</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>67.02</v>
+        <v>66.8</v>
       </c>
       <c r="C24" t="n">
-        <v>67.31</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>67.31</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>67.02</v>
+        <v>66.8</v>
       </c>
       <c r="F24" t="n">
-        <v>123014.8221</v>
+        <v>2955.0758</v>
       </c>
       <c r="G24" t="n">
-        <v>67.0065000000001</v>
+        <v>66.99216666666676</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>67.31</v>
+        <v>67.02</v>
       </c>
       <c r="C25" t="n">
         <v>67.31</v>
@@ -1247,13 +1247,13 @@
         <v>67.31</v>
       </c>
       <c r="E25" t="n">
-        <v>67.31</v>
+        <v>67.02</v>
       </c>
       <c r="F25" t="n">
-        <v>302.8515</v>
+        <v>123014.8221</v>
       </c>
       <c r="G25" t="n">
-        <v>67.02083333333344</v>
+        <v>67.0065000000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>67.43000000000001</v>
+        <v>67.31</v>
       </c>
       <c r="C26" t="n">
-        <v>67.43000000000001</v>
+        <v>67.31</v>
       </c>
       <c r="D26" t="n">
-        <v>67.44</v>
+        <v>67.31</v>
       </c>
       <c r="E26" t="n">
-        <v>67.43000000000001</v>
+        <v>67.31</v>
       </c>
       <c r="F26" t="n">
-        <v>29726.1998</v>
+        <v>302.8515</v>
       </c>
       <c r="G26" t="n">
-        <v>67.03700000000011</v>
+        <v>67.02083333333344</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>67.48999999999999</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>67.36</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>67.48999999999999</v>
+        <v>67.44</v>
       </c>
       <c r="E27" t="n">
-        <v>67.36</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>37098.971257</v>
+        <v>29726.1998</v>
       </c>
       <c r="G27" t="n">
-        <v>67.05183333333345</v>
+        <v>67.03700000000011</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>67.52</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>67.52</v>
+        <v>67.36</v>
       </c>
       <c r="D28" t="n">
-        <v>67.52</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>67.52</v>
+        <v>67.36</v>
       </c>
       <c r="F28" t="n">
-        <v>44.7861</v>
+        <v>37098.971257</v>
       </c>
       <c r="G28" t="n">
-        <v>67.06733333333344</v>
+        <v>67.05183333333345</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>67.56</v>
+        <v>67.52</v>
       </c>
       <c r="C29" t="n">
-        <v>67.56</v>
+        <v>67.52</v>
       </c>
       <c r="D29" t="n">
-        <v>67.56</v>
+        <v>67.52</v>
       </c>
       <c r="E29" t="n">
-        <v>67.56</v>
+        <v>67.52</v>
       </c>
       <c r="F29" t="n">
-        <v>21899.7586</v>
+        <v>44.7861</v>
       </c>
       <c r="G29" t="n">
-        <v>67.08766666666676</v>
+        <v>67.06733333333344</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>67.56</v>
       </c>
       <c r="F30" t="n">
-        <v>24835.5221</v>
+        <v>21899.7586</v>
       </c>
       <c r="G30" t="n">
-        <v>67.1050000000001</v>
+        <v>67.08766666666676</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>67.56</v>
       </c>
       <c r="F31" t="n">
-        <v>184.2976</v>
+        <v>24835.5221</v>
       </c>
       <c r="G31" t="n">
-        <v>67.12016666666676</v>
+        <v>67.1050000000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>67.56</v>
       </c>
       <c r="F32" t="n">
-        <v>16457.2491</v>
+        <v>184.2976</v>
       </c>
       <c r="G32" t="n">
-        <v>67.1375000000001</v>
+        <v>67.12016666666676</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>67.58</v>
+        <v>67.56</v>
       </c>
       <c r="C33" t="n">
-        <v>67.58</v>
+        <v>67.56</v>
       </c>
       <c r="D33" t="n">
-        <v>67.58</v>
+        <v>67.56</v>
       </c>
       <c r="E33" t="n">
-        <v>67.58</v>
+        <v>67.56</v>
       </c>
       <c r="F33" t="n">
-        <v>92.5412</v>
+        <v>16457.2491</v>
       </c>
       <c r="G33" t="n">
-        <v>67.16066666666676</v>
+        <v>67.1375000000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>67.61</v>
+        <v>67.58</v>
       </c>
       <c r="C34" t="n">
-        <v>67.61</v>
+        <v>67.58</v>
       </c>
       <c r="D34" t="n">
-        <v>67.61</v>
+        <v>67.58</v>
       </c>
       <c r="E34" t="n">
-        <v>67.61</v>
+        <v>67.58</v>
       </c>
       <c r="F34" t="n">
-        <v>13.5304</v>
+        <v>92.5412</v>
       </c>
       <c r="G34" t="n">
-        <v>67.17916666666676</v>
+        <v>67.16066666666676</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>67.31999999999999</v>
+        <v>67.61</v>
       </c>
       <c r="C35" t="n">
-        <v>67.31999999999999</v>
+        <v>67.61</v>
       </c>
       <c r="D35" t="n">
-        <v>67.31999999999999</v>
+        <v>67.61</v>
       </c>
       <c r="E35" t="n">
-        <v>67.31999999999999</v>
+        <v>67.61</v>
       </c>
       <c r="F35" t="n">
-        <v>448</v>
+        <v>13.5304</v>
       </c>
       <c r="G35" t="n">
-        <v>67.19350000000009</v>
+        <v>67.17916666666676</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>67.33</v>
+        <v>67.31999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>67.33</v>
+        <v>67.31999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>67.33</v>
+        <v>67.31999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>67.33</v>
+        <v>67.31999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>1147</v>
+        <v>448</v>
       </c>
       <c r="G36" t="n">
-        <v>67.20600000000009</v>
+        <v>67.19350000000009</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>67.47</v>
+        <v>67.33</v>
       </c>
       <c r="C37" t="n">
-        <v>67.47</v>
+        <v>67.33</v>
       </c>
       <c r="D37" t="n">
-        <v>67.47</v>
+        <v>67.33</v>
       </c>
       <c r="E37" t="n">
-        <v>67.47</v>
+        <v>67.33</v>
       </c>
       <c r="F37" t="n">
-        <v>4000</v>
+        <v>1147</v>
       </c>
       <c r="G37" t="n">
-        <v>67.22216666666675</v>
+        <v>67.20600000000009</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>67.47</v>
       </c>
       <c r="F38" t="n">
-        <v>10.375</v>
+        <v>4000</v>
       </c>
       <c r="G38" t="n">
-        <v>67.23833333333343</v>
+        <v>67.22216666666675</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>67.72</v>
+        <v>67.47</v>
       </c>
       <c r="C39" t="n">
-        <v>67.72</v>
+        <v>67.47</v>
       </c>
       <c r="D39" t="n">
-        <v>67.72</v>
+        <v>67.47</v>
       </c>
       <c r="E39" t="n">
-        <v>67.72</v>
+        <v>67.47</v>
       </c>
       <c r="F39" t="n">
-        <v>691.6405999999999</v>
+        <v>10.375</v>
       </c>
       <c r="G39" t="n">
-        <v>67.25866666666677</v>
+        <v>67.23833333333343</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1772,13 +1772,13 @@
         <v>67.72</v>
       </c>
       <c r="E40" t="n">
-        <v>67.70999999999999</v>
+        <v>67.72</v>
       </c>
       <c r="F40" t="n">
-        <v>10015.3927</v>
+        <v>691.6405999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>67.27733333333343</v>
+        <v>67.25866666666677</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>67.54000000000001</v>
+        <v>67.72</v>
       </c>
       <c r="C41" t="n">
-        <v>67.53</v>
+        <v>67.72</v>
       </c>
       <c r="D41" t="n">
-        <v>67.54000000000001</v>
+        <v>67.72</v>
       </c>
       <c r="E41" t="n">
-        <v>67.53</v>
+        <v>67.70999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>10532</v>
+        <v>10015.3927</v>
       </c>
       <c r="G41" t="n">
-        <v>67.29516666666677</v>
+        <v>67.27733333333343</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>67.51000000000001</v>
+        <v>67.54000000000001</v>
       </c>
       <c r="C42" t="n">
         <v>67.53</v>
       </c>
       <c r="D42" t="n">
+        <v>67.54000000000001</v>
+      </c>
+      <c r="E42" t="n">
         <v>67.53</v>
       </c>
-      <c r="E42" t="n">
-        <v>67.51000000000001</v>
-      </c>
       <c r="F42" t="n">
-        <v>19756.0288</v>
+        <v>10532</v>
       </c>
       <c r="G42" t="n">
-        <v>67.3130000000001</v>
+        <v>67.29516666666677</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>67.52</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>67.52</v>
+        <v>67.53</v>
       </c>
       <c r="D43" t="n">
-        <v>67.52</v>
+        <v>67.53</v>
       </c>
       <c r="E43" t="n">
-        <v>67.52</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>337.264</v>
+        <v>19756.0288</v>
       </c>
       <c r="G43" t="n">
-        <v>67.33066666666677</v>
+        <v>67.3130000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1906,19 +1906,19 @@
         <v>67.52</v>
       </c>
       <c r="C44" t="n">
-        <v>67.5</v>
+        <v>67.52</v>
       </c>
       <c r="D44" t="n">
         <v>67.52</v>
       </c>
       <c r="E44" t="n">
-        <v>67.5</v>
+        <v>67.52</v>
       </c>
       <c r="F44" t="n">
-        <v>3179.9071635</v>
+        <v>337.264</v>
       </c>
       <c r="G44" t="n">
-        <v>67.34450000000011</v>
+        <v>67.33066666666677</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>67.37</v>
+        <v>67.52</v>
       </c>
       <c r="C45" t="n">
-        <v>67.26000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="D45" t="n">
-        <v>67.37</v>
+        <v>67.52</v>
       </c>
       <c r="E45" t="n">
-        <v>67.26000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="F45" t="n">
-        <v>5234.1805</v>
+        <v>3179.9071635</v>
       </c>
       <c r="G45" t="n">
-        <v>67.35783333333345</v>
+        <v>67.34450000000011</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>67.56999999999999</v>
+        <v>67.37</v>
       </c>
       <c r="C46" t="n">
-        <v>67.61</v>
+        <v>67.26000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>67.61</v>
+        <v>67.37</v>
       </c>
       <c r="E46" t="n">
-        <v>67.56999999999999</v>
+        <v>67.26000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>9989.103999999999</v>
+        <v>5234.1805</v>
       </c>
       <c r="G46" t="n">
-        <v>67.37700000000011</v>
+        <v>67.35783333333345</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>67.56999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>67.56999999999999</v>
+        <v>67.61</v>
       </c>
       <c r="D47" t="n">
-        <v>67.56999999999999</v>
+        <v>67.61</v>
       </c>
       <c r="E47" t="n">
         <v>67.56999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>22.3975</v>
+        <v>9989.103999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>67.3980000000001</v>
+        <v>67.37700000000011</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>67.56999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>4.4985</v>
+        <v>22.3975</v>
       </c>
       <c r="G48" t="n">
-        <v>67.41900000000011</v>
+        <v>67.3980000000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>67.38</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>67.34</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>67.38</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>67.34</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>4925.6977</v>
+        <v>4.4985</v>
       </c>
       <c r="G49" t="n">
-        <v>67.43466666666676</v>
+        <v>67.41900000000011</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>67.62</v>
+        <v>67.38</v>
       </c>
       <c r="C50" t="n">
-        <v>67.62</v>
+        <v>67.34</v>
       </c>
       <c r="D50" t="n">
-        <v>67.62</v>
+        <v>67.38</v>
       </c>
       <c r="E50" t="n">
-        <v>67.62</v>
+        <v>67.34</v>
       </c>
       <c r="F50" t="n">
-        <v>8</v>
+        <v>4925.6977</v>
       </c>
       <c r="G50" t="n">
-        <v>67.4445000000001</v>
+        <v>67.43466666666676</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>67.38</v>
+        <v>67.62</v>
       </c>
       <c r="C51" t="n">
-        <v>67.38</v>
+        <v>67.62</v>
       </c>
       <c r="D51" t="n">
-        <v>67.38</v>
+        <v>67.62</v>
       </c>
       <c r="E51" t="n">
-        <v>67.38</v>
+        <v>67.62</v>
       </c>
       <c r="F51" t="n">
-        <v>3000</v>
+        <v>8</v>
       </c>
       <c r="G51" t="n">
-        <v>67.4575000000001</v>
+        <v>67.4445000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>67.62</v>
+        <v>67.38</v>
       </c>
       <c r="C52" t="n">
-        <v>67.62</v>
+        <v>67.38</v>
       </c>
       <c r="D52" t="n">
-        <v>67.62</v>
+        <v>67.38</v>
       </c>
       <c r="E52" t="n">
-        <v>67.62</v>
+        <v>67.38</v>
       </c>
       <c r="F52" t="n">
-        <v>110.2394</v>
+        <v>3000</v>
       </c>
       <c r="G52" t="n">
-        <v>67.47116666666676</v>
+        <v>67.4575000000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>67.61</v>
+        <v>67.62</v>
       </c>
       <c r="C53" t="n">
-        <v>67.61</v>
+        <v>67.62</v>
       </c>
       <c r="D53" t="n">
-        <v>67.61</v>
+        <v>67.62</v>
       </c>
       <c r="E53" t="n">
-        <v>67.61</v>
+        <v>67.62</v>
       </c>
       <c r="F53" t="n">
-        <v>14.4897</v>
+        <v>110.2394</v>
       </c>
       <c r="G53" t="n">
-        <v>67.48466666666675</v>
+        <v>67.47116666666676</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>67.73999999999999</v>
+        <v>67.61</v>
       </c>
       <c r="C54" t="n">
-        <v>67.73999999999999</v>
+        <v>67.61</v>
       </c>
       <c r="D54" t="n">
-        <v>67.73999999999999</v>
+        <v>67.61</v>
       </c>
       <c r="E54" t="n">
-        <v>67.73999999999999</v>
+        <v>67.61</v>
       </c>
       <c r="F54" t="n">
-        <v>95</v>
+        <v>14.4897</v>
       </c>
       <c r="G54" t="n">
-        <v>67.48750000000008</v>
+        <v>67.48466666666675</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>67.73999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>670.0537</v>
+        <v>95</v>
       </c>
       <c r="G55" t="n">
-        <v>67.49033333333342</v>
+        <v>67.48750000000008</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>67.76000000000001</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>67.76000000000001</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>67.76000000000001</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>67.76000000000001</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>35.8659</v>
+        <v>670.0537</v>
       </c>
       <c r="G56" t="n">
-        <v>67.49350000000008</v>
+        <v>67.49033333333342</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>67.7</v>
+        <v>67.76000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>67.7</v>
+        <v>67.76000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>67.7</v>
+        <v>67.76000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>67.7</v>
+        <v>67.76000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>216.0158</v>
+        <v>35.8659</v>
       </c>
       <c r="G57" t="n">
-        <v>67.49566666666675</v>
+        <v>67.49350000000008</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>67.59999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="C58" t="n">
-        <v>67.59999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="D58" t="n">
-        <v>67.59999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="E58" t="n">
-        <v>67.59999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="F58" t="n">
-        <v>2030.1057</v>
+        <v>216.0158</v>
       </c>
       <c r="G58" t="n">
-        <v>67.49783333333342</v>
+        <v>67.49566666666675</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2431,19 +2431,19 @@
         <v>67.59999999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>67.47</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D59" t="n">
         <v>67.59999999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>67.47</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F59" t="n">
-        <v>6365.18</v>
+        <v>2030.1057</v>
       </c>
       <c r="G59" t="n">
-        <v>67.49616666666674</v>
+        <v>67.49783333333342</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>67.70999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>67.70999999999999</v>
+        <v>67.47</v>
       </c>
       <c r="D60" t="n">
-        <v>67.70999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>67.70999999999999</v>
+        <v>67.47</v>
       </c>
       <c r="F60" t="n">
-        <v>533.1867999999999</v>
+        <v>6365.18</v>
       </c>
       <c r="G60" t="n">
-        <v>67.49833333333341</v>
+        <v>67.49616666666674</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2501,19 +2501,19 @@
         <v>67.70999999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>67.63</v>
+        <v>67.70999999999999</v>
       </c>
       <c r="D61" t="n">
         <v>67.70999999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>67.63</v>
+        <v>67.70999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>890.1236</v>
+        <v>533.1867999999999</v>
       </c>
       <c r="G61" t="n">
-        <v>67.49716666666674</v>
+        <v>67.49833333333341</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>67.51000000000001</v>
+        <v>67.70999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>67.58</v>
+        <v>67.63</v>
       </c>
       <c r="D62" t="n">
-        <v>67.58</v>
+        <v>67.70999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>67.51000000000001</v>
+        <v>67.63</v>
       </c>
       <c r="F62" t="n">
-        <v>34046</v>
+        <v>890.1236</v>
       </c>
       <c r="G62" t="n">
-        <v>67.49516666666675</v>
+        <v>67.49716666666674</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>67.59</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>67.51000000000001</v>
+        <v>67.58</v>
       </c>
       <c r="D63" t="n">
-        <v>67.59</v>
+        <v>67.58</v>
       </c>
       <c r="E63" t="n">
         <v>67.51000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>1661</v>
+        <v>34046</v>
       </c>
       <c r="G63" t="n">
-        <v>67.4948333333334</v>
+        <v>67.49516666666675</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>67.31999999999999</v>
+        <v>67.59</v>
       </c>
       <c r="C64" t="n">
-        <v>67.31999999999999</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>67.31999999999999</v>
+        <v>67.59</v>
       </c>
       <c r="E64" t="n">
-        <v>67.31999999999999</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>200</v>
+        <v>1661</v>
       </c>
       <c r="G64" t="n">
-        <v>67.48883333333342</v>
+        <v>67.4948333333334</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>67.31999999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>5186.0767</v>
+        <v>200</v>
       </c>
       <c r="G65" t="n">
-        <v>67.48250000000009</v>
+        <v>67.48883333333342</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>67.26000000000001</v>
+        <v>67.31999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>67.26000000000001</v>
+        <v>67.31999999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>67.26000000000001</v>
+        <v>67.31999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>67.26000000000001</v>
+        <v>67.31999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>41333.3989</v>
+        <v>5186.0767</v>
       </c>
       <c r="G66" t="n">
-        <v>67.47350000000009</v>
+        <v>67.48250000000009</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>67.26000000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>9629.2448</v>
+        <v>41333.3989</v>
       </c>
       <c r="G67" t="n">
-        <v>67.46483333333342</v>
+        <v>67.47350000000009</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>67.26000000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>23636.1238</v>
+        <v>9629.2448</v>
       </c>
       <c r="G68" t="n">
-        <v>67.45600000000009</v>
+        <v>67.46483333333342</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>67.23999999999999</v>
+        <v>67.26000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>67.23999999999999</v>
+        <v>67.26000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>67.23999999999999</v>
+        <v>67.26000000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>67.23999999999999</v>
+        <v>67.26000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>6988.8999</v>
+        <v>23636.1238</v>
       </c>
       <c r="G69" t="n">
-        <v>67.44666666666674</v>
+        <v>67.45600000000009</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>67.22</v>
+        <v>67.23999999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>67.22</v>
+        <v>67.23999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>67.22</v>
+        <v>67.23999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>67.22</v>
+        <v>67.23999999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>522.2175</v>
+        <v>6988.8999</v>
       </c>
       <c r="G70" t="n">
-        <v>67.43883333333342</v>
+        <v>67.44666666666674</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2851,19 +2851,19 @@
         <v>67.22</v>
       </c>
       <c r="C71" t="n">
-        <v>67.20999999999999</v>
+        <v>67.22</v>
       </c>
       <c r="D71" t="n">
         <v>67.22</v>
       </c>
       <c r="E71" t="n">
-        <v>67.20999999999999</v>
+        <v>67.22</v>
       </c>
       <c r="F71" t="n">
-        <v>15305.4586</v>
+        <v>522.2175</v>
       </c>
       <c r="G71" t="n">
-        <v>67.4323333333334</v>
+        <v>67.43883333333342</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>67.11</v>
+        <v>67.22</v>
       </c>
       <c r="C72" t="n">
-        <v>67.11</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>67.11</v>
+        <v>67.22</v>
       </c>
       <c r="E72" t="n">
-        <v>67.11</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>520.9276</v>
+        <v>15305.4586</v>
       </c>
       <c r="G72" t="n">
-        <v>67.42683333333341</v>
+        <v>67.4323333333334</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>67.11</v>
       </c>
       <c r="C73" t="n">
-        <v>67.13</v>
+        <v>67.11</v>
       </c>
       <c r="D73" t="n">
-        <v>67.13</v>
+        <v>67.11</v>
       </c>
       <c r="E73" t="n">
         <v>67.11</v>
       </c>
       <c r="F73" t="n">
-        <v>6150.8302</v>
+        <v>520.9276</v>
       </c>
       <c r="G73" t="n">
-        <v>67.42166666666674</v>
+        <v>67.42683333333341</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>67.15000000000001</v>
+        <v>67.11</v>
       </c>
       <c r="C74" t="n">
-        <v>67.15000000000001</v>
+        <v>67.13</v>
       </c>
       <c r="D74" t="n">
-        <v>67.15000000000001</v>
+        <v>67.13</v>
       </c>
       <c r="E74" t="n">
-        <v>67.15000000000001</v>
+        <v>67.11</v>
       </c>
       <c r="F74" t="n">
-        <v>8.9353</v>
+        <v>6150.8302</v>
       </c>
       <c r="G74" t="n">
-        <v>67.41700000000007</v>
+        <v>67.42166666666674</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>67.01000000000001</v>
+        <v>67.15000000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>67</v>
+        <v>67.15000000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>67.01000000000001</v>
+        <v>67.15000000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>67</v>
+        <v>67.15000000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>12272.7184</v>
+        <v>8.9353</v>
       </c>
       <c r="G75" t="n">
-        <v>67.40966666666674</v>
+        <v>67.41700000000007</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>66.95</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>66.84999999999999</v>
+        <v>67</v>
       </c>
       <c r="D76" t="n">
-        <v>66.95</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>66.84999999999999</v>
+        <v>67</v>
       </c>
       <c r="F76" t="n">
-        <v>28608.2087</v>
+        <v>12272.7184</v>
       </c>
       <c r="G76" t="n">
-        <v>67.40250000000006</v>
+        <v>67.40966666666674</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>66.84</v>
+        <v>66.95</v>
       </c>
       <c r="C77" t="n">
-        <v>66.8</v>
+        <v>66.84999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>66.84</v>
+        <v>66.95</v>
       </c>
       <c r="E77" t="n">
-        <v>66.8</v>
+        <v>66.84999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>340.946</v>
+        <v>28608.2087</v>
       </c>
       <c r="G77" t="n">
-        <v>67.39450000000005</v>
+        <v>67.40250000000006</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>66.84</v>
+      </c>
+      <c r="C78" t="n">
         <v>66.8</v>
       </c>
-      <c r="C78" t="n">
-        <v>66.52</v>
-      </c>
       <c r="D78" t="n">
+        <v>66.84</v>
+      </c>
+      <c r="E78" t="n">
         <v>66.8</v>
       </c>
-      <c r="E78" t="n">
-        <v>66.52</v>
-      </c>
       <c r="F78" t="n">
-        <v>7139.0579</v>
+        <v>340.946</v>
       </c>
       <c r="G78" t="n">
-        <v>67.38183333333339</v>
+        <v>67.39450000000005</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>66.52</v>
+        <v>66.8</v>
       </c>
       <c r="C79" t="n">
         <v>66.52</v>
       </c>
       <c r="D79" t="n">
-        <v>66.52</v>
+        <v>66.8</v>
       </c>
       <c r="E79" t="n">
         <v>66.52</v>
       </c>
       <c r="F79" t="n">
-        <v>2219.5973</v>
+        <v>7139.0579</v>
       </c>
       <c r="G79" t="n">
-        <v>67.37216666666671</v>
+        <v>67.38183333333339</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3175,10 @@
         <v>66.52</v>
       </c>
       <c r="F80" t="n">
-        <v>56014.0518</v>
+        <v>2219.5973</v>
       </c>
       <c r="G80" t="n">
-        <v>67.36250000000005</v>
+        <v>67.37216666666671</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>66.5</v>
+        <v>66.52</v>
       </c>
       <c r="C81" t="n">
-        <v>66.5</v>
+        <v>66.52</v>
       </c>
       <c r="D81" t="n">
-        <v>66.5</v>
+        <v>66.52</v>
       </c>
       <c r="E81" t="n">
-        <v>66.5</v>
+        <v>66.52</v>
       </c>
       <c r="F81" t="n">
-        <v>1991.4</v>
+        <v>56014.0518</v>
       </c>
       <c r="G81" t="n">
-        <v>67.35783333333339</v>
+        <v>67.36250000000005</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>66.5</v>
       </c>
       <c r="F82" t="n">
-        <v>178</v>
+        <v>1991.4</v>
       </c>
       <c r="G82" t="n">
-        <v>67.35283333333338</v>
+        <v>67.35783333333339</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>66.5</v>
       </c>
       <c r="F83" t="n">
-        <v>48.6451</v>
+        <v>178</v>
       </c>
       <c r="G83" t="n">
-        <v>67.34466666666671</v>
+        <v>67.35283333333338</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>66.47</v>
+        <v>66.5</v>
       </c>
       <c r="C84" t="n">
-        <v>66.44</v>
+        <v>66.5</v>
       </c>
       <c r="D84" t="n">
-        <v>66.47</v>
+        <v>66.5</v>
       </c>
       <c r="E84" t="n">
-        <v>66.44</v>
+        <v>66.5</v>
       </c>
       <c r="F84" t="n">
-        <v>169.5577</v>
+        <v>48.6451</v>
       </c>
       <c r="G84" t="n">
-        <v>67.33016666666671</v>
+        <v>67.34466666666671</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>66.40000000000001</v>
+        <v>66.47</v>
       </c>
       <c r="C85" t="n">
-        <v>66.40000000000001</v>
+        <v>66.44</v>
       </c>
       <c r="D85" t="n">
-        <v>66.40000000000001</v>
+        <v>66.47</v>
       </c>
       <c r="E85" t="n">
-        <v>66.40000000000001</v>
+        <v>66.44</v>
       </c>
       <c r="F85" t="n">
-        <v>13.675</v>
+        <v>169.5577</v>
       </c>
       <c r="G85" t="n">
-        <v>67.31500000000004</v>
+        <v>67.33016666666671</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3385,10 +3385,10 @@
         <v>66.40000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>29351.0763</v>
+        <v>13.675</v>
       </c>
       <c r="G86" t="n">
-        <v>67.29783333333339</v>
+        <v>67.31500000000004</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>66.20999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>66.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>66.20999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>66.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>333038.5708</v>
+        <v>29351.0763</v>
       </c>
       <c r="G87" t="n">
-        <v>67.27850000000005</v>
+        <v>67.29783333333339</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>66.14</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="C88" t="n">
         <v>66.2</v>
       </c>
       <c r="D88" t="n">
+        <v>66.20999999999999</v>
+      </c>
+      <c r="E88" t="n">
         <v>66.2</v>
       </c>
-      <c r="E88" t="n">
-        <v>66.14</v>
-      </c>
       <c r="F88" t="n">
-        <v>44603.2883</v>
+        <v>333038.5708</v>
       </c>
       <c r="G88" t="n">
-        <v>67.25650000000006</v>
+        <v>67.27850000000005</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>66.11</v>
+        <v>66.14</v>
       </c>
       <c r="C89" t="n">
-        <v>66.11</v>
+        <v>66.2</v>
       </c>
       <c r="D89" t="n">
-        <v>66.11</v>
+        <v>66.2</v>
       </c>
       <c r="E89" t="n">
-        <v>66.11</v>
+        <v>66.14</v>
       </c>
       <c r="F89" t="n">
-        <v>109506.6882</v>
+        <v>44603.2883</v>
       </c>
       <c r="G89" t="n">
-        <v>67.2323333333334</v>
+        <v>67.25650000000006</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>66.11</v>
       </c>
       <c r="F90" t="n">
-        <v>33299.5339</v>
+        <v>109506.6882</v>
       </c>
       <c r="G90" t="n">
-        <v>67.20816666666673</v>
+        <v>67.2323333333334</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3557,13 +3557,13 @@
         <v>66.11</v>
       </c>
       <c r="E91" t="n">
-        <v>66.09999999999999</v>
+        <v>66.11</v>
       </c>
       <c r="F91" t="n">
-        <v>15278.7373</v>
+        <v>33299.5339</v>
       </c>
       <c r="G91" t="n">
-        <v>67.18400000000007</v>
+        <v>67.20816666666673</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3592,13 +3592,13 @@
         <v>66.11</v>
       </c>
       <c r="E92" t="n">
-        <v>66.11</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F92" t="n">
-        <v>19409.3504</v>
+        <v>15278.7373</v>
       </c>
       <c r="G92" t="n">
-        <v>67.15983333333341</v>
+        <v>67.18400000000007</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>66.23</v>
+        <v>66.11</v>
       </c>
       <c r="C93" t="n">
-        <v>66.23</v>
+        <v>66.11</v>
       </c>
       <c r="D93" t="n">
-        <v>66.23</v>
+        <v>66.11</v>
       </c>
       <c r="E93" t="n">
-        <v>66.23</v>
+        <v>66.11</v>
       </c>
       <c r="F93" t="n">
-        <v>3292.6449</v>
+        <v>19409.3504</v>
       </c>
       <c r="G93" t="n">
-        <v>67.1373333333334</v>
+        <v>67.15983333333341</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>66.16</v>
+        <v>66.23</v>
       </c>
       <c r="C94" t="n">
-        <v>66.16</v>
+        <v>66.23</v>
       </c>
       <c r="D94" t="n">
-        <v>66.16</v>
+        <v>66.23</v>
       </c>
       <c r="E94" t="n">
-        <v>66.16</v>
+        <v>66.23</v>
       </c>
       <c r="F94" t="n">
-        <v>13687.7853</v>
+        <v>3292.6449</v>
       </c>
       <c r="G94" t="n">
-        <v>67.11316666666673</v>
+        <v>67.1373333333334</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>66.06</v>
+        <v>66.16</v>
       </c>
       <c r="C95" t="n">
-        <v>66.06</v>
+        <v>66.16</v>
       </c>
       <c r="D95" t="n">
-        <v>66.06</v>
+        <v>66.16</v>
       </c>
       <c r="E95" t="n">
-        <v>66.06</v>
+        <v>66.16</v>
       </c>
       <c r="F95" t="n">
-        <v>38740.3507</v>
+        <v>13687.7853</v>
       </c>
       <c r="G95" t="n">
-        <v>67.09216666666673</v>
+        <v>67.11316666666673</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>66.08</v>
+        <v>66.06</v>
       </c>
       <c r="C96" t="n">
-        <v>66.09</v>
+        <v>66.06</v>
       </c>
       <c r="D96" t="n">
-        <v>66.09</v>
+        <v>66.06</v>
       </c>
       <c r="E96" t="n">
-        <v>66.08</v>
+        <v>66.06</v>
       </c>
       <c r="F96" t="n">
-        <v>1434.07</v>
+        <v>38740.3507</v>
       </c>
       <c r="G96" t="n">
-        <v>67.07150000000007</v>
+        <v>67.09216666666673</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>66.08</v>
+      </c>
+      <c r="C97" t="n">
         <v>66.09</v>
-      </c>
-      <c r="C97" t="n">
-        <v>66.02</v>
       </c>
       <c r="D97" t="n">
         <v>66.09</v>
       </c>
       <c r="E97" t="n">
-        <v>66.02</v>
+        <v>66.08</v>
       </c>
       <c r="F97" t="n">
-        <v>69437.932</v>
+        <v>1434.07</v>
       </c>
       <c r="G97" t="n">
-        <v>67.0473333333334</v>
+        <v>67.07150000000007</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>66.09</v>
+      </c>
+      <c r="C98" t="n">
         <v>66.02</v>
       </c>
-      <c r="C98" t="n">
-        <v>66.01000000000001</v>
-      </c>
       <c r="D98" t="n">
-        <v>66.12</v>
+        <v>66.09</v>
       </c>
       <c r="E98" t="n">
-        <v>66.01000000000001</v>
+        <v>66.02</v>
       </c>
       <c r="F98" t="n">
-        <v>52973.1955</v>
+        <v>69437.932</v>
       </c>
       <c r="G98" t="n">
-        <v>67.02300000000008</v>
+        <v>67.0473333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>66.01000000000001</v>
+        <v>66.02</v>
       </c>
       <c r="C99" t="n">
         <v>66.01000000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>66.01000000000001</v>
+        <v>66.12</v>
       </c>
       <c r="E99" t="n">
         <v>66.01000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>4548.6977</v>
+        <v>52973.1955</v>
       </c>
       <c r="G99" t="n">
-        <v>66.99450000000009</v>
+        <v>67.02300000000008</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3875,10 +3875,10 @@
         <v>66.01000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>57367.2179</v>
+        <v>4548.6977</v>
       </c>
       <c r="G100" t="n">
-        <v>66.96600000000009</v>
+        <v>66.99450000000009</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>66.01000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>66</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="D101" t="n">
         <v>66.01000000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>65.97</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>19187.0436</v>
+        <v>57367.2179</v>
       </c>
       <c r="G101" t="n">
-        <v>66.94050000000009</v>
+        <v>66.96600000000009</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>65.93000000000001</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>65.93000000000001</v>
+        <v>66</v>
       </c>
       <c r="D102" t="n">
-        <v>65.93000000000001</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>65.93000000000001</v>
+        <v>65.97</v>
       </c>
       <c r="F102" t="n">
-        <v>589.6681</v>
+        <v>19187.0436</v>
       </c>
       <c r="G102" t="n">
-        <v>66.91383333333341</v>
+        <v>66.94050000000009</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>65.94</v>
+        <v>65.93000000000001</v>
       </c>
       <c r="C103" t="n">
         <v>65.93000000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>65.98999999999999</v>
+        <v>65.93000000000001</v>
       </c>
       <c r="E103" t="n">
         <v>65.93000000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>42683.7575</v>
+        <v>589.6681</v>
       </c>
       <c r="G103" t="n">
-        <v>66.88733333333342</v>
+        <v>66.91383333333341</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>65.93000000000001</v>
+        <v>65.94</v>
       </c>
       <c r="C104" t="n">
         <v>65.93000000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>65.93000000000001</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="E104" t="n">
         <v>65.93000000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>2300</v>
+        <v>42683.7575</v>
       </c>
       <c r="G104" t="n">
-        <v>66.86116666666675</v>
+        <v>66.88733333333342</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,10 +4050,10 @@
         <v>65.93000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>5377.4656</v>
+        <v>2300</v>
       </c>
       <c r="G105" t="n">
-        <v>66.83900000000007</v>
+        <v>66.86116666666675</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4085,10 +4085,10 @@
         <v>65.93000000000001</v>
       </c>
       <c r="F106" t="n">
-        <v>3558.0424</v>
+        <v>5377.4656</v>
       </c>
       <c r="G106" t="n">
-        <v>66.81100000000006</v>
+        <v>66.83900000000007</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4117,13 +4117,13 @@
         <v>65.93000000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>65.91</v>
+        <v>65.93000000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>6382.415</v>
+        <v>3558.0424</v>
       </c>
       <c r="G107" t="n">
-        <v>66.78366666666673</v>
+        <v>66.81100000000006</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4152,13 +4152,13 @@
         <v>65.93000000000001</v>
       </c>
       <c r="E108" t="n">
-        <v>65.93000000000001</v>
+        <v>65.91</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0001</v>
+        <v>6382.415</v>
       </c>
       <c r="G108" t="n">
-        <v>66.75633333333339</v>
+        <v>66.78366666666673</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,10 +4190,10 @@
         <v>65.93000000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>3000</v>
+        <v>0.0001</v>
       </c>
       <c r="G109" t="n">
-        <v>66.73283333333339</v>
+        <v>66.75633333333339</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4225,10 +4225,10 @@
         <v>65.93000000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>518.2595</v>
+        <v>3000</v>
       </c>
       <c r="G110" t="n">
-        <v>66.70466666666671</v>
+        <v>66.73283333333339</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4251,19 +4251,19 @@
         <v>65.93000000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>65.70999999999999</v>
+        <v>65.93000000000001</v>
       </c>
       <c r="D111" t="n">
         <v>65.93000000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>65.61</v>
+        <v>65.93000000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>50574.6557</v>
+        <v>518.2595</v>
       </c>
       <c r="G111" t="n">
-        <v>66.67683333333338</v>
+        <v>66.70466666666671</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>65.59999999999999</v>
+        <v>65.93000000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>65.5</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>65.59999999999999</v>
+        <v>65.93000000000001</v>
       </c>
       <c r="E112" t="n">
-        <v>65.5</v>
+        <v>65.61</v>
       </c>
       <c r="F112" t="n">
-        <v>89357.20540000001</v>
+        <v>50574.6557</v>
       </c>
       <c r="G112" t="n">
-        <v>66.64150000000005</v>
+        <v>66.67683333333338</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>65.5</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="C113" t="n">
         <v>65.5</v>
       </c>
       <c r="D113" t="n">
-        <v>65.5</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E113" t="n">
         <v>65.5</v>
       </c>
       <c r="F113" t="n">
-        <v>4563.802</v>
+        <v>89357.20540000001</v>
       </c>
       <c r="G113" t="n">
-        <v>66.60633333333338</v>
+        <v>66.64150000000005</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>65.40000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="C114" t="n">
-        <v>65.3</v>
+        <v>65.5</v>
       </c>
       <c r="D114" t="n">
         <v>65.5</v>
       </c>
       <c r="E114" t="n">
-        <v>65.3</v>
+        <v>65.5</v>
       </c>
       <c r="F114" t="n">
-        <v>23345.8733</v>
+        <v>4563.802</v>
       </c>
       <c r="G114" t="n">
-        <v>66.56566666666671</v>
+        <v>66.60633333333338</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="C115" t="n">
         <v>65.3</v>
       </c>
-      <c r="C115" t="n">
-        <v>65.41</v>
-      </c>
       <c r="D115" t="n">
-        <v>65.41</v>
+        <v>65.5</v>
       </c>
       <c r="E115" t="n">
-        <v>65.05</v>
+        <v>65.3</v>
       </c>
       <c r="F115" t="n">
-        <v>56462.7617</v>
+        <v>23345.8733</v>
       </c>
       <c r="G115" t="n">
-        <v>66.52683333333339</v>
+        <v>66.56566666666671</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>65.39</v>
+        <v>65.3</v>
       </c>
       <c r="C116" t="n">
-        <v>65.28</v>
+        <v>65.41</v>
       </c>
       <c r="D116" t="n">
-        <v>65.39</v>
+        <v>65.41</v>
       </c>
       <c r="E116" t="n">
-        <v>65.28</v>
+        <v>65.05</v>
       </c>
       <c r="F116" t="n">
-        <v>1308.385</v>
+        <v>56462.7617</v>
       </c>
       <c r="G116" t="n">
-        <v>66.48550000000006</v>
+        <v>66.52683333333339</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>65.27</v>
+        <v>65.39</v>
       </c>
       <c r="C117" t="n">
         <v>65.28</v>
       </c>
       <c r="D117" t="n">
+        <v>65.39</v>
+      </c>
+      <c r="E117" t="n">
         <v>65.28</v>
       </c>
-      <c r="E117" t="n">
-        <v>65.27</v>
-      </c>
       <c r="F117" t="n">
-        <v>22486.5944</v>
+        <v>1308.385</v>
       </c>
       <c r="G117" t="n">
-        <v>66.44516666666672</v>
+        <v>66.48550000000006</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>65.27</v>
+      </c>
+      <c r="C118" t="n">
         <v>65.28</v>
-      </c>
-      <c r="C118" t="n">
-        <v>65.2</v>
       </c>
       <c r="D118" t="n">
         <v>65.28</v>
       </c>
       <c r="E118" t="n">
-        <v>65.2</v>
+        <v>65.27</v>
       </c>
       <c r="F118" t="n">
-        <v>24444.1824</v>
+        <v>22486.5944</v>
       </c>
       <c r="G118" t="n">
-        <v>66.40516666666673</v>
+        <v>66.44516666666672</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>65.53</v>
+        <v>65.28</v>
       </c>
       <c r="C119" t="n">
-        <v>65.41</v>
+        <v>65.2</v>
       </c>
       <c r="D119" t="n">
-        <v>65.53</v>
+        <v>65.28</v>
       </c>
       <c r="E119" t="n">
-        <v>65.41</v>
+        <v>65.2</v>
       </c>
       <c r="F119" t="n">
-        <v>31107.3835</v>
+        <v>24444.1824</v>
       </c>
       <c r="G119" t="n">
-        <v>66.37083333333339</v>
+        <v>66.40516666666673</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>65.59999999999999</v>
+        <v>65.53</v>
       </c>
       <c r="C120" t="n">
-        <v>65.65000000000001</v>
+        <v>65.41</v>
       </c>
       <c r="D120" t="n">
-        <v>65.65000000000001</v>
+        <v>65.53</v>
       </c>
       <c r="E120" t="n">
-        <v>65.59999999999999</v>
+        <v>65.41</v>
       </c>
       <c r="F120" t="n">
-        <v>26845.9453</v>
+        <v>31107.3835</v>
       </c>
       <c r="G120" t="n">
-        <v>66.33650000000006</v>
+        <v>66.37083333333339</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,7 +4598,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>65.65000000000001</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="C121" t="n">
         <v>65.65000000000001</v>
@@ -4607,13 +4607,13 @@
         <v>65.65000000000001</v>
       </c>
       <c r="E121" t="n">
-        <v>65.65000000000001</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="F121" t="n">
-        <v>18.79</v>
+        <v>26845.9453</v>
       </c>
       <c r="G121" t="n">
-        <v>66.30350000000006</v>
+        <v>66.33650000000006</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4645,10 +4645,10 @@
         <v>65.65000000000001</v>
       </c>
       <c r="F122" t="n">
-        <v>10371.5004</v>
+        <v>18.79</v>
       </c>
       <c r="G122" t="n">
-        <v>66.2713333333334</v>
+        <v>66.30350000000006</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>65.33</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>65.58</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>65.58</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>65.33</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>29649.0403</v>
+        <v>10371.5004</v>
       </c>
       <c r="G123" t="n">
-        <v>66.23916666666672</v>
+        <v>66.2713333333334</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>65.54000000000001</v>
+        <v>65.33</v>
       </c>
       <c r="C124" t="n">
-        <v>65.54000000000001</v>
+        <v>65.58</v>
       </c>
       <c r="D124" t="n">
-        <v>65.54000000000001</v>
+        <v>65.58</v>
       </c>
       <c r="E124" t="n">
-        <v>65.54000000000001</v>
+        <v>65.33</v>
       </c>
       <c r="F124" t="n">
-        <v>100</v>
+        <v>29649.0403</v>
       </c>
       <c r="G124" t="n">
-        <v>66.20950000000006</v>
+        <v>66.23916666666672</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>65.45999999999999</v>
+        <v>65.54000000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>65.45999999999999</v>
+        <v>65.54000000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>65.45999999999999</v>
+        <v>65.54000000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>65.45999999999999</v>
+        <v>65.54000000000001</v>
       </c>
       <c r="F125" t="n">
-        <v>18658.4632</v>
+        <v>100</v>
       </c>
       <c r="G125" t="n">
-        <v>66.17850000000006</v>
+        <v>66.20950000000006</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>65.48</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="C126" t="n">
-        <v>65.48</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>65.48</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>65.48</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>904.7438</v>
+        <v>18658.4632</v>
       </c>
       <c r="G126" t="n">
-        <v>66.14883333333339</v>
+        <v>66.17850000000006</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>65.47</v>
+        <v>65.48</v>
       </c>
       <c r="C127" t="n">
-        <v>65.47</v>
+        <v>65.48</v>
       </c>
       <c r="D127" t="n">
-        <v>65.47</v>
+        <v>65.48</v>
       </c>
       <c r="E127" t="n">
-        <v>65.47</v>
+        <v>65.48</v>
       </c>
       <c r="F127" t="n">
-        <v>1000</v>
+        <v>904.7438</v>
       </c>
       <c r="G127" t="n">
-        <v>66.11900000000004</v>
+        <v>66.14883333333339</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>65.45</v>
+        <v>65.47</v>
       </c>
       <c r="C128" t="n">
-        <v>65.45</v>
+        <v>65.47</v>
       </c>
       <c r="D128" t="n">
-        <v>65.45</v>
+        <v>65.47</v>
       </c>
       <c r="E128" t="n">
-        <v>65.45</v>
+        <v>65.47</v>
       </c>
       <c r="F128" t="n">
-        <v>152.78838808</v>
+        <v>1000</v>
       </c>
       <c r="G128" t="n">
-        <v>66.08883333333337</v>
+        <v>66.11900000000004</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>65.23</v>
+        <v>65.45</v>
       </c>
       <c r="C129" t="n">
-        <v>65.23</v>
+        <v>65.45</v>
       </c>
       <c r="D129" t="n">
-        <v>65.23</v>
+        <v>65.45</v>
       </c>
       <c r="E129" t="n">
-        <v>65.23</v>
+        <v>65.45</v>
       </c>
       <c r="F129" t="n">
-        <v>3292.6449</v>
+        <v>152.78838808</v>
       </c>
       <c r="G129" t="n">
-        <v>66.05533333333338</v>
+        <v>66.08883333333337</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>65.34999999999999</v>
+        <v>65.23</v>
       </c>
       <c r="C130" t="n">
-        <v>65.34999999999999</v>
+        <v>65.23</v>
       </c>
       <c r="D130" t="n">
-        <v>65.34999999999999</v>
+        <v>65.23</v>
       </c>
       <c r="E130" t="n">
-        <v>65.34999999999999</v>
+        <v>65.23</v>
       </c>
       <c r="F130" t="n">
-        <v>28540.3766</v>
+        <v>3292.6449</v>
       </c>
       <c r="G130" t="n">
-        <v>66.02416666666672</v>
+        <v>66.05533333333338</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>65.36</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>65.36</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>65.36</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="E131" t="n">
-        <v>65.36</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="F131" t="n">
-        <v>12241.1863</v>
+        <v>28540.3766</v>
       </c>
       <c r="G131" t="n">
-        <v>65.99333333333338</v>
+        <v>66.02416666666672</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>65.3</v>
+        <v>65.36</v>
       </c>
       <c r="C132" t="n">
-        <v>65.3</v>
+        <v>65.36</v>
       </c>
       <c r="D132" t="n">
-        <v>65.3</v>
+        <v>65.36</v>
       </c>
       <c r="E132" t="n">
-        <v>65.3</v>
+        <v>65.36</v>
       </c>
       <c r="F132" t="n">
-        <v>592.592</v>
+        <v>12241.1863</v>
       </c>
       <c r="G132" t="n">
-        <v>65.96316666666671</v>
+        <v>65.99333333333338</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>65.23</v>
+        <v>65.3</v>
       </c>
       <c r="C133" t="n">
-        <v>65.36</v>
+        <v>65.3</v>
       </c>
       <c r="D133" t="n">
-        <v>65.36</v>
+        <v>65.3</v>
       </c>
       <c r="E133" t="n">
-        <v>65.23</v>
+        <v>65.3</v>
       </c>
       <c r="F133" t="n">
-        <v>49256.8871</v>
+        <v>592.592</v>
       </c>
       <c r="G133" t="n">
-        <v>65.93366666666671</v>
+        <v>65.96316666666671</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
+        <v>65.23</v>
+      </c>
+      <c r="C134" t="n">
         <v>65.36</v>
-      </c>
-      <c r="C134" t="n">
-        <v>65.20999999999999</v>
       </c>
       <c r="D134" t="n">
         <v>65.36</v>
       </c>
       <c r="E134" t="n">
-        <v>65.20999999999999</v>
+        <v>65.23</v>
       </c>
       <c r="F134" t="n">
-        <v>4335.2035</v>
+        <v>49256.8871</v>
       </c>
       <c r="G134" t="n">
-        <v>65.90133333333338</v>
+        <v>65.93366666666671</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>65.22</v>
+        <v>65.36</v>
       </c>
       <c r="C135" t="n">
-        <v>65.22</v>
+        <v>65.20999999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>65.22</v>
+        <v>65.36</v>
       </c>
       <c r="E135" t="n">
-        <v>65.22</v>
+        <v>65.20999999999999</v>
       </c>
       <c r="F135" t="n">
-        <v>372.7024</v>
+        <v>4335.2035</v>
       </c>
       <c r="G135" t="n">
-        <v>65.87166666666671</v>
+        <v>65.90133333333338</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>65.34999999999999</v>
+        <v>65.22</v>
       </c>
       <c r="C136" t="n">
-        <v>65.25</v>
+        <v>65.22</v>
       </c>
       <c r="D136" t="n">
-        <v>65.34999999999999</v>
+        <v>65.22</v>
       </c>
       <c r="E136" t="n">
-        <v>65.25</v>
+        <v>65.22</v>
       </c>
       <c r="F136" t="n">
-        <v>3000</v>
+        <v>372.7024</v>
       </c>
       <c r="G136" t="n">
-        <v>65.84500000000004</v>
+        <v>65.87166666666671</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>65.22</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="C137" t="n">
-        <v>65.22</v>
+        <v>65.25</v>
       </c>
       <c r="D137" t="n">
-        <v>65.22</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="E137" t="n">
-        <v>65.22</v>
+        <v>65.25</v>
       </c>
       <c r="F137" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="G137" t="n">
-        <v>65.8186666666667</v>
+        <v>65.84500000000004</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5196,19 +5196,19 @@
         <v>65.22</v>
       </c>
       <c r="C138" t="n">
-        <v>65.43000000000001</v>
+        <v>65.22</v>
       </c>
       <c r="D138" t="n">
-        <v>65.43000000000001</v>
+        <v>65.22</v>
       </c>
       <c r="E138" t="n">
         <v>65.22</v>
       </c>
       <c r="F138" t="n">
-        <v>5665</v>
+        <v>600</v>
       </c>
       <c r="G138" t="n">
-        <v>65.80050000000003</v>
+        <v>65.8186666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>65.43000000000001</v>
+        <v>65.22</v>
       </c>
       <c r="C139" t="n">
         <v>65.43000000000001</v>
@@ -5237,13 +5237,13 @@
         <v>65.43000000000001</v>
       </c>
       <c r="E139" t="n">
-        <v>65.43000000000001</v>
+        <v>65.22</v>
       </c>
       <c r="F139" t="n">
-        <v>182.5666</v>
+        <v>5665</v>
       </c>
       <c r="G139" t="n">
-        <v>65.78233333333337</v>
+        <v>65.80050000000003</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>65.48</v>
+        <v>65.43000000000001</v>
       </c>
       <c r="C140" t="n">
-        <v>65.31999999999999</v>
+        <v>65.43000000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>65.48</v>
+        <v>65.43000000000001</v>
       </c>
       <c r="E140" t="n">
-        <v>65.31999999999999</v>
+        <v>65.43000000000001</v>
       </c>
       <c r="F140" t="n">
-        <v>762</v>
+        <v>182.5666</v>
       </c>
       <c r="G140" t="n">
-        <v>65.76233333333337</v>
+        <v>65.78233333333337</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>65.33</v>
+        <v>65.48</v>
       </c>
       <c r="C141" t="n">
-        <v>65.33</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>65.33</v>
+        <v>65.48</v>
       </c>
       <c r="E141" t="n">
-        <v>65.33</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="F141" t="n">
-        <v>53.0909</v>
+        <v>762</v>
       </c>
       <c r="G141" t="n">
-        <v>65.74283333333337</v>
+        <v>65.76233333333337</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>65.41</v>
+        <v>65.33</v>
       </c>
       <c r="C142" t="n">
-        <v>65.41</v>
+        <v>65.33</v>
       </c>
       <c r="D142" t="n">
-        <v>65.41</v>
+        <v>65.33</v>
       </c>
       <c r="E142" t="n">
-        <v>65.41</v>
+        <v>65.33</v>
       </c>
       <c r="F142" t="n">
-        <v>764.2923</v>
+        <v>53.0909</v>
       </c>
       <c r="G142" t="n">
-        <v>65.72466666666669</v>
+        <v>65.74283333333337</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>65.31999999999999</v>
+        <v>65.41</v>
       </c>
       <c r="C143" t="n">
-        <v>65.31999999999999</v>
+        <v>65.41</v>
       </c>
       <c r="D143" t="n">
-        <v>65.31999999999999</v>
+        <v>65.41</v>
       </c>
       <c r="E143" t="n">
-        <v>65.31</v>
+        <v>65.41</v>
       </c>
       <c r="F143" t="n">
-        <v>1304</v>
+        <v>764.2923</v>
       </c>
       <c r="G143" t="n">
-        <v>65.70500000000003</v>
+        <v>65.72466666666669</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>65.38</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>65.38</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="D144" t="n">
-        <v>65.38</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="E144" t="n">
-        <v>65.38</v>
+        <v>65.31</v>
       </c>
       <c r="F144" t="n">
-        <v>500</v>
+        <v>1304</v>
       </c>
       <c r="G144" t="n">
-        <v>65.68733333333337</v>
+        <v>65.70500000000003</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>65.3</v>
+        <v>65.38</v>
       </c>
       <c r="C145" t="n">
-        <v>65.22</v>
+        <v>65.38</v>
       </c>
       <c r="D145" t="n">
-        <v>65.3</v>
+        <v>65.38</v>
       </c>
       <c r="E145" t="n">
-        <v>65.22</v>
+        <v>65.38</v>
       </c>
       <c r="F145" t="n">
-        <v>14700</v>
+        <v>500</v>
       </c>
       <c r="G145" t="n">
-        <v>65.66766666666669</v>
+        <v>65.68733333333337</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>65.22</v>
+        <v>65.3</v>
       </c>
       <c r="C146" t="n">
         <v>65.22</v>
       </c>
       <c r="D146" t="n">
-        <v>65.22</v>
+        <v>65.3</v>
       </c>
       <c r="E146" t="n">
         <v>65.22</v>
       </c>
       <c r="F146" t="n">
-        <v>11490.8144</v>
+        <v>14700</v>
       </c>
       <c r="G146" t="n">
-        <v>65.64800000000002</v>
+        <v>65.66766666666669</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5520,10 +5520,10 @@
         <v>65.22</v>
       </c>
       <c r="F147" t="n">
-        <v>8</v>
+        <v>11490.8144</v>
       </c>
       <c r="G147" t="n">
-        <v>65.63166666666669</v>
+        <v>65.64800000000002</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5555,10 +5555,10 @@
         <v>65.22</v>
       </c>
       <c r="F148" t="n">
-        <v>26261.8799</v>
+        <v>8</v>
       </c>
       <c r="G148" t="n">
-        <v>65.61533333333335</v>
+        <v>65.63166666666669</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5590,10 +5590,10 @@
         <v>65.22</v>
       </c>
       <c r="F149" t="n">
-        <v>9131.5861</v>
+        <v>26261.8799</v>
       </c>
       <c r="G149" t="n">
-        <v>65.60050000000003</v>
+        <v>65.61533333333335</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>65.2</v>
+        <v>65.22</v>
       </c>
       <c r="C150" t="n">
-        <v>65.2</v>
+        <v>65.22</v>
       </c>
       <c r="D150" t="n">
-        <v>65.2</v>
+        <v>65.22</v>
       </c>
       <c r="E150" t="n">
-        <v>65.2</v>
+        <v>65.22</v>
       </c>
       <c r="F150" t="n">
-        <v>2257.8955</v>
+        <v>9131.5861</v>
       </c>
       <c r="G150" t="n">
-        <v>65.58533333333335</v>
+        <v>65.60050000000003</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>65.22</v>
+        <v>65.2</v>
       </c>
       <c r="C151" t="n">
-        <v>65.22</v>
+        <v>65.2</v>
       </c>
       <c r="D151" t="n">
-        <v>65.22</v>
+        <v>65.2</v>
       </c>
       <c r="E151" t="n">
-        <v>65.22</v>
+        <v>65.2</v>
       </c>
       <c r="F151" t="n">
-        <v>382.0769</v>
+        <v>2257.8955</v>
       </c>
       <c r="G151" t="n">
-        <v>65.57050000000001</v>
+        <v>65.58533333333335</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>65.15000000000001</v>
+        <v>65.22</v>
       </c>
       <c r="C152" t="n">
-        <v>65.13</v>
+        <v>65.22</v>
       </c>
       <c r="D152" t="n">
-        <v>65.15000000000001</v>
+        <v>65.22</v>
       </c>
       <c r="E152" t="n">
-        <v>65.13</v>
+        <v>65.22</v>
       </c>
       <c r="F152" t="n">
-        <v>327.4</v>
+        <v>382.0769</v>
       </c>
       <c r="G152" t="n">
-        <v>65.55416666666667</v>
+        <v>65.57050000000001</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>65.09999999999999</v>
+        <v>65.15000000000001</v>
       </c>
       <c r="C153" t="n">
-        <v>65</v>
+        <v>65.13</v>
       </c>
       <c r="D153" t="n">
-        <v>65.12</v>
+        <v>65.15000000000001</v>
       </c>
       <c r="E153" t="n">
-        <v>65</v>
+        <v>65.13</v>
       </c>
       <c r="F153" t="n">
-        <v>132501.4223</v>
+        <v>327.4</v>
       </c>
       <c r="G153" t="n">
-        <v>65.53366666666668</v>
+        <v>65.55416666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>65</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="C154" t="n">
         <v>65</v>
       </c>
       <c r="D154" t="n">
-        <v>65</v>
+        <v>65.12</v>
       </c>
       <c r="E154" t="n">
         <v>65</v>
       </c>
       <c r="F154" t="n">
-        <v>35822.2766</v>
+        <v>132501.4223</v>
       </c>
       <c r="G154" t="n">
-        <v>65.51433333333334</v>
+        <v>65.53366666666668</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>64.90000000000001</v>
+        <v>65</v>
       </c>
       <c r="C155" t="n">
-        <v>64.90000000000001</v>
+        <v>65</v>
       </c>
       <c r="D155" t="n">
-        <v>64.90000000000001</v>
+        <v>65</v>
       </c>
       <c r="E155" t="n">
-        <v>64.90000000000001</v>
+        <v>65</v>
       </c>
       <c r="F155" t="n">
-        <v>2088.1244</v>
+        <v>35822.2766</v>
       </c>
       <c r="G155" t="n">
-        <v>65.49500000000002</v>
+        <v>65.51433333333334</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>65</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="C156" t="n">
-        <v>65</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="D156" t="n">
-        <v>65</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="E156" t="n">
-        <v>65</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="F156" t="n">
-        <v>17235.5605</v>
+        <v>2088.1244</v>
       </c>
       <c r="G156" t="n">
-        <v>65.47683333333335</v>
+        <v>65.49500000000002</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>65.13</v>
+        <v>65</v>
       </c>
       <c r="C157" t="n">
-        <v>65.2</v>
+        <v>65</v>
       </c>
       <c r="D157" t="n">
-        <v>65.2</v>
+        <v>65</v>
       </c>
       <c r="E157" t="n">
-        <v>65.13</v>
+        <v>65</v>
       </c>
       <c r="F157" t="n">
-        <v>24900</v>
+        <v>17235.5605</v>
       </c>
       <c r="G157" t="n">
-        <v>65.46316666666668</v>
+        <v>65.47683333333335</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,7 +5893,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>65.2</v>
+        <v>65.13</v>
       </c>
       <c r="C158" t="n">
         <v>65.2</v>
@@ -5902,13 +5902,13 @@
         <v>65.2</v>
       </c>
       <c r="E158" t="n">
-        <v>65.2</v>
+        <v>65.13</v>
       </c>
       <c r="F158" t="n">
-        <v>386.5562</v>
+        <v>24900</v>
       </c>
       <c r="G158" t="n">
-        <v>65.44966666666667</v>
+        <v>65.46316666666668</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +5928,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>65.18000000000001</v>
+        <v>65.2</v>
       </c>
       <c r="C159" t="n">
-        <v>65.18000000000001</v>
+        <v>65.2</v>
       </c>
       <c r="D159" t="n">
-        <v>65.18000000000001</v>
+        <v>65.2</v>
       </c>
       <c r="E159" t="n">
-        <v>65.18000000000001</v>
+        <v>65.2</v>
       </c>
       <c r="F159" t="n">
-        <v>524</v>
+        <v>386.5562</v>
       </c>
       <c r="G159" t="n">
-        <v>65.43583333333332</v>
+        <v>65.44966666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>65.13</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="C160" t="n">
-        <v>65.13</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="D160" t="n">
-        <v>65.13</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="E160" t="n">
-        <v>65.13</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="F160" t="n">
-        <v>14856.3595</v>
+        <v>524</v>
       </c>
       <c r="G160" t="n">
-        <v>65.42116666666666</v>
+        <v>65.43583333333332</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>65.23999999999999</v>
+        <v>65.13</v>
       </c>
       <c r="C161" t="n">
-        <v>65.23999999999999</v>
+        <v>65.13</v>
       </c>
       <c r="D161" t="n">
-        <v>65.23999999999999</v>
+        <v>65.13</v>
       </c>
       <c r="E161" t="n">
-        <v>65.23999999999999</v>
+        <v>65.13</v>
       </c>
       <c r="F161" t="n">
-        <v>651.8801999999999</v>
+        <v>14856.3595</v>
       </c>
       <c r="G161" t="n">
-        <v>65.40849999999999</v>
+        <v>65.42116666666666</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>65.2</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="C162" t="n">
-        <v>65.2</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="D162" t="n">
-        <v>65.2</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="E162" t="n">
-        <v>65.2</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="F162" t="n">
-        <v>613.8088</v>
+        <v>651.8801999999999</v>
       </c>
       <c r="G162" t="n">
-        <v>65.39633333333332</v>
+        <v>65.40849999999999</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>65.43000000000001</v>
+        <v>65.2</v>
       </c>
       <c r="C163" t="n">
-        <v>65.47</v>
+        <v>65.2</v>
       </c>
       <c r="D163" t="n">
-        <v>65.47</v>
+        <v>65.2</v>
       </c>
       <c r="E163" t="n">
-        <v>65.43000000000001</v>
+        <v>65.2</v>
       </c>
       <c r="F163" t="n">
-        <v>15.4</v>
+        <v>613.8088</v>
       </c>
       <c r="G163" t="n">
-        <v>65.38866666666665</v>
+        <v>65.39633333333332</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>65.31</v>
+        <v>65.43000000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>65.31</v>
+        <v>65.47</v>
       </c>
       <c r="D164" t="n">
-        <v>65.31</v>
+        <v>65.47</v>
       </c>
       <c r="E164" t="n">
-        <v>65.31</v>
+        <v>65.43000000000001</v>
       </c>
       <c r="F164" t="n">
-        <v>1000</v>
+        <v>15.4</v>
       </c>
       <c r="G164" t="n">
-        <v>65.37833333333332</v>
+        <v>65.38866666666665</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>65.47</v>
+        <v>65.31</v>
       </c>
       <c r="C165" t="n">
-        <v>65.47</v>
+        <v>65.31</v>
       </c>
       <c r="D165" t="n">
-        <v>65.47</v>
+        <v>65.31</v>
       </c>
       <c r="E165" t="n">
-        <v>65.47</v>
+        <v>65.31</v>
       </c>
       <c r="F165" t="n">
-        <v>8750</v>
+        <v>1000</v>
       </c>
       <c r="G165" t="n">
-        <v>65.37066666666665</v>
+        <v>65.37833333333332</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>65.5</v>
+        <v>65.47</v>
       </c>
       <c r="C166" t="n">
-        <v>65.5</v>
+        <v>65.47</v>
       </c>
       <c r="D166" t="n">
-        <v>65.5</v>
+        <v>65.47</v>
       </c>
       <c r="E166" t="n">
-        <v>65.5</v>
+        <v>65.47</v>
       </c>
       <c r="F166" t="n">
-        <v>32.1343</v>
+        <v>8750</v>
       </c>
       <c r="G166" t="n">
-        <v>65.36349999999999</v>
+        <v>65.37066666666665</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6220,10 +6220,10 @@
         <v>65.5</v>
       </c>
       <c r="F167" t="n">
-        <v>6.4268</v>
+        <v>32.1343</v>
       </c>
       <c r="G167" t="n">
-        <v>65.35633333333332</v>
+        <v>65.36349999999999</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>65.54000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="C168" t="n">
-        <v>65.54000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="D168" t="n">
-        <v>65.54000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="E168" t="n">
-        <v>65.54000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="F168" t="n">
-        <v>426.8624</v>
+        <v>6.4268</v>
       </c>
       <c r="G168" t="n">
-        <v>65.34983333333334</v>
+        <v>65.35633333333332</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6278,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>65.53</v>
+        <v>65.54000000000001</v>
       </c>
       <c r="C169" t="n">
-        <v>65.53</v>
+        <v>65.54000000000001</v>
       </c>
       <c r="D169" t="n">
-        <v>65.53</v>
+        <v>65.54000000000001</v>
       </c>
       <c r="E169" t="n">
-        <v>65.53</v>
+        <v>65.54000000000001</v>
       </c>
       <c r="F169" t="n">
-        <v>477.1084</v>
+        <v>426.8624</v>
       </c>
       <c r="G169" t="n">
-        <v>65.34316666666668</v>
+        <v>65.34983333333334</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6325,10 +6325,10 @@
         <v>65.53</v>
       </c>
       <c r="F170" t="n">
-        <v>1175.7638</v>
+        <v>477.1084</v>
       </c>
       <c r="G170" t="n">
-        <v>65.33650000000002</v>
+        <v>65.34316666666668</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6351,19 +6351,19 @@
         <v>65.53</v>
       </c>
       <c r="C171" t="n">
-        <v>65.56</v>
+        <v>65.53</v>
       </c>
       <c r="D171" t="n">
-        <v>65.56</v>
+        <v>65.53</v>
       </c>
       <c r="E171" t="n">
-        <v>65.52</v>
+        <v>65.53</v>
       </c>
       <c r="F171" t="n">
-        <v>6090.131</v>
+        <v>1175.7638</v>
       </c>
       <c r="G171" t="n">
-        <v>65.334</v>
+        <v>65.33650000000002</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6383,22 +6383,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>65.51000000000001</v>
+        <v>65.53</v>
       </c>
       <c r="C172" t="n">
-        <v>65.81999999999999</v>
+        <v>65.56</v>
       </c>
       <c r="D172" t="n">
-        <v>65.81999999999999</v>
+        <v>65.56</v>
       </c>
       <c r="E172" t="n">
-        <v>65.51000000000001</v>
+        <v>65.52</v>
       </c>
       <c r="F172" t="n">
-        <v>4403.54325047</v>
+        <v>6090.131</v>
       </c>
       <c r="G172" t="n">
-        <v>65.33933333333334</v>
+        <v>65.334</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>65.73</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="C173" t="n">
-        <v>65.59999999999999</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="D173" t="n">
-        <v>65.73</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="E173" t="n">
-        <v>65.59999999999999</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="F173" t="n">
-        <v>1136.3553</v>
+        <v>4403.54325047</v>
       </c>
       <c r="G173" t="n">
-        <v>65.34100000000001</v>
+        <v>65.33933333333334</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>65.66</v>
+        <v>65.73</v>
       </c>
       <c r="C174" t="n">
-        <v>65.66</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="D174" t="n">
-        <v>65.66</v>
+        <v>65.73</v>
       </c>
       <c r="E174" t="n">
-        <v>65.66</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="F174" t="n">
-        <v>100</v>
+        <v>1136.3553</v>
       </c>
       <c r="G174" t="n">
-        <v>65.34700000000001</v>
+        <v>65.34100000000001</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>65.81999999999999</v>
+        <v>65.66</v>
       </c>
       <c r="C175" t="n">
-        <v>65.83</v>
+        <v>65.66</v>
       </c>
       <c r="D175" t="n">
-        <v>65.83</v>
+        <v>65.66</v>
       </c>
       <c r="E175" t="n">
-        <v>65.81999999999999</v>
+        <v>65.66</v>
       </c>
       <c r="F175" t="n">
-        <v>1238.6569</v>
+        <v>100</v>
       </c>
       <c r="G175" t="n">
-        <v>65.354</v>
+        <v>65.34700000000001</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,7 +6523,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>65.81</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="C176" t="n">
         <v>65.83</v>
@@ -6532,13 +6532,13 @@
         <v>65.83</v>
       </c>
       <c r="E176" t="n">
-        <v>65.81</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="F176" t="n">
-        <v>1761.8</v>
+        <v>1238.6569</v>
       </c>
       <c r="G176" t="n">
-        <v>65.36316666666667</v>
+        <v>65.354</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>65.69</v>
+        <v>65.81</v>
       </c>
       <c r="C177" t="n">
-        <v>65.69</v>
+        <v>65.83</v>
       </c>
       <c r="D177" t="n">
-        <v>65.69</v>
+        <v>65.83</v>
       </c>
       <c r="E177" t="n">
-        <v>65.69</v>
+        <v>65.81</v>
       </c>
       <c r="F177" t="n">
-        <v>517</v>
+        <v>1761.8</v>
       </c>
       <c r="G177" t="n">
-        <v>65.36999999999999</v>
+        <v>65.36316666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,22 +6593,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>65.73999999999999</v>
+        <v>65.69</v>
       </c>
       <c r="C178" t="n">
-        <v>65.73999999999999</v>
+        <v>65.69</v>
       </c>
       <c r="D178" t="n">
-        <v>65.73999999999999</v>
+        <v>65.69</v>
       </c>
       <c r="E178" t="n">
-        <v>65.73999999999999</v>
+        <v>65.69</v>
       </c>
       <c r="F178" t="n">
-        <v>1237</v>
+        <v>517</v>
       </c>
       <c r="G178" t="n">
-        <v>65.37899999999999</v>
+        <v>65.36999999999999</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>65.66</v>
+        <v>65.73999999999999</v>
       </c>
       <c r="C179" t="n">
-        <v>65.66</v>
+        <v>65.73999999999999</v>
       </c>
       <c r="D179" t="n">
-        <v>65.66</v>
+        <v>65.73999999999999</v>
       </c>
       <c r="E179" t="n">
-        <v>65.66</v>
+        <v>65.73999999999999</v>
       </c>
       <c r="F179" t="n">
-        <v>3692.0058</v>
+        <v>1237</v>
       </c>
       <c r="G179" t="n">
-        <v>65.38316666666667</v>
+        <v>65.37899999999999</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6675,10 +6675,10 @@
         <v>65.66</v>
       </c>
       <c r="F180" t="n">
-        <v>962</v>
+        <v>3692.0058</v>
       </c>
       <c r="G180" t="n">
-        <v>65.38333333333333</v>
+        <v>65.38316666666667</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6710,10 +6710,10 @@
         <v>65.66</v>
       </c>
       <c r="F181" t="n">
-        <v>22500</v>
+        <v>962</v>
       </c>
       <c r="G181" t="n">
-        <v>65.38349999999998</v>
+        <v>65.38333333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>65.61</v>
+        <v>65.66</v>
       </c>
       <c r="C182" t="n">
-        <v>65.61</v>
+        <v>65.66</v>
       </c>
       <c r="D182" t="n">
-        <v>65.61</v>
+        <v>65.66</v>
       </c>
       <c r="E182" t="n">
-        <v>65.61</v>
+        <v>65.66</v>
       </c>
       <c r="F182" t="n">
-        <v>117.3737</v>
+        <v>22500</v>
       </c>
       <c r="G182" t="n">
-        <v>65.38283333333332</v>
+        <v>65.38349999999998</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,22 +6768,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>65.59999999999999</v>
+        <v>65.61</v>
       </c>
       <c r="C183" t="n">
-        <v>65.59999999999999</v>
+        <v>65.61</v>
       </c>
       <c r="D183" t="n">
-        <v>65.59999999999999</v>
+        <v>65.61</v>
       </c>
       <c r="E183" t="n">
-        <v>65.59999999999999</v>
+        <v>65.61</v>
       </c>
       <c r="F183" t="n">
-        <v>298.4843</v>
+        <v>117.3737</v>
       </c>
       <c r="G183" t="n">
-        <v>65.38316666666665</v>
+        <v>65.38283333333332</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>65.72</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="C184" t="n">
-        <v>65.72</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="D184" t="n">
-        <v>65.72</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E184" t="n">
-        <v>65.72</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="F184" t="n">
-        <v>1300</v>
+        <v>298.4843</v>
       </c>
       <c r="G184" t="n">
-        <v>65.38616666666665</v>
+        <v>65.38316666666665</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +6838,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>65.83</v>
+        <v>65.72</v>
       </c>
       <c r="C185" t="n">
-        <v>65.83</v>
+        <v>65.72</v>
       </c>
       <c r="D185" t="n">
-        <v>65.83</v>
+        <v>65.72</v>
       </c>
       <c r="E185" t="n">
-        <v>65.83</v>
+        <v>65.72</v>
       </c>
       <c r="F185" t="n">
-        <v>8</v>
+        <v>1300</v>
       </c>
       <c r="G185" t="n">
-        <v>65.39233333333331</v>
+        <v>65.38616666666665</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6885,10 +6885,10 @@
         <v>65.83</v>
       </c>
       <c r="F186" t="n">
-        <v>6580.6123</v>
+        <v>8</v>
       </c>
       <c r="G186" t="n">
-        <v>65.39816666666665</v>
+        <v>65.39233333333331</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,22 +6908,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>65.77</v>
+        <v>65.83</v>
       </c>
       <c r="C187" t="n">
-        <v>65.77</v>
+        <v>65.83</v>
       </c>
       <c r="D187" t="n">
-        <v>65.77</v>
+        <v>65.83</v>
       </c>
       <c r="E187" t="n">
-        <v>65.77</v>
+        <v>65.83</v>
       </c>
       <c r="F187" t="n">
-        <v>39.5572</v>
+        <v>6580.6123</v>
       </c>
       <c r="G187" t="n">
-        <v>65.40316666666665</v>
+        <v>65.39816666666665</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,22 +6943,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>65.83</v>
+        <v>65.77</v>
       </c>
       <c r="C188" t="n">
-        <v>65.83</v>
+        <v>65.77</v>
       </c>
       <c r="D188" t="n">
-        <v>65.83</v>
+        <v>65.77</v>
       </c>
       <c r="E188" t="n">
-        <v>65.83</v>
+        <v>65.77</v>
       </c>
       <c r="F188" t="n">
-        <v>4264.51465897</v>
+        <v>39.5572</v>
       </c>
       <c r="G188" t="n">
-        <v>65.40949999999999</v>
+        <v>65.40316666666665</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,22 +6978,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>65.77</v>
+        <v>65.83</v>
       </c>
       <c r="C189" t="n">
-        <v>65.77</v>
+        <v>65.83</v>
       </c>
       <c r="D189" t="n">
-        <v>65.77</v>
+        <v>65.83</v>
       </c>
       <c r="E189" t="n">
-        <v>65.77</v>
+        <v>65.83</v>
       </c>
       <c r="F189" t="n">
-        <v>716.9629</v>
+        <v>4264.51465897</v>
       </c>
       <c r="G189" t="n">
-        <v>65.41849999999998</v>
+        <v>65.40949999999999</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7025,10 +7025,10 @@
         <v>65.77</v>
       </c>
       <c r="F190" t="n">
-        <v>18946.9519</v>
+        <v>716.9629</v>
       </c>
       <c r="G190" t="n">
-        <v>65.42549999999999</v>
+        <v>65.41849999999998</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,22 +7048,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>65.66</v>
+        <v>65.77</v>
       </c>
       <c r="C191" t="n">
-        <v>65.66</v>
+        <v>65.77</v>
       </c>
       <c r="D191" t="n">
-        <v>65.66</v>
+        <v>65.77</v>
       </c>
       <c r="E191" t="n">
-        <v>65.66</v>
+        <v>65.77</v>
       </c>
       <c r="F191" t="n">
-        <v>155.6992</v>
+        <v>18946.9519</v>
       </c>
       <c r="G191" t="n">
-        <v>65.43049999999998</v>
+        <v>65.42549999999999</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7086,19 +7086,19 @@
         <v>65.66</v>
       </c>
       <c r="C192" t="n">
-        <v>65.25</v>
+        <v>65.66</v>
       </c>
       <c r="D192" t="n">
         <v>65.66</v>
       </c>
       <c r="E192" t="n">
-        <v>65.25</v>
+        <v>65.66</v>
       </c>
       <c r="F192" t="n">
-        <v>30880.5054</v>
+        <v>155.6992</v>
       </c>
       <c r="G192" t="n">
-        <v>65.42966666666665</v>
+        <v>65.43049999999998</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7118,22 +7118,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>65.06999999999999</v>
+        <v>65.66</v>
       </c>
       <c r="C193" t="n">
-        <v>65.03</v>
+        <v>65.25</v>
       </c>
       <c r="D193" t="n">
-        <v>65.06999999999999</v>
+        <v>65.66</v>
       </c>
       <c r="E193" t="n">
-        <v>65.03</v>
+        <v>65.25</v>
       </c>
       <c r="F193" t="n">
-        <v>45711.7835</v>
+        <v>30880.5054</v>
       </c>
       <c r="G193" t="n">
-        <v>65.42416666666665</v>
+        <v>65.42966666666665</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7153,22 +7153,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>65.06</v>
+        <v>65.06999999999999</v>
       </c>
       <c r="C194" t="n">
-        <v>65.06</v>
+        <v>65.03</v>
       </c>
       <c r="D194" t="n">
-        <v>65.06</v>
+        <v>65.06999999999999</v>
       </c>
       <c r="E194" t="n">
-        <v>65.06</v>
+        <v>65.03</v>
       </c>
       <c r="F194" t="n">
-        <v>10.7593</v>
+        <v>45711.7835</v>
       </c>
       <c r="G194" t="n">
-        <v>65.42166666666665</v>
+        <v>65.42416666666665</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>65.12</v>
+        <v>65.06</v>
       </c>
       <c r="C195" t="n">
-        <v>65.14</v>
+        <v>65.06</v>
       </c>
       <c r="D195" t="n">
-        <v>65.14</v>
+        <v>65.06</v>
       </c>
       <c r="E195" t="n">
-        <v>65.12</v>
+        <v>65.06</v>
       </c>
       <c r="F195" t="n">
-        <v>29410.9738</v>
+        <v>10.7593</v>
       </c>
       <c r="G195" t="n">
-        <v>65.42033333333332</v>
+        <v>65.42166666666665</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7223,22 +7223,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>65.06</v>
+        <v>65.12</v>
       </c>
       <c r="C196" t="n">
-        <v>64.90000000000001</v>
+        <v>65.14</v>
       </c>
       <c r="D196" t="n">
-        <v>65.06</v>
+        <v>65.14</v>
       </c>
       <c r="E196" t="n">
-        <v>64.90000000000001</v>
+        <v>65.12</v>
       </c>
       <c r="F196" t="n">
-        <v>15000</v>
+        <v>29410.9738</v>
       </c>
       <c r="G196" t="n">
-        <v>65.41449999999999</v>
+        <v>65.42033333333332</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7258,22 +7258,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>65.18000000000001</v>
+        <v>65.06</v>
       </c>
       <c r="C197" t="n">
-        <v>65.18000000000001</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="D197" t="n">
-        <v>65.18000000000001</v>
+        <v>65.06</v>
       </c>
       <c r="E197" t="n">
-        <v>65.18000000000001</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="F197" t="n">
-        <v>513</v>
+        <v>15000</v>
       </c>
       <c r="G197" t="n">
-        <v>65.41383333333332</v>
+        <v>65.41449999999999</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7293,22 +7293,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>65.06999999999999</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="C198" t="n">
-        <v>65.12</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="D198" t="n">
-        <v>65.12</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="E198" t="n">
-        <v>65.06999999999999</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="F198" t="n">
-        <v>939.7458</v>
+        <v>513</v>
       </c>
       <c r="G198" t="n">
-        <v>65.40866666666665</v>
+        <v>65.41383333333332</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7328,7 +7328,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>65.12</v>
+        <v>65.06999999999999</v>
       </c>
       <c r="C199" t="n">
         <v>65.12</v>
@@ -7337,13 +7337,13 @@
         <v>65.12</v>
       </c>
       <c r="E199" t="n">
-        <v>65.12</v>
+        <v>65.06999999999999</v>
       </c>
       <c r="F199" t="n">
-        <v>620</v>
+        <v>939.7458</v>
       </c>
       <c r="G199" t="n">
-        <v>65.40349999999998</v>
+        <v>65.40866666666665</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7363,22 +7363,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>65.13</v>
+        <v>65.12</v>
       </c>
       <c r="C200" t="n">
-        <v>65.22</v>
+        <v>65.12</v>
       </c>
       <c r="D200" t="n">
-        <v>65.22</v>
+        <v>65.12</v>
       </c>
       <c r="E200" t="n">
-        <v>65.13</v>
+        <v>65.12</v>
       </c>
       <c r="F200" t="n">
-        <v>426.5313</v>
+        <v>620</v>
       </c>
       <c r="G200" t="n">
-        <v>65.40183333333331</v>
+        <v>65.40349999999998</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7398,22 +7398,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>65.12</v>
+        <v>65.13</v>
       </c>
       <c r="C201" t="n">
-        <v>65.12</v>
+        <v>65.22</v>
       </c>
       <c r="D201" t="n">
-        <v>65.12</v>
+        <v>65.22</v>
       </c>
       <c r="E201" t="n">
-        <v>65.12</v>
+        <v>65.13</v>
       </c>
       <c r="F201" t="n">
-        <v>32.4866</v>
+        <v>426.5313</v>
       </c>
       <c r="G201" t="n">
-        <v>65.39833333333331</v>
+        <v>65.40183333333331</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7445,10 +7445,10 @@
         <v>65.12</v>
       </c>
       <c r="F202" t="n">
-        <v>61.7107</v>
+        <v>32.4866</v>
       </c>
       <c r="G202" t="n">
-        <v>65.39349999999997</v>
+        <v>65.39833333333331</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7480,10 +7480,10 @@
         <v>65.12</v>
       </c>
       <c r="F203" t="n">
-        <v>100</v>
+        <v>61.7107</v>
       </c>
       <c r="G203" t="n">
-        <v>65.39016666666664</v>
+        <v>65.39349999999997</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7503,22 +7503,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>65.06999999999999</v>
+        <v>65.12</v>
       </c>
       <c r="C204" t="n">
-        <v>65.06999999999999</v>
+        <v>65.12</v>
       </c>
       <c r="D204" t="n">
-        <v>65.06999999999999</v>
+        <v>65.12</v>
       </c>
       <c r="E204" t="n">
-        <v>65.06999999999999</v>
+        <v>65.12</v>
       </c>
       <c r="F204" t="n">
-        <v>2100</v>
+        <v>100</v>
       </c>
       <c r="G204" t="n">
-        <v>65.38499999999998</v>
+        <v>65.39016666666664</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7550,10 +7550,10 @@
         <v>65.06999999999999</v>
       </c>
       <c r="F205" t="n">
-        <v>152.5951</v>
+        <v>2100</v>
       </c>
       <c r="G205" t="n">
-        <v>65.38249999999998</v>
+        <v>65.38499999999998</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7585,10 +7585,10 @@
         <v>65.06999999999999</v>
       </c>
       <c r="F206" t="n">
-        <v>3900</v>
+        <v>152.5951</v>
       </c>
       <c r="G206" t="n">
-        <v>65.37999999999998</v>
+        <v>65.38249999999998</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7608,22 +7608,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>65.12</v>
+        <v>65.06999999999999</v>
       </c>
       <c r="C207" t="n">
-        <v>65.12</v>
+        <v>65.06999999999999</v>
       </c>
       <c r="D207" t="n">
-        <v>65.12</v>
+        <v>65.06999999999999</v>
       </c>
       <c r="E207" t="n">
-        <v>65.12</v>
+        <v>65.06999999999999</v>
       </c>
       <c r="F207" t="n">
-        <v>1750.8008</v>
+        <v>3900</v>
       </c>
       <c r="G207" t="n">
-        <v>65.37833333333332</v>
+        <v>65.37999999999998</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7655,10 +7655,10 @@
         <v>65.12</v>
       </c>
       <c r="F208" t="n">
-        <v>1057.3823</v>
+        <v>1750.8008</v>
       </c>
       <c r="G208" t="n">
-        <v>65.37666666666665</v>
+        <v>65.37833333333332</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7690,10 +7690,10 @@
         <v>65.12</v>
       </c>
       <c r="F209" t="n">
-        <v>4726.4081</v>
+        <v>1057.3823</v>
       </c>
       <c r="G209" t="n">
-        <v>65.37499999999999</v>
+        <v>65.37666666666665</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7713,22 +7713,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>65.11</v>
+        <v>65.12</v>
       </c>
       <c r="C210" t="n">
-        <v>65.11</v>
+        <v>65.12</v>
       </c>
       <c r="D210" t="n">
-        <v>65.11</v>
+        <v>65.12</v>
       </c>
       <c r="E210" t="n">
-        <v>65.11</v>
+        <v>65.12</v>
       </c>
       <c r="F210" t="n">
-        <v>12523.2004</v>
+        <v>4726.4081</v>
       </c>
       <c r="G210" t="n">
-        <v>65.37349999999999</v>
+        <v>65.37499999999999</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7748,22 +7748,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>65.12</v>
+        <v>65.11</v>
       </c>
       <c r="C211" t="n">
-        <v>65.12</v>
+        <v>65.11</v>
       </c>
       <c r="D211" t="n">
-        <v>65.12</v>
+        <v>65.11</v>
       </c>
       <c r="E211" t="n">
-        <v>65.12</v>
+        <v>65.11</v>
       </c>
       <c r="F211" t="n">
-        <v>786.2509</v>
+        <v>12523.2004</v>
       </c>
       <c r="G211" t="n">
-        <v>65.37183333333333</v>
+        <v>65.37349999999999</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7786,19 +7786,19 @@
         <v>65.12</v>
       </c>
       <c r="C212" t="n">
-        <v>65.20999999999999</v>
+        <v>65.12</v>
       </c>
       <c r="D212" t="n">
-        <v>65.20999999999999</v>
+        <v>65.12</v>
       </c>
       <c r="E212" t="n">
         <v>65.12</v>
       </c>
       <c r="F212" t="n">
-        <v>7556.5291</v>
+        <v>786.2509</v>
       </c>
       <c r="G212" t="n">
-        <v>65.37316666666666</v>
+        <v>65.37183333333333</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7818,22 +7818,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>65.09999999999999</v>
+        <v>65.12</v>
       </c>
       <c r="C213" t="n">
-        <v>65.03</v>
+        <v>65.20999999999999</v>
       </c>
       <c r="D213" t="n">
-        <v>65.09999999999999</v>
+        <v>65.20999999999999</v>
       </c>
       <c r="E213" t="n">
-        <v>65.03</v>
+        <v>65.12</v>
       </c>
       <c r="F213" t="n">
-        <v>2224.3</v>
+        <v>7556.5291</v>
       </c>
       <c r="G213" t="n">
-        <v>65.37366666666667</v>
+        <v>65.37316666666666</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7853,22 +7853,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>65.04000000000001</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="C214" t="n">
         <v>65.03</v>
       </c>
       <c r="D214" t="n">
-        <v>65.04000000000001</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="E214" t="n">
         <v>65.03</v>
       </c>
       <c r="F214" t="n">
-        <v>877</v>
+        <v>2224.3</v>
       </c>
       <c r="G214" t="n">
-        <v>65.37416666666667</v>
+        <v>65.37366666666667</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7888,22 +7888,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>65.02</v>
+        <v>65.04000000000001</v>
       </c>
       <c r="C215" t="n">
-        <v>65.02</v>
+        <v>65.03</v>
       </c>
       <c r="D215" t="n">
-        <v>65.02</v>
+        <v>65.04000000000001</v>
       </c>
       <c r="E215" t="n">
-        <v>65.02</v>
+        <v>65.03</v>
       </c>
       <c r="F215" t="n">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G215" t="n">
-        <v>65.37616666666666</v>
+        <v>65.37416666666667</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7923,22 +7923,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>64.93000000000001</v>
+        <v>65.02</v>
       </c>
       <c r="C216" t="n">
-        <v>64.93000000000001</v>
+        <v>65.02</v>
       </c>
       <c r="D216" t="n">
-        <v>64.93000000000001</v>
+        <v>65.02</v>
       </c>
       <c r="E216" t="n">
-        <v>64.93000000000001</v>
+        <v>65.02</v>
       </c>
       <c r="F216" t="n">
-        <v>766.9801</v>
+        <v>876</v>
       </c>
       <c r="G216" t="n">
-        <v>65.375</v>
+        <v>65.37616666666666</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7961,19 +7961,19 @@
         <v>64.93000000000001</v>
       </c>
       <c r="C217" t="n">
-        <v>65.06999999999999</v>
+        <v>64.93000000000001</v>
       </c>
       <c r="D217" t="n">
-        <v>65.06999999999999</v>
+        <v>64.93000000000001</v>
       </c>
       <c r="E217" t="n">
         <v>64.93000000000001</v>
       </c>
       <c r="F217" t="n">
-        <v>58</v>
+        <v>766.9801</v>
       </c>
       <c r="G217" t="n">
-        <v>65.37283333333333</v>
+        <v>65.375</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>65.06999999999999</v>
+        <v>64.93000000000001</v>
       </c>
       <c r="C218" t="n">
         <v>65.06999999999999</v>
@@ -8002,13 +8002,13 @@
         <v>65.06999999999999</v>
       </c>
       <c r="E218" t="n">
-        <v>65.06999999999999</v>
+        <v>64.93000000000001</v>
       </c>
       <c r="F218" t="n">
-        <v>23.00599354</v>
+        <v>58</v>
       </c>
       <c r="G218" t="n">
-        <v>65.37066666666668</v>
+        <v>65.37283333333333</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8040,10 +8040,10 @@
         <v>65.06999999999999</v>
       </c>
       <c r="F219" t="n">
-        <v>1600</v>
+        <v>23.00599354</v>
       </c>
       <c r="G219" t="n">
-        <v>65.36883333333336</v>
+        <v>65.37066666666668</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8063,22 +8063,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>65.2</v>
+        <v>65.06999999999999</v>
       </c>
       <c r="C220" t="n">
-        <v>65.2</v>
+        <v>65.06999999999999</v>
       </c>
       <c r="D220" t="n">
-        <v>65.2</v>
+        <v>65.06999999999999</v>
       </c>
       <c r="E220" t="n">
-        <v>65.2</v>
+        <v>65.06999999999999</v>
       </c>
       <c r="F220" t="n">
-        <v>1360.3789</v>
+        <v>1600</v>
       </c>
       <c r="G220" t="n">
-        <v>65.37000000000002</v>
+        <v>65.36883333333336</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8098,22 +8098,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>64.93000000000001</v>
+        <v>65.2</v>
       </c>
       <c r="C221" t="n">
-        <v>64.93000000000001</v>
+        <v>65.2</v>
       </c>
       <c r="D221" t="n">
-        <v>64.93000000000001</v>
+        <v>65.2</v>
       </c>
       <c r="E221" t="n">
-        <v>64.93000000000001</v>
+        <v>65.2</v>
       </c>
       <c r="F221" t="n">
-        <v>7890.046</v>
+        <v>1360.3789</v>
       </c>
       <c r="G221" t="n">
-        <v>65.36483333333335</v>
+        <v>65.37000000000002</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8133,22 +8133,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>65.17</v>
+        <v>64.93000000000001</v>
       </c>
       <c r="C222" t="n">
-        <v>65.17</v>
+        <v>64.93000000000001</v>
       </c>
       <c r="D222" t="n">
-        <v>65.17</v>
+        <v>64.93000000000001</v>
       </c>
       <c r="E222" t="n">
-        <v>65.17</v>
+        <v>64.93000000000001</v>
       </c>
       <c r="F222" t="n">
-        <v>7653.10725794</v>
+        <v>7890.046</v>
       </c>
       <c r="G222" t="n">
-        <v>65.36433333333335</v>
+        <v>65.36483333333335</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8168,22 +8168,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>65</v>
+        <v>65.17</v>
       </c>
       <c r="C223" t="n">
-        <v>64.92</v>
+        <v>65.17</v>
       </c>
       <c r="D223" t="n">
-        <v>65</v>
+        <v>65.17</v>
       </c>
       <c r="E223" t="n">
-        <v>64.92</v>
+        <v>65.17</v>
       </c>
       <c r="F223" t="n">
-        <v>10939.225</v>
+        <v>7653.10725794</v>
       </c>
       <c r="G223" t="n">
-        <v>65.35516666666669</v>
+        <v>65.36433333333335</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8203,22 +8203,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
+        <v>65</v>
+      </c>
+      <c r="C224" t="n">
         <v>64.92</v>
       </c>
-      <c r="C224" t="n">
-        <v>64.89</v>
-      </c>
       <c r="D224" t="n">
+        <v>65</v>
+      </c>
+      <c r="E224" t="n">
         <v>64.92</v>
       </c>
-      <c r="E224" t="n">
-        <v>64.89</v>
-      </c>
       <c r="F224" t="n">
-        <v>10372.7004</v>
+        <v>10939.225</v>
       </c>
       <c r="G224" t="n">
-        <v>65.34816666666669</v>
+        <v>65.35516666666669</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8238,22 +8238,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
+        <v>64.92</v>
+      </c>
+      <c r="C225" t="n">
         <v>64.89</v>
       </c>
-      <c r="C225" t="n">
-        <v>64.87</v>
-      </c>
       <c r="D225" t="n">
+        <v>64.92</v>
+      </c>
+      <c r="E225" t="n">
         <v>64.89</v>
       </c>
-      <c r="E225" t="n">
-        <v>64.87</v>
-      </c>
       <c r="F225" t="n">
-        <v>6846.6561</v>
+        <v>10372.7004</v>
       </c>
       <c r="G225" t="n">
-        <v>65.33816666666669</v>
+        <v>65.34816666666669</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8273,22 +8273,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="C226" t="n">
         <v>64.87</v>
       </c>
-      <c r="C226" t="n">
-        <v>64.84999999999999</v>
-      </c>
       <c r="D226" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="E226" t="n">
         <v>64.87</v>
       </c>
-      <c r="E226" t="n">
-        <v>64.84999999999999</v>
-      </c>
       <c r="F226" t="n">
-        <v>884.6541999999999</v>
+        <v>6846.6561</v>
       </c>
       <c r="G226" t="n">
-        <v>65.32733333333336</v>
+        <v>65.33816666666669</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8308,22 +8308,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
+        <v>64.87</v>
+      </c>
+      <c r="C227" t="n">
         <v>64.84999999999999</v>
       </c>
-      <c r="C227" t="n">
-        <v>64.65000000000001</v>
-      </c>
       <c r="D227" t="n">
+        <v>64.87</v>
+      </c>
+      <c r="E227" t="n">
         <v>64.84999999999999</v>
       </c>
-      <c r="E227" t="n">
-        <v>64.65000000000001</v>
-      </c>
       <c r="F227" t="n">
-        <v>40000</v>
+        <v>884.6541999999999</v>
       </c>
       <c r="G227" t="n">
-        <v>65.31316666666669</v>
+        <v>65.32733333333336</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>64.83</v>
+        <v>64.84999999999999</v>
       </c>
       <c r="C228" t="n">
-        <v>64.83</v>
+        <v>64.65000000000001</v>
       </c>
       <c r="D228" t="n">
-        <v>64.83</v>
+        <v>64.84999999999999</v>
       </c>
       <c r="E228" t="n">
-        <v>64.83</v>
+        <v>64.65000000000001</v>
       </c>
       <c r="F228" t="n">
-        <v>7.7125</v>
+        <v>40000</v>
       </c>
       <c r="G228" t="n">
-        <v>65.30133333333336</v>
+        <v>65.31316666666669</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8378,22 +8378,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>64.59999999999999</v>
+        <v>64.83</v>
       </c>
       <c r="C229" t="n">
-        <v>64.59999999999999</v>
+        <v>64.83</v>
       </c>
       <c r="D229" t="n">
-        <v>64.59999999999999</v>
+        <v>64.83</v>
       </c>
       <c r="E229" t="n">
-        <v>64.59999999999999</v>
+        <v>64.83</v>
       </c>
       <c r="F229" t="n">
-        <v>4304.5674</v>
+        <v>7.7125</v>
       </c>
       <c r="G229" t="n">
-        <v>65.28583333333334</v>
+        <v>65.30133333333336</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8425,10 +8425,10 @@
         <v>64.59999999999999</v>
       </c>
       <c r="F230" t="n">
-        <v>1291.3702</v>
+        <v>4304.5674</v>
       </c>
       <c r="G230" t="n">
-        <v>65.27033333333334</v>
+        <v>65.28583333333334</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8448,22 +8448,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>64.51000000000001</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="C231" t="n">
-        <v>64.5</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="D231" t="n">
-        <v>64.51000000000001</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="E231" t="n">
-        <v>64.5</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="F231" t="n">
-        <v>18493.4916</v>
+        <v>1291.3702</v>
       </c>
       <c r="G231" t="n">
-        <v>65.25266666666668</v>
+        <v>65.27033333333334</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8483,22 +8483,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>64.5</v>
+        <v>64.51000000000001</v>
       </c>
       <c r="C232" t="n">
         <v>64.5</v>
       </c>
       <c r="D232" t="n">
-        <v>64.5</v>
+        <v>64.51000000000001</v>
       </c>
       <c r="E232" t="n">
         <v>64.5</v>
       </c>
       <c r="F232" t="n">
-        <v>56444.899</v>
+        <v>18493.4916</v>
       </c>
       <c r="G232" t="n">
-        <v>65.23066666666668</v>
+        <v>65.25266666666668</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8518,22 +8518,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>64.48999999999999</v>
+        <v>64.5</v>
       </c>
       <c r="C233" t="n">
-        <v>64.48999999999999</v>
+        <v>64.5</v>
       </c>
       <c r="D233" t="n">
-        <v>64.48999999999999</v>
+        <v>64.5</v>
       </c>
       <c r="E233" t="n">
-        <v>64.48999999999999</v>
+        <v>64.5</v>
       </c>
       <c r="F233" t="n">
-        <v>1028.6045</v>
+        <v>56444.899</v>
       </c>
       <c r="G233" t="n">
-        <v>65.21216666666668</v>
+        <v>65.23066666666668</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8553,22 +8553,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>64.41</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="C234" t="n">
-        <v>64.34</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="D234" t="n">
-        <v>64.41</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="E234" t="n">
-        <v>64.34</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="F234" t="n">
-        <v>3191.094</v>
+        <v>1028.6045</v>
       </c>
       <c r="G234" t="n">
-        <v>65.19016666666668</v>
+        <v>65.21216666666668</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8588,35 +8588,31 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>64.48</v>
+        <v>64.41</v>
       </c>
       <c r="C235" t="n">
-        <v>64.5</v>
+        <v>64.34</v>
       </c>
       <c r="D235" t="n">
-        <v>64.5</v>
+        <v>64.41</v>
       </c>
       <c r="E235" t="n">
-        <v>64.48</v>
+        <v>64.34</v>
       </c>
       <c r="F235" t="n">
-        <v>243.0542</v>
+        <v>3191.094</v>
       </c>
       <c r="G235" t="n">
-        <v>65.16800000000002</v>
+        <v>65.19016666666668</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>64.34</v>
-      </c>
-      <c r="K235" t="n">
-        <v>64.34</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
@@ -8627,7 +8623,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>64.5</v>
+        <v>64.48</v>
       </c>
       <c r="C236" t="n">
         <v>64.5</v>
@@ -8636,13 +8632,13 @@
         <v>64.5</v>
       </c>
       <c r="E236" t="n">
-        <v>64.5</v>
+        <v>64.48</v>
       </c>
       <c r="F236" t="n">
-        <v>2022.29457364</v>
+        <v>243.0542</v>
       </c>
       <c r="G236" t="n">
-        <v>65.14583333333334</v>
+        <v>65.16800000000002</v>
       </c>
       <c r="H236" t="n">
         <v>1</v>
@@ -8651,16 +8647,12 @@
         <v>0</v>
       </c>
       <c r="J236" t="n">
-        <v>64.5</v>
+        <v>64.34</v>
       </c>
       <c r="K236" t="n">
         <v>64.34</v>
       </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8670,22 +8662,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>64.34</v>
+        <v>64.5</v>
       </c>
       <c r="C237" t="n">
-        <v>64.34</v>
+        <v>64.5</v>
       </c>
       <c r="D237" t="n">
-        <v>64.34</v>
+        <v>64.5</v>
       </c>
       <c r="E237" t="n">
-        <v>64.34</v>
+        <v>64.5</v>
       </c>
       <c r="F237" t="n">
-        <v>14166.1421</v>
+        <v>2022.29457364</v>
       </c>
       <c r="G237" t="n">
-        <v>65.12333333333335</v>
+        <v>65.14583333333334</v>
       </c>
       <c r="H237" t="n">
         <v>1</v>
@@ -8716,80 +8708,78 @@
         <v>64.34</v>
       </c>
       <c r="C238" t="n">
-        <v>64.3</v>
+        <v>64.34</v>
       </c>
       <c r="D238" t="n">
         <v>64.34</v>
       </c>
       <c r="E238" t="n">
-        <v>64.3</v>
+        <v>64.34</v>
       </c>
       <c r="F238" t="n">
-        <v>70677.11470000001</v>
+        <v>14166.1421</v>
       </c>
       <c r="G238" t="n">
-        <v>65.09933333333336</v>
+        <v>65.12333333333335</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>64.34</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
         <v>64.34</v>
       </c>
       <c r="L238" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="C239" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="D239" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="E239" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="F239" t="n">
+        <v>70677.11470000001</v>
+      </c>
+      <c r="G239" t="n">
+        <v>65.09933333333336</v>
+      </c>
+      <c r="H239" t="n">
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="K239" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="L239" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="C239" t="n">
-        <v>64.56999999999999</v>
-      </c>
-      <c r="D239" t="n">
-        <v>64.56999999999999</v>
-      </c>
-      <c r="E239" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="F239" t="n">
-        <v>3972.61412636</v>
-      </c>
-      <c r="G239" t="n">
-        <v>65.08116666666669</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="K239" t="n">
-        <v>64.34</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8799,22 +8789,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>64.78</v>
+        <v>64.5</v>
       </c>
       <c r="C240" t="n">
-        <v>64.70999999999999</v>
+        <v>64.56999999999999</v>
       </c>
       <c r="D240" t="n">
-        <v>64.91</v>
+        <v>64.56999999999999</v>
       </c>
       <c r="E240" t="n">
-        <v>64.70999999999999</v>
+        <v>64.5</v>
       </c>
       <c r="F240" t="n">
-        <v>15656.8969</v>
+        <v>3972.61412636</v>
       </c>
       <c r="G240" t="n">
-        <v>65.06533333333337</v>
+        <v>65.08116666666669</v>
       </c>
       <c r="H240" t="n">
         <v>1</v>
@@ -8823,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="J240" t="n">
-        <v>64.56999999999999</v>
+        <v>64.3</v>
       </c>
       <c r="K240" t="n">
         <v>64.34</v>
@@ -8842,30 +8832,32 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>64.62</v>
+        <v>64.78</v>
       </c>
       <c r="C241" t="n">
-        <v>64.62</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="D241" t="n">
-        <v>64.62</v>
+        <v>64.91</v>
       </c>
       <c r="E241" t="n">
-        <v>64.62</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="F241" t="n">
-        <v>18773.0649</v>
+        <v>15656.8969</v>
       </c>
       <c r="G241" t="n">
-        <v>65.04800000000003</v>
+        <v>65.06533333333337</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>64.56999999999999</v>
+      </c>
       <c r="K241" t="n">
         <v>64.34</v>
       </c>
@@ -8883,30 +8875,32 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>64.59999999999999</v>
+        <v>64.62</v>
       </c>
       <c r="C242" t="n">
-        <v>64.59999999999999</v>
+        <v>64.62</v>
       </c>
       <c r="D242" t="n">
-        <v>64.59999999999999</v>
+        <v>64.62</v>
       </c>
       <c r="E242" t="n">
-        <v>64.59999999999999</v>
+        <v>64.62</v>
       </c>
       <c r="F242" t="n">
-        <v>900</v>
+        <v>18773.0649</v>
       </c>
       <c r="G242" t="n">
-        <v>65.03116666666669</v>
+        <v>65.04800000000003</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>64.70999999999999</v>
+      </c>
       <c r="K242" t="n">
         <v>64.34</v>
       </c>
@@ -8936,18 +8930,20 @@
         <v>64.59999999999999</v>
       </c>
       <c r="F243" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="G243" t="n">
-        <v>65.01450000000003</v>
+        <v>65.03116666666669</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>64.62</v>
+      </c>
       <c r="K243" t="n">
         <v>64.34</v>
       </c>
@@ -8965,30 +8961,32 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>64.73</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="C244" t="n">
-        <v>64.73</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="D244" t="n">
-        <v>64.73</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="E244" t="n">
-        <v>64.73</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="F244" t="n">
-        <v>44.312</v>
+        <v>600</v>
       </c>
       <c r="G244" t="n">
-        <v>64.99800000000003</v>
+        <v>65.01450000000003</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>64.59999999999999</v>
+      </c>
       <c r="K244" t="n">
         <v>64.34</v>
       </c>
@@ -9006,30 +9004,32 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>64.51000000000001</v>
+        <v>64.73</v>
       </c>
       <c r="C245" t="n">
-        <v>64.38</v>
+        <v>64.73</v>
       </c>
       <c r="D245" t="n">
-        <v>64.51000000000001</v>
+        <v>64.73</v>
       </c>
       <c r="E245" t="n">
-        <v>64.38</v>
+        <v>64.73</v>
       </c>
       <c r="F245" t="n">
-        <v>1314.9913</v>
+        <v>44.312</v>
       </c>
       <c r="G245" t="n">
-        <v>64.97383333333337</v>
+        <v>64.99800000000003</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>64.59999999999999</v>
+      </c>
       <c r="K245" t="n">
         <v>64.34</v>
       </c>
@@ -9047,22 +9047,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>64.37</v>
+        <v>64.51000000000001</v>
       </c>
       <c r="C246" t="n">
-        <v>64.37</v>
+        <v>64.38</v>
       </c>
       <c r="D246" t="n">
-        <v>64.37</v>
+        <v>64.51000000000001</v>
       </c>
       <c r="E246" t="n">
-        <v>64.37</v>
+        <v>64.38</v>
       </c>
       <c r="F246" t="n">
-        <v>10538.0186</v>
+        <v>1314.9913</v>
       </c>
       <c r="G246" t="n">
-        <v>64.94950000000003</v>
+        <v>64.97383333333337</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9100,10 +9100,10 @@
         <v>64.37</v>
       </c>
       <c r="F247" t="n">
-        <v>5113.0339</v>
+        <v>10538.0186</v>
       </c>
       <c r="G247" t="n">
-        <v>64.9261666666667</v>
+        <v>64.94950000000003</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9141,10 +9141,10 @@
         <v>64.37</v>
       </c>
       <c r="F248" t="n">
-        <v>156</v>
+        <v>5113.0339</v>
       </c>
       <c r="G248" t="n">
-        <v>64.90183333333337</v>
+        <v>64.9261666666667</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9173,19 +9173,19 @@
         <v>64.37</v>
       </c>
       <c r="C249" t="n">
-        <v>64.34</v>
+        <v>64.37</v>
       </c>
       <c r="D249" t="n">
         <v>64.37</v>
       </c>
       <c r="E249" t="n">
-        <v>64.34</v>
+        <v>64.37</v>
       </c>
       <c r="F249" t="n">
-        <v>2520.189</v>
+        <v>156</v>
       </c>
       <c r="G249" t="n">
-        <v>64.87800000000003</v>
+        <v>64.90183333333337</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9211,22 +9211,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>64.34</v>
+        <v>64.37</v>
       </c>
       <c r="C250" t="n">
         <v>64.34</v>
       </c>
       <c r="D250" t="n">
-        <v>64.34</v>
+        <v>64.37</v>
       </c>
       <c r="E250" t="n">
         <v>64.34</v>
       </c>
       <c r="F250" t="n">
-        <v>81272.3324</v>
+        <v>2520.189</v>
       </c>
       <c r="G250" t="n">
-        <v>64.8541666666667</v>
+        <v>64.87800000000003</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9252,22 +9252,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>64.25</v>
+        <v>64.34</v>
       </c>
       <c r="C251" t="n">
-        <v>64.42</v>
+        <v>64.34</v>
       </c>
       <c r="D251" t="n">
-        <v>64.42</v>
+        <v>64.34</v>
       </c>
       <c r="E251" t="n">
-        <v>64.23999999999999</v>
+        <v>64.34</v>
       </c>
       <c r="F251" t="n">
-        <v>30716.4449</v>
+        <v>81272.3324</v>
       </c>
       <c r="G251" t="n">
-        <v>64.83350000000004</v>
+        <v>64.8541666666667</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9293,22 +9293,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>64.43000000000001</v>
+        <v>64.25</v>
       </c>
       <c r="C252" t="n">
-        <v>64.09999999999999</v>
+        <v>64.42</v>
       </c>
       <c r="D252" t="n">
-        <v>64.43000000000001</v>
+        <v>64.42</v>
       </c>
       <c r="E252" t="n">
-        <v>64.09999999999999</v>
+        <v>64.23999999999999</v>
       </c>
       <c r="F252" t="n">
-        <v>36784.6307</v>
+        <v>30716.4449</v>
       </c>
       <c r="G252" t="n">
-        <v>64.81433333333338</v>
+        <v>64.83350000000004</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9334,22 +9334,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>64.2</v>
+        <v>64.43000000000001</v>
       </c>
       <c r="C253" t="n">
-        <v>64.2</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="D253" t="n">
-        <v>64.2</v>
+        <v>64.43000000000001</v>
       </c>
       <c r="E253" t="n">
-        <v>64.2</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="F253" t="n">
-        <v>874</v>
+        <v>36784.6307</v>
       </c>
       <c r="G253" t="n">
-        <v>64.80050000000003</v>
+        <v>64.81433333333338</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9375,22 +9375,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>64.23</v>
+        <v>64.2</v>
       </c>
       <c r="C254" t="n">
-        <v>64.23</v>
+        <v>64.2</v>
       </c>
       <c r="D254" t="n">
-        <v>64.23</v>
+        <v>64.2</v>
       </c>
       <c r="E254" t="n">
-        <v>64.23</v>
+        <v>64.2</v>
       </c>
       <c r="F254" t="n">
-        <v>159.0356</v>
+        <v>874</v>
       </c>
       <c r="G254" t="n">
-        <v>64.7866666666667</v>
+        <v>64.80050000000003</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9416,22 +9416,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>64.33</v>
+        <v>64.23</v>
       </c>
       <c r="C255" t="n">
-        <v>64.33</v>
+        <v>64.23</v>
       </c>
       <c r="D255" t="n">
-        <v>64.33</v>
+        <v>64.23</v>
       </c>
       <c r="E255" t="n">
-        <v>64.33</v>
+        <v>64.23</v>
       </c>
       <c r="F255" t="n">
-        <v>207.1358</v>
+        <v>159.0356</v>
       </c>
       <c r="G255" t="n">
-        <v>64.7731666666667</v>
+        <v>64.7866666666667</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9460,19 +9460,19 @@
         <v>64.33</v>
       </c>
       <c r="C256" t="n">
-        <v>64.34</v>
+        <v>64.33</v>
       </c>
       <c r="D256" t="n">
-        <v>64.34</v>
+        <v>64.33</v>
       </c>
       <c r="E256" t="n">
         <v>64.33</v>
       </c>
       <c r="F256" t="n">
-        <v>1535.4122</v>
+        <v>207.1358</v>
       </c>
       <c r="G256" t="n">
-        <v>64.76383333333337</v>
+        <v>64.7731666666667</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9498,22 +9498,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
+        <v>64.33</v>
+      </c>
+      <c r="C257" t="n">
         <v>64.34</v>
-      </c>
-      <c r="C257" t="n">
-        <v>64.2</v>
       </c>
       <c r="D257" t="n">
         <v>64.34</v>
       </c>
       <c r="E257" t="n">
-        <v>64.2</v>
+        <v>64.33</v>
       </c>
       <c r="F257" t="n">
-        <v>22520.4423</v>
+        <v>1535.4122</v>
       </c>
       <c r="G257" t="n">
-        <v>64.74750000000003</v>
+        <v>64.76383333333337</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9539,22 +9539,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>64.31</v>
+        <v>64.34</v>
       </c>
       <c r="C258" t="n">
-        <v>64.31</v>
+        <v>64.2</v>
       </c>
       <c r="D258" t="n">
-        <v>64.31</v>
+        <v>64.34</v>
       </c>
       <c r="E258" t="n">
-        <v>64.31</v>
+        <v>64.2</v>
       </c>
       <c r="F258" t="n">
-        <v>717</v>
+        <v>22520.4423</v>
       </c>
       <c r="G258" t="n">
-        <v>64.73400000000004</v>
+        <v>64.74750000000003</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9580,22 +9580,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>64.41</v>
+        <v>64.31</v>
       </c>
       <c r="C259" t="n">
-        <v>64.40000000000001</v>
+        <v>64.31</v>
       </c>
       <c r="D259" t="n">
-        <v>64.41</v>
+        <v>64.31</v>
       </c>
       <c r="E259" t="n">
-        <v>64.40000000000001</v>
+        <v>64.31</v>
       </c>
       <c r="F259" t="n">
-        <v>81524.3305</v>
+        <v>717</v>
       </c>
       <c r="G259" t="n">
-        <v>64.72200000000004</v>
+        <v>64.73400000000004</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9621,22 +9621,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>64.44</v>
+        <v>64.41</v>
       </c>
       <c r="C260" t="n">
-        <v>64.44</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="D260" t="n">
-        <v>64.44</v>
+        <v>64.41</v>
       </c>
       <c r="E260" t="n">
-        <v>64.44</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="F260" t="n">
-        <v>5957.126</v>
+        <v>81524.3305</v>
       </c>
       <c r="G260" t="n">
-        <v>64.70900000000005</v>
+        <v>64.72200000000004</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9662,22 +9662,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>64.62</v>
+        <v>64.44</v>
       </c>
       <c r="C261" t="n">
-        <v>64.40000000000001</v>
+        <v>64.44</v>
       </c>
       <c r="D261" t="n">
-        <v>64.62</v>
+        <v>64.44</v>
       </c>
       <c r="E261" t="n">
-        <v>64.40000000000001</v>
+        <v>64.44</v>
       </c>
       <c r="F261" t="n">
-        <v>11553.5655</v>
+        <v>5957.126</v>
       </c>
       <c r="G261" t="n">
-        <v>64.69700000000005</v>
+        <v>64.70900000000005</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9703,22 +9703,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>64.88</v>
+        <v>64.62</v>
       </c>
       <c r="C262" t="n">
-        <v>64.88</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="D262" t="n">
-        <v>64.88</v>
+        <v>64.62</v>
       </c>
       <c r="E262" t="n">
-        <v>64.88</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="F262" t="n">
-        <v>14.3628</v>
+        <v>11553.5655</v>
       </c>
       <c r="G262" t="n">
-        <v>64.69300000000005</v>
+        <v>64.69700000000005</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9744,22 +9744,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>65.40000000000001</v>
+        <v>64.88</v>
       </c>
       <c r="C263" t="n">
-        <v>65.42</v>
+        <v>64.88</v>
       </c>
       <c r="D263" t="n">
-        <v>65.42</v>
+        <v>64.88</v>
       </c>
       <c r="E263" t="n">
-        <v>65.40000000000001</v>
+        <v>64.88</v>
       </c>
       <c r="F263" t="n">
-        <v>14869.8149</v>
+        <v>14.3628</v>
       </c>
       <c r="G263" t="n">
-        <v>64.69800000000005</v>
+        <v>64.69300000000005</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9785,22 +9785,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>65.34999999999999</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="C264" t="n">
-        <v>65.34999999999999</v>
+        <v>65.42</v>
       </c>
       <c r="D264" t="n">
-        <v>65.34999999999999</v>
+        <v>65.42</v>
       </c>
       <c r="E264" t="n">
-        <v>65.34999999999999</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="F264" t="n">
-        <v>522.1678000000001</v>
+        <v>14869.8149</v>
       </c>
       <c r="G264" t="n">
-        <v>64.70266666666672</v>
+        <v>64.69800000000005</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9826,22 +9826,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>65.77</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="C265" t="n">
-        <v>65.72</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="D265" t="n">
-        <v>66.15000000000001</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="E265" t="n">
-        <v>65.72</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="F265" t="n">
-        <v>74374.81285827</v>
+        <v>522.1678000000001</v>
       </c>
       <c r="G265" t="n">
-        <v>64.71350000000004</v>
+        <v>64.70266666666672</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9867,22 +9867,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>65.59999999999999</v>
+        <v>65.77</v>
       </c>
       <c r="C266" t="n">
-        <v>65.70999999999999</v>
+        <v>65.72</v>
       </c>
       <c r="D266" t="n">
-        <v>66</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="E266" t="n">
-        <v>65.59999999999999</v>
+        <v>65.72</v>
       </c>
       <c r="F266" t="n">
-        <v>7422.4702</v>
+        <v>74374.81285827</v>
       </c>
       <c r="G266" t="n">
-        <v>64.7241666666667</v>
+        <v>64.71350000000004</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9908,22 +9908,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>65.55</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="C267" t="n">
-        <v>65.7</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="D267" t="n">
-        <v>65.7</v>
+        <v>66</v>
       </c>
       <c r="E267" t="n">
-        <v>65.55</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="F267" t="n">
-        <v>819.1883</v>
+        <v>7422.4702</v>
       </c>
       <c r="G267" t="n">
-        <v>64.73383333333338</v>
+        <v>64.7241666666667</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9949,28 +9949,28 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>65.59999999999999</v>
+        <v>65.55</v>
       </c>
       <c r="C268" t="n">
-        <v>65.59999999999999</v>
+        <v>65.7</v>
       </c>
       <c r="D268" t="n">
-        <v>65.63</v>
+        <v>65.7</v>
       </c>
       <c r="E268" t="n">
-        <v>65.59999999999999</v>
+        <v>65.55</v>
       </c>
       <c r="F268" t="n">
-        <v>45189.9182</v>
+        <v>819.1883</v>
       </c>
       <c r="G268" t="n">
-        <v>64.74183333333337</v>
+        <v>64.73383333333338</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
       </c>
       <c r="I268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="n">
@@ -9978,11 +9978,11 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>1.01458346285359</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -9990,22 +9990,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>65.52</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="C269" t="n">
-        <v>65.52</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="D269" t="n">
-        <v>65.52</v>
+        <v>65.63</v>
       </c>
       <c r="E269" t="n">
-        <v>65.52</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="F269" t="n">
-        <v>43086.4283</v>
+        <v>45189.9182</v>
       </c>
       <c r="G269" t="n">
-        <v>64.74850000000005</v>
+        <v>64.74183333333337</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10014,8 +10014,14 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10025,22 +10031,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>65.61</v>
+        <v>65.52</v>
       </c>
       <c r="C270" t="n">
-        <v>65.81999999999999</v>
+        <v>65.52</v>
       </c>
       <c r="D270" t="n">
-        <v>65.81999999999999</v>
+        <v>65.52</v>
       </c>
       <c r="E270" t="n">
-        <v>65.61</v>
+        <v>65.52</v>
       </c>
       <c r="F270" t="n">
-        <v>2244.6615</v>
+        <v>43086.4283</v>
       </c>
       <c r="G270" t="n">
-        <v>64.76033333333338</v>
+        <v>64.74850000000005</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10049,8 +10055,14 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10060,22 +10072,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>65.7</v>
+        <v>65.61</v>
       </c>
       <c r="C271" t="n">
-        <v>65.70999999999999</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="D271" t="n">
-        <v>65.70999999999999</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="E271" t="n">
-        <v>65.7</v>
+        <v>65.61</v>
       </c>
       <c r="F271" t="n">
-        <v>13476.2997</v>
+        <v>2244.6615</v>
       </c>
       <c r="G271" t="n">
-        <v>64.77016666666671</v>
+        <v>64.76033333333338</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10084,8 +10096,14 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10095,22 +10113,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>65.73</v>
+        <v>65.7</v>
       </c>
       <c r="C272" t="n">
-        <v>65.72</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="D272" t="n">
-        <v>65.86</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="E272" t="n">
-        <v>65.72</v>
+        <v>65.7</v>
       </c>
       <c r="F272" t="n">
-        <v>23688.5268</v>
+        <v>13476.2997</v>
       </c>
       <c r="G272" t="n">
-        <v>64.77866666666671</v>
+        <v>64.77016666666671</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10119,8 +10137,14 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10130,22 +10154,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>65.72</v>
+        <v>65.73</v>
       </c>
       <c r="C273" t="n">
         <v>65.72</v>
       </c>
       <c r="D273" t="n">
-        <v>65.72</v>
+        <v>65.86</v>
       </c>
       <c r="E273" t="n">
         <v>65.72</v>
       </c>
       <c r="F273" t="n">
-        <v>22055.2229</v>
+        <v>23688.5268</v>
       </c>
       <c r="G273" t="n">
-        <v>64.79016666666671</v>
+        <v>64.77866666666671</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10154,8 +10178,14 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10174,13 +10204,13 @@
         <v>65.72</v>
       </c>
       <c r="E274" t="n">
-        <v>65.7</v>
+        <v>65.72</v>
       </c>
       <c r="F274" t="n">
-        <v>48432.4409</v>
+        <v>22055.2229</v>
       </c>
       <c r="G274" t="n">
-        <v>64.80166666666669</v>
+        <v>64.79016666666671</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10189,8 +10219,14 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10203,19 +10239,19 @@
         <v>65.72</v>
       </c>
       <c r="C275" t="n">
-        <v>65.52</v>
+        <v>65.72</v>
       </c>
       <c r="D275" t="n">
         <v>65.72</v>
       </c>
       <c r="E275" t="n">
-        <v>65.52</v>
+        <v>65.7</v>
       </c>
       <c r="F275" t="n">
-        <v>6548.9511</v>
+        <v>48432.4409</v>
       </c>
       <c r="G275" t="n">
-        <v>64.81000000000003</v>
+        <v>64.80166666666669</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10224,8 +10260,14 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10235,22 +10277,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>65.52</v>
+        <v>65.72</v>
       </c>
       <c r="C276" t="n">
         <v>65.52</v>
       </c>
       <c r="D276" t="n">
-        <v>65.52</v>
+        <v>65.72</v>
       </c>
       <c r="E276" t="n">
         <v>65.52</v>
       </c>
       <c r="F276" t="n">
-        <v>10350.305</v>
+        <v>6548.9511</v>
       </c>
       <c r="G276" t="n">
-        <v>64.81983333333336</v>
+        <v>64.81000000000003</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10259,8 +10301,14 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10270,22 +10318,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>66.12</v>
+        <v>65.52</v>
       </c>
       <c r="C277" t="n">
-        <v>66.02</v>
+        <v>65.52</v>
       </c>
       <c r="D277" t="n">
-        <v>66.12</v>
+        <v>65.52</v>
       </c>
       <c r="E277" t="n">
-        <v>66.02</v>
+        <v>65.52</v>
       </c>
       <c r="F277" t="n">
-        <v>1558.6835</v>
+        <v>10350.305</v>
       </c>
       <c r="G277" t="n">
-        <v>64.8356666666667</v>
+        <v>64.81983333333336</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10294,8 +10342,14 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10308,19 +10362,19 @@
         <v>66.12</v>
       </c>
       <c r="C278" t="n">
-        <v>66.66</v>
+        <v>66.02</v>
       </c>
       <c r="D278" t="n">
-        <v>66.66</v>
+        <v>66.12</v>
       </c>
       <c r="E278" t="n">
-        <v>66.12</v>
+        <v>66.02</v>
       </c>
       <c r="F278" t="n">
-        <v>99684.099</v>
+        <v>1558.6835</v>
       </c>
       <c r="G278" t="n">
-        <v>64.8621666666667</v>
+        <v>64.8356666666667</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10329,8 +10383,14 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10340,22 +10400,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>66.65000000000001</v>
+        <v>66.12</v>
       </c>
       <c r="C279" t="n">
-        <v>66.38</v>
+        <v>66.66</v>
       </c>
       <c r="D279" t="n">
-        <v>66.65000000000001</v>
+        <v>66.66</v>
       </c>
       <c r="E279" t="n">
-        <v>66.38</v>
+        <v>66.12</v>
       </c>
       <c r="F279" t="n">
-        <v>1476.6781</v>
+        <v>99684.099</v>
       </c>
       <c r="G279" t="n">
-        <v>64.88400000000003</v>
+        <v>64.8621666666667</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10364,8 +10424,14 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10375,22 +10441,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>66.52</v>
+        <v>66.65000000000001</v>
       </c>
       <c r="C280" t="n">
-        <v>66.56999999999999</v>
+        <v>66.38</v>
       </c>
       <c r="D280" t="n">
-        <v>66.73999999999999</v>
+        <v>66.65000000000001</v>
       </c>
       <c r="E280" t="n">
-        <v>66.39</v>
+        <v>66.38</v>
       </c>
       <c r="F280" t="n">
-        <v>92853.6563</v>
+        <v>1476.6781</v>
       </c>
       <c r="G280" t="n">
-        <v>64.90683333333337</v>
+        <v>64.88400000000003</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10399,10 +10465,16 @@
         <v>1</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M280" t="n">
-        <v>1</v>
+        <v>1.026706558905813</v>
       </c>
     </row>
     <row r="281">
@@ -10410,28 +10482,28 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>66.73</v>
+        <v>66.52</v>
       </c>
       <c r="C281" t="n">
         <v>66.56999999999999</v>
       </c>
       <c r="D281" t="n">
-        <v>66.75</v>
+        <v>66.73999999999999</v>
       </c>
       <c r="E281" t="n">
-        <v>66.56999999999999</v>
+        <v>66.39</v>
       </c>
       <c r="F281" t="n">
-        <v>11664.4273</v>
+        <v>92853.6563</v>
       </c>
       <c r="G281" t="n">
-        <v>64.9341666666667</v>
+        <v>64.90683333333337</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
       </c>
       <c r="I281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
@@ -10445,28 +10517,28 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>66.48999999999999</v>
+        <v>66.73</v>
       </c>
       <c r="C282" t="n">
-        <v>66.48999999999999</v>
+        <v>66.56999999999999</v>
       </c>
       <c r="D282" t="n">
-        <v>66.48999999999999</v>
+        <v>66.75</v>
       </c>
       <c r="E282" t="n">
-        <v>66.48999999999999</v>
+        <v>66.56999999999999</v>
       </c>
       <c r="F282" t="n">
-        <v>118679.593</v>
+        <v>11664.4273</v>
       </c>
       <c r="G282" t="n">
-        <v>64.95616666666669</v>
+        <v>64.9341666666667</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
       </c>
       <c r="I282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
@@ -10486,16 +10558,16 @@
         <v>66.48999999999999</v>
       </c>
       <c r="D283" t="n">
-        <v>66.59</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="E283" t="n">
         <v>66.48999999999999</v>
       </c>
       <c r="F283" t="n">
-        <v>122230.35472694</v>
+        <v>118679.593</v>
       </c>
       <c r="G283" t="n">
-        <v>64.98233333333336</v>
+        <v>64.95616666666669</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10521,16 +10593,16 @@
         <v>66.48999999999999</v>
       </c>
       <c r="D284" t="n">
-        <v>66.48999999999999</v>
+        <v>66.59</v>
       </c>
       <c r="E284" t="n">
         <v>66.48999999999999</v>
       </c>
       <c r="F284" t="n">
-        <v>99578.6713</v>
+        <v>122230.35472694</v>
       </c>
       <c r="G284" t="n">
-        <v>65.00900000000003</v>
+        <v>64.98233333333336</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10562,10 +10634,10 @@
         <v>66.48999999999999</v>
       </c>
       <c r="F285" t="n">
-        <v>48624.2283</v>
+        <v>99578.6713</v>
       </c>
       <c r="G285" t="n">
-        <v>65.03600000000002</v>
+        <v>65.00900000000003</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10597,10 +10669,10 @@
         <v>66.48999999999999</v>
       </c>
       <c r="F286" t="n">
-        <v>10561.722</v>
+        <v>48624.2283</v>
       </c>
       <c r="G286" t="n">
-        <v>65.06333333333335</v>
+        <v>65.03600000000002</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10620,22 +10692,22 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>66.5</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="C287" t="n">
-        <v>66.5</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="D287" t="n">
-        <v>66.5</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="E287" t="n">
-        <v>66.5</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="F287" t="n">
-        <v>8122.3604</v>
+        <v>10561.722</v>
       </c>
       <c r="G287" t="n">
-        <v>65.09416666666668</v>
+        <v>65.06333333333335</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10667,10 +10739,10 @@
         <v>66.5</v>
       </c>
       <c r="F288" t="n">
-        <v>21001</v>
+        <v>8122.3604</v>
       </c>
       <c r="G288" t="n">
-        <v>65.12200000000001</v>
+        <v>65.09416666666668</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10693,19 +10765,19 @@
         <v>66.5</v>
       </c>
       <c r="C289" t="n">
-        <v>66.48999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="D289" t="n">
         <v>66.5</v>
       </c>
       <c r="E289" t="n">
-        <v>66.48999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="F289" t="n">
-        <v>17081.8832</v>
+        <v>21001</v>
       </c>
       <c r="G289" t="n">
-        <v>65.15350000000002</v>
+        <v>65.12200000000001</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10725,22 +10797,22 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>66.48999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="C290" t="n">
         <v>66.48999999999999</v>
       </c>
       <c r="D290" t="n">
-        <v>66.64</v>
+        <v>66.5</v>
       </c>
       <c r="E290" t="n">
         <v>66.48999999999999</v>
       </c>
       <c r="F290" t="n">
-        <v>146127.7790575</v>
+        <v>17081.8832</v>
       </c>
       <c r="G290" t="n">
-        <v>65.18500000000002</v>
+        <v>65.15350000000002</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10763,19 +10835,19 @@
         <v>66.48999999999999</v>
       </c>
       <c r="C291" t="n">
-        <v>66.40000000000001</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="D291" t="n">
+        <v>66.64</v>
+      </c>
+      <c r="E291" t="n">
         <v>66.48999999999999</v>
       </c>
-      <c r="E291" t="n">
-        <v>66.39</v>
-      </c>
       <c r="F291" t="n">
-        <v>67820.0307</v>
+        <v>146127.7790575</v>
       </c>
       <c r="G291" t="n">
-        <v>65.21666666666668</v>
+        <v>65.18500000000002</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -10795,22 +10867,22 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>66.95999999999999</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="C292" t="n">
-        <v>67.02</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D292" t="n">
-        <v>67.06</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="E292" t="n">
-        <v>66.95999999999999</v>
+        <v>66.39</v>
       </c>
       <c r="F292" t="n">
-        <v>4048.574</v>
+        <v>67820.0307</v>
       </c>
       <c r="G292" t="n">
-        <v>65.25866666666668</v>
+        <v>65.21666666666668</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -10830,22 +10902,22 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>66.88</v>
+        <v>66.95999999999999</v>
       </c>
       <c r="C293" t="n">
-        <v>66.83</v>
+        <v>67.02</v>
       </c>
       <c r="D293" t="n">
-        <v>66.88</v>
+        <v>67.06</v>
       </c>
       <c r="E293" t="n">
-        <v>66.83</v>
+        <v>66.95999999999999</v>
       </c>
       <c r="F293" t="n">
-        <v>561</v>
+        <v>4048.574</v>
       </c>
       <c r="G293" t="n">
-        <v>65.29766666666669</v>
+        <v>65.25866666666668</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -10865,22 +10937,22 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>66.73999999999999</v>
+        <v>66.88</v>
       </c>
       <c r="C294" t="n">
-        <v>66.73999999999999</v>
+        <v>66.83</v>
       </c>
       <c r="D294" t="n">
-        <v>66.73999999999999</v>
+        <v>66.88</v>
       </c>
       <c r="E294" t="n">
-        <v>66.73999999999999</v>
+        <v>66.83</v>
       </c>
       <c r="F294" t="n">
-        <v>16</v>
+        <v>561</v>
       </c>
       <c r="G294" t="n">
-        <v>65.33766666666668</v>
+        <v>65.29766666666669</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -10900,22 +10972,22 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>66.52</v>
+        <v>66.73999999999999</v>
       </c>
       <c r="C295" t="n">
-        <v>66.69</v>
+        <v>66.73999999999999</v>
       </c>
       <c r="D295" t="n">
-        <v>66.69</v>
+        <v>66.73999999999999</v>
       </c>
       <c r="E295" t="n">
-        <v>66.52</v>
+        <v>66.73999999999999</v>
       </c>
       <c r="F295" t="n">
-        <v>29029.9864</v>
+        <v>16</v>
       </c>
       <c r="G295" t="n">
-        <v>65.37416666666668</v>
+        <v>65.33766666666668</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -10938,19 +11010,19 @@
         <v>66.52</v>
       </c>
       <c r="C296" t="n">
-        <v>66.52</v>
+        <v>66.69</v>
       </c>
       <c r="D296" t="n">
-        <v>66.52</v>
+        <v>66.69</v>
       </c>
       <c r="E296" t="n">
         <v>66.52</v>
       </c>
       <c r="F296" t="n">
-        <v>1812.7183</v>
+        <v>29029.9864</v>
       </c>
       <c r="G296" t="n">
-        <v>65.40783333333334</v>
+        <v>65.37416666666668</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -10970,22 +11042,22 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>67.06</v>
+        <v>66.52</v>
       </c>
       <c r="C297" t="n">
-        <v>66.75</v>
+        <v>66.52</v>
       </c>
       <c r="D297" t="n">
-        <v>67.09999999999999</v>
+        <v>66.52</v>
       </c>
       <c r="E297" t="n">
-        <v>66.75</v>
+        <v>66.52</v>
       </c>
       <c r="F297" t="n">
-        <v>27765.1337</v>
+        <v>1812.7183</v>
       </c>
       <c r="G297" t="n">
-        <v>65.44800000000001</v>
+        <v>65.40783333333334</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -11005,22 +11077,22 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>66.52</v>
+        <v>67.06</v>
       </c>
       <c r="C298" t="n">
-        <v>66.52</v>
+        <v>66.75</v>
       </c>
       <c r="D298" t="n">
-        <v>66.52</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E298" t="n">
-        <v>66.52</v>
+        <v>66.75</v>
       </c>
       <c r="F298" t="n">
-        <v>6968.5441</v>
+        <v>27765.1337</v>
       </c>
       <c r="G298" t="n">
-        <v>65.485</v>
+        <v>65.44800000000001</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -11040,22 +11112,22 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>66.8</v>
+        <v>66.52</v>
       </c>
       <c r="C299" t="n">
-        <v>66.8</v>
+        <v>66.52</v>
       </c>
       <c r="D299" t="n">
-        <v>66.8</v>
+        <v>66.52</v>
       </c>
       <c r="E299" t="n">
-        <v>66.8</v>
+        <v>66.52</v>
       </c>
       <c r="F299" t="n">
-        <v>8</v>
+        <v>6968.5441</v>
       </c>
       <c r="G299" t="n">
-        <v>65.52216666666668</v>
+        <v>65.485</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -11075,22 +11147,22 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>66.59</v>
+        <v>66.8</v>
       </c>
       <c r="C300" t="n">
-        <v>66.59</v>
+        <v>66.8</v>
       </c>
       <c r="D300" t="n">
-        <v>66.59</v>
+        <v>66.8</v>
       </c>
       <c r="E300" t="n">
-        <v>66.59</v>
+        <v>66.8</v>
       </c>
       <c r="F300" t="n">
-        <v>10064.1151</v>
+        <v>8</v>
       </c>
       <c r="G300" t="n">
-        <v>65.55350000000001</v>
+        <v>65.52216666666668</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -11110,22 +11182,22 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>67</v>
+        <v>66.59</v>
       </c>
       <c r="C301" t="n">
-        <v>66.98</v>
+        <v>66.59</v>
       </c>
       <c r="D301" t="n">
-        <v>67</v>
+        <v>66.59</v>
       </c>
       <c r="E301" t="n">
-        <v>66.98</v>
+        <v>66.59</v>
       </c>
       <c r="F301" t="n">
-        <v>92657.94</v>
+        <v>10064.1151</v>
       </c>
       <c r="G301" t="n">
-        <v>65.59283333333335</v>
+        <v>65.55350000000001</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -11145,22 +11217,22 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>66.94</v>
+        <v>67</v>
       </c>
       <c r="C302" t="n">
         <v>66.98</v>
       </c>
       <c r="D302" t="n">
+        <v>67</v>
+      </c>
+      <c r="E302" t="n">
         <v>66.98</v>
       </c>
-      <c r="E302" t="n">
-        <v>66.94</v>
-      </c>
       <c r="F302" t="n">
-        <v>31135.3392</v>
+        <v>92657.94</v>
       </c>
       <c r="G302" t="n">
-        <v>65.63250000000001</v>
+        <v>65.59283333333335</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -11180,7 +11252,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>66.98</v>
+        <v>66.94</v>
       </c>
       <c r="C303" t="n">
         <v>66.98</v>
@@ -11189,13 +11261,13 @@
         <v>66.98</v>
       </c>
       <c r="E303" t="n">
-        <v>66.98</v>
+        <v>66.94</v>
       </c>
       <c r="F303" t="n">
-        <v>758.917</v>
+        <v>31135.3392</v>
       </c>
       <c r="G303" t="n">
-        <v>65.67216666666668</v>
+        <v>65.63250000000001</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -11215,22 +11287,22 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>67.03</v>
+        <v>66.98</v>
       </c>
       <c r="C304" t="n">
-        <v>67.03</v>
+        <v>66.98</v>
       </c>
       <c r="D304" t="n">
-        <v>67.03</v>
+        <v>66.98</v>
       </c>
       <c r="E304" t="n">
-        <v>67.03</v>
+        <v>66.98</v>
       </c>
       <c r="F304" t="n">
-        <v>2000</v>
+        <v>758.917</v>
       </c>
       <c r="G304" t="n">
-        <v>65.71050000000001</v>
+        <v>65.67216666666668</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11250,22 +11322,22 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>67.3</v>
+        <v>67.03</v>
       </c>
       <c r="C305" t="n">
-        <v>67.3</v>
+        <v>67.03</v>
       </c>
       <c r="D305" t="n">
-        <v>67.3</v>
+        <v>67.03</v>
       </c>
       <c r="E305" t="n">
-        <v>67.3</v>
+        <v>67.03</v>
       </c>
       <c r="F305" t="n">
-        <v>8</v>
+        <v>2000</v>
       </c>
       <c r="G305" t="n">
-        <v>65.75916666666669</v>
+        <v>65.71050000000001</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -11288,19 +11360,19 @@
         <v>67.3</v>
       </c>
       <c r="C306" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="D306" t="n">
-        <v>67.41</v>
+        <v>67.3</v>
       </c>
       <c r="E306" t="n">
-        <v>67.09999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="F306" t="n">
-        <v>15404.3246</v>
+        <v>8</v>
       </c>
       <c r="G306" t="n">
-        <v>65.80633333333336</v>
+        <v>65.75916666666669</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -11320,22 +11392,22 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="C307" t="n">
         <v>67.2</v>
       </c>
-      <c r="C307" t="n">
-        <v>67.3</v>
-      </c>
       <c r="D307" t="n">
-        <v>67.3</v>
+        <v>67.41</v>
       </c>
       <c r="E307" t="n">
-        <v>67.06999999999999</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F307" t="n">
-        <v>15925.324</v>
+        <v>15404.3246</v>
       </c>
       <c r="G307" t="n">
-        <v>65.85516666666669</v>
+        <v>65.80633333333336</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -11355,28 +11427,28 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>67.06999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="C308" t="n">
-        <v>67.06999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="D308" t="n">
-        <v>67.06999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="E308" t="n">
         <v>67.06999999999999</v>
       </c>
       <c r="F308" t="n">
-        <v>16.4008</v>
+        <v>15925.324</v>
       </c>
       <c r="G308" t="n">
-        <v>65.90016666666669</v>
+        <v>65.85516666666669</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
       </c>
       <c r="I308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
@@ -11393,25 +11465,25 @@
         <v>67.06999999999999</v>
       </c>
       <c r="C309" t="n">
-        <v>67.08</v>
+        <v>67.06999999999999</v>
       </c>
       <c r="D309" t="n">
-        <v>67.08</v>
+        <v>67.06999999999999</v>
       </c>
       <c r="E309" t="n">
         <v>67.06999999999999</v>
       </c>
       <c r="F309" t="n">
-        <v>57874.8507</v>
+        <v>16.4008</v>
       </c>
       <c r="G309" t="n">
-        <v>65.94583333333335</v>
+        <v>65.90016666666669</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
       </c>
       <c r="I309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
@@ -11425,22 +11497,22 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
+        <v>67.06999999999999</v>
+      </c>
+      <c r="C310" t="n">
         <v>67.08</v>
-      </c>
-      <c r="C310" t="n">
-        <v>67</v>
       </c>
       <c r="D310" t="n">
         <v>67.08</v>
       </c>
       <c r="E310" t="n">
-        <v>67</v>
+        <v>67.06999999999999</v>
       </c>
       <c r="F310" t="n">
-        <v>72325.0359</v>
+        <v>57874.8507</v>
       </c>
       <c r="G310" t="n">
-        <v>65.99016666666668</v>
+        <v>65.94583333333335</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -11460,28 +11532,28 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
+        <v>67.08</v>
+      </c>
+      <c r="C311" t="n">
         <v>67</v>
       </c>
-      <c r="C311" t="n">
-        <v>66.98999999999999</v>
-      </c>
       <c r="D311" t="n">
+        <v>67.08</v>
+      </c>
+      <c r="E311" t="n">
         <v>67</v>
       </c>
-      <c r="E311" t="n">
-        <v>66.97</v>
-      </c>
       <c r="F311" t="n">
-        <v>87782.73820000001</v>
+        <v>72325.0359</v>
       </c>
       <c r="G311" t="n">
-        <v>66.03300000000002</v>
+        <v>65.99016666666668</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
       </c>
       <c r="I311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
@@ -11495,28 +11567,28 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>67.03</v>
+        <v>67</v>
       </c>
       <c r="C312" t="n">
-        <v>67.03</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="D312" t="n">
-        <v>67.03</v>
+        <v>67</v>
       </c>
       <c r="E312" t="n">
-        <v>67.03</v>
+        <v>66.97</v>
       </c>
       <c r="F312" t="n">
-        <v>1646.7832</v>
+        <v>87782.73820000001</v>
       </c>
       <c r="G312" t="n">
-        <v>66.08183333333335</v>
+        <v>66.03300000000002</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
       </c>
       <c r="I312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
@@ -11530,22 +11602,22 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>67.04000000000001</v>
+        <v>67.03</v>
       </c>
       <c r="C313" t="n">
-        <v>67.04000000000001</v>
+        <v>67.03</v>
       </c>
       <c r="D313" t="n">
-        <v>67.04000000000001</v>
+        <v>67.03</v>
       </c>
       <c r="E313" t="n">
-        <v>67.04000000000001</v>
+        <v>67.03</v>
       </c>
       <c r="F313" t="n">
-        <v>5264.7346</v>
+        <v>1646.7832</v>
       </c>
       <c r="G313" t="n">
-        <v>66.12916666666669</v>
+        <v>66.08183333333335</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -11565,22 +11637,22 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>66.88</v>
+        <v>67.04000000000001</v>
       </c>
       <c r="C314" t="n">
-        <v>66.88</v>
+        <v>67.04000000000001</v>
       </c>
       <c r="D314" t="n">
-        <v>66.88</v>
+        <v>67.04000000000001</v>
       </c>
       <c r="E314" t="n">
-        <v>66.88</v>
+        <v>67.04000000000001</v>
       </c>
       <c r="F314" t="n">
-        <v>373.7867</v>
+        <v>5264.7346</v>
       </c>
       <c r="G314" t="n">
-        <v>66.17333333333336</v>
+        <v>66.12916666666669</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -11600,22 +11672,22 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>66.98</v>
+        <v>66.88</v>
       </c>
       <c r="C315" t="n">
-        <v>66.81999999999999</v>
+        <v>66.88</v>
       </c>
       <c r="D315" t="n">
-        <v>66.98</v>
+        <v>66.88</v>
       </c>
       <c r="E315" t="n">
-        <v>66.81999999999999</v>
+        <v>66.88</v>
       </c>
       <c r="F315" t="n">
-        <v>2079.193</v>
+        <v>373.7867</v>
       </c>
       <c r="G315" t="n">
-        <v>66.21483333333336</v>
+        <v>66.17333333333336</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -11635,22 +11707,22 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>66.97</v>
+        <v>66.98</v>
       </c>
       <c r="C316" t="n">
-        <v>66.97</v>
+        <v>66.81999999999999</v>
       </c>
       <c r="D316" t="n">
-        <v>66.97</v>
+        <v>66.98</v>
       </c>
       <c r="E316" t="n">
-        <v>66.97</v>
+        <v>66.81999999999999</v>
       </c>
       <c r="F316" t="n">
-        <v>7.5</v>
+        <v>2079.193</v>
       </c>
       <c r="G316" t="n">
-        <v>66.25866666666668</v>
+        <v>66.21483333333336</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -11670,22 +11742,22 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>66.81999999999999</v>
+        <v>66.97</v>
       </c>
       <c r="C317" t="n">
-        <v>66.81999999999999</v>
+        <v>66.97</v>
       </c>
       <c r="D317" t="n">
-        <v>66.81999999999999</v>
+        <v>66.97</v>
       </c>
       <c r="E317" t="n">
-        <v>66.81999999999999</v>
+        <v>66.97</v>
       </c>
       <c r="F317" t="n">
-        <v>846</v>
+        <v>7.5</v>
       </c>
       <c r="G317" t="n">
-        <v>66.30233333333337</v>
+        <v>66.25866666666668</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -11705,22 +11777,22 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>66.94</v>
+        <v>66.81999999999999</v>
       </c>
       <c r="C318" t="n">
-        <v>66.94</v>
+        <v>66.81999999999999</v>
       </c>
       <c r="D318" t="n">
-        <v>66.94</v>
+        <v>66.81999999999999</v>
       </c>
       <c r="E318" t="n">
-        <v>66.94</v>
+        <v>66.81999999999999</v>
       </c>
       <c r="F318" t="n">
-        <v>742.9897</v>
+        <v>846</v>
       </c>
       <c r="G318" t="n">
-        <v>66.34616666666669</v>
+        <v>66.30233333333337</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -11740,22 +11812,22 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>66.81999999999999</v>
+        <v>66.94</v>
       </c>
       <c r="C319" t="n">
-        <v>66.48999999999999</v>
+        <v>66.94</v>
       </c>
       <c r="D319" t="n">
-        <v>66.81999999999999</v>
+        <v>66.94</v>
       </c>
       <c r="E319" t="n">
-        <v>66.48999999999999</v>
+        <v>66.94</v>
       </c>
       <c r="F319" t="n">
-        <v>26939.0583</v>
+        <v>742.9897</v>
       </c>
       <c r="G319" t="n">
-        <v>66.38100000000003</v>
+        <v>66.34616666666669</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -11775,22 +11847,22 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
+        <v>66.81999999999999</v>
+      </c>
+      <c r="C320" t="n">
         <v>66.48999999999999</v>
       </c>
-      <c r="C320" t="n">
-        <v>66.39</v>
-      </c>
       <c r="D320" t="n">
+        <v>66.81999999999999</v>
+      </c>
+      <c r="E320" t="n">
         <v>66.48999999999999</v>
       </c>
-      <c r="E320" t="n">
-        <v>66.39</v>
-      </c>
       <c r="F320" t="n">
-        <v>2363.7875</v>
+        <v>26939.0583</v>
       </c>
       <c r="G320" t="n">
-        <v>66.41350000000003</v>
+        <v>66.38100000000003</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -11810,22 +11882,22 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>66.39</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="C321" t="n">
         <v>66.39</v>
       </c>
       <c r="D321" t="n">
-        <v>66.39</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="E321" t="n">
         <v>66.39</v>
       </c>
       <c r="F321" t="n">
-        <v>22739.5036</v>
+        <v>2363.7875</v>
       </c>
       <c r="G321" t="n">
-        <v>66.44666666666669</v>
+        <v>66.41350000000003</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -11845,22 +11917,22 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>66.48</v>
+        <v>66.39</v>
       </c>
       <c r="C322" t="n">
         <v>66.39</v>
       </c>
       <c r="D322" t="n">
-        <v>66.62</v>
+        <v>66.39</v>
       </c>
       <c r="E322" t="n">
         <v>66.39</v>
       </c>
       <c r="F322" t="n">
-        <v>28485.5658</v>
+        <v>22739.5036</v>
       </c>
       <c r="G322" t="n">
-        <v>66.47183333333335</v>
+        <v>66.44666666666669</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -11875,6 +11947,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>66.48</v>
+      </c>
+      <c r="C323" t="n">
+        <v>66.39</v>
+      </c>
+      <c r="D323" t="n">
+        <v>66.62</v>
+      </c>
+      <c r="E323" t="n">
+        <v>66.39</v>
+      </c>
+      <c r="F323" t="n">
+        <v>28485.5658</v>
+      </c>
+      <c r="G323" t="n">
+        <v>66.47183333333335</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="n">
+        <v>0</v>
+      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="inlineStr"/>
+      <c r="M323" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-25 BackTest XLM.xlsx
+++ b/BackTest/2020-01-25 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N391"/>
+  <dimension ref="A1:M391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-344547.4221228901</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-342927.4221228901</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-349580.6269228901</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-350456.6269228901</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-350456.6269228901</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-348758.5392228901</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-349598.6904228901</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>-484274.4275228902</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-507367.8567228902</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-507367.8567228902</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-511128.0567228902</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-511128.0567228902</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>-511128.0567228902</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-453047.0590228902</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>-452857.1755228902</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>-452710.3375228902</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>-498609.3375228902</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>-498459.0067228902</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-485407.4151228902</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-485708.0766228902</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-500261.6077228902</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>-500213.9836228902</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>-500382.1638228902</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>-460413.9790228902</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>-460995.9179228902</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>-460995.9179228902</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>-460995.9179228902</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1672,15 @@
         <v>-459494.4164213902</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>-459528.1939213902</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,15 @@
         <v>-459528.1939213902</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>-459528.1939213902</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1804,15 @@
         <v>-416851.8068213902</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>-418356.4711213902</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>-451888.8836213902</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>-491492.7250213902</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>-487052.8848556402</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,15 @@
         <v>-480055.8271556402</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2365,15 @@
         <v>-461282.7622556402</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>-461282.7622556402</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>-549716.1257556402</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>-549361.3919556402</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>-547995.6671556402</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>-540627.0289556402</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>-541886.0289556402</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>-541366.3392556402</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>-539303.3379556402</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>-539672.5653556401</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2695,15 @@
         <v>-592518.2465556401</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2728,15 @@
         <v>-611477.6864556401</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2761,15 @@
         <v>-611477.6864556401</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,18 +2794,15 @@
         <v>-611514.6442556401</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2827,15 @@
         <v>-573800.6442556401</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +2860,15 @@
         <v>-574462.8723556401</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +2893,15 @@
         <v>-574462.8723556401</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +2926,15 @@
         <v>-574462.8723556401</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3190,15 @@
         <v>-402377.72665564</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4056,18 +3751,15 @@
         <v>-422904.70501264</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4092,18 +3784,15 @@
         <v>-426084.6121761401</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4164,18 +3850,15 @@
         <v>-421329.6886761401</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4200,18 +3883,15 @@
         <v>-421352.0861761401</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4236,18 +3916,15 @@
         <v>-421352.0861761401</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4344,18 +4015,15 @@
         <v>-429269.7838761401</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4380,18 +4048,15 @@
         <v>-429159.5444761401</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4416,18 +4081,15 @@
         <v>-429174.0341761401</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4452,18 +4114,15 @@
         <v>-429079.0341761401</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4488,18 +4147,15 @@
         <v>-429079.0341761401</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4524,18 +4180,15 @@
         <v>-429043.1682761401</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4560,18 +4213,15 @@
         <v>-429259.1840761401</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4596,18 +4246,15 @@
         <v>-431289.2897761401</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4632,18 +4279,15 @@
         <v>-437654.4697761401</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4668,18 +4312,15 @@
         <v>-437121.2829761401</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4848,18 +4477,15 @@
         <v>-473918.4065761401</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4884,18 +4510,15 @@
         <v>-515251.8054761401</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5028,18 +4642,15 @@
         <v>-522762.9228761402</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5136,18 +4741,15 @@
         <v>-532438.4788761402</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5172,18 +4774,15 @@
         <v>-532429.5435761402</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5208,18 +4807,15 @@
         <v>-544702.2619761402</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5244,18 +4840,15 @@
         <v>-573310.4706761402</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5280,18 +4873,15 @@
         <v>-573651.4166761402</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5316,18 +4906,15 @@
         <v>-580790.4745761402</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5424,18 +5005,15 @@
         <v>-582781.8745761402</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5460,18 +5038,15 @@
         <v>-582781.8745761402</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5496,18 +5071,15 @@
         <v>-582781.8745761402</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5532,18 +5104,15 @@
         <v>-582951.4322761402</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5568,18 +5137,15 @@
         <v>-582965.1072761402</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5604,18 +5170,15 @@
         <v>-582965.1072761402</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5640,18 +5203,15 @@
         <v>-916003.6780761402</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5676,18 +5236,15 @@
         <v>-916003.6780761402</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5748,18 +5302,15 @@
         <v>-1025510.36627614</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6921,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6954,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +6987,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7053,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7185,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7251,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7284,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7317,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7350,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7383,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7416,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7449,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7482,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7515,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7548,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8234,16 +7581,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8270,16 +7614,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8306,16 +7647,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8342,16 +7680,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,16 +7713,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +7746,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8450,16 +7779,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8486,16 +7812,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8522,16 +7845,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8558,16 +7878,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8594,16 +7911,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8630,16 +7944,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8666,16 +7977,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8702,16 +8010,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8738,16 +8043,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8774,16 +8076,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8810,16 +8109,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8846,16 +8142,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8882,16 +8175,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8918,16 +8208,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8954,16 +8241,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8990,16 +8274,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9026,16 +8307,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9062,16 +8340,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9098,16 +8373,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9134,16 +8406,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9170,16 +8439,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9206,16 +8472,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9242,16 +8505,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9278,16 +8538,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9314,16 +8571,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9350,16 +8604,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9386,16 +8637,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9422,16 +8670,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9458,16 +8703,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9494,16 +8736,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9530,16 +8769,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9566,16 +8802,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9602,16 +8835,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9638,16 +8868,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9674,16 +8901,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9710,16 +8934,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9746,16 +8967,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9782,16 +9000,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9818,16 +9033,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9854,16 +9066,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9890,16 +9099,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9926,16 +9132,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9962,16 +9165,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9998,16 +9198,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10034,16 +9231,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10070,16 +9264,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10106,16 +9297,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10142,16 +9330,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10178,16 +9363,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10214,16 +9396,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10250,16 +9429,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10286,16 +9462,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10322,16 +9495,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10358,16 +9528,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10394,16 +9561,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10430,16 +9594,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10466,16 +9627,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10502,16 +9660,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10538,16 +9693,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10574,16 +9726,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10610,16 +9759,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10646,16 +9792,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10682,16 +9825,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10718,16 +9858,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10754,16 +9891,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10790,16 +9924,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10826,16 +9957,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10862,16 +9990,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10898,16 +10023,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10934,16 +10056,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10970,16 +10089,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11006,16 +10122,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11042,16 +10155,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11078,16 +10188,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11114,16 +10221,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11150,16 +10254,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11186,16 +10287,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11222,16 +10320,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11258,16 +10353,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11294,16 +10386,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11330,16 +10419,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11364,18 +10450,19 @@
         <v>-1616070.53947048</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="n">
-        <v>0</v>
-      </c>
-      <c r="J305" t="inlineStr"/>
+        <v>64.38</v>
+      </c>
+      <c r="J305" t="n">
+        <v>64.38</v>
+      </c>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11400,22 +10487,23 @@
         <v>-1616070.53947048</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I306" t="n">
-        <v>0</v>
+        <v>64.37</v>
       </c>
       <c r="J306" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="K306" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+        <v>64.38</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11440,26 +10528,23 @@
         <v>-1616070.53947048</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I307" t="n">
-        <v>0</v>
+        <v>64.37</v>
       </c>
       <c r="J307" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="K307" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L307" t="inlineStr">
+        <v>64.38</v>
+      </c>
+      <c r="K307" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11484,26 +10569,23 @@
         <v>-1618590.72847048</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I308" t="n">
-        <v>0</v>
+        <v>64.37</v>
       </c>
       <c r="J308" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="K308" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L308" t="inlineStr">
+        <v>64.38</v>
+      </c>
+      <c r="K308" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11528,26 +10610,23 @@
         <v>-1618590.72847048</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I309" t="n">
-        <v>0</v>
+        <v>64.34</v>
       </c>
       <c r="J309" t="n">
-        <v>64.34</v>
-      </c>
-      <c r="K309" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L309" t="inlineStr">
+        <v>64.38</v>
+      </c>
+      <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11572,26 +10651,23 @@
         <v>-1587874.28357048</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I310" t="n">
-        <v>0</v>
+        <v>64.34</v>
       </c>
       <c r="J310" t="n">
-        <v>64.34</v>
-      </c>
-      <c r="K310" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L310" t="inlineStr">
+        <v>64.38</v>
+      </c>
+      <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11616,26 +10692,23 @@
         <v>-1624658.91427048</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I311" t="n">
-        <v>0</v>
+        <v>64.42</v>
       </c>
       <c r="J311" t="n">
-        <v>64.42</v>
-      </c>
-      <c r="K311" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L311" t="inlineStr">
+        <v>64.38</v>
+      </c>
+      <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11660,26 +10733,23 @@
         <v>-1623784.91427048</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I312" t="n">
-        <v>0</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="J312" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="K312" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L312" t="inlineStr">
+        <v>64.38</v>
+      </c>
+      <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11704,26 +10774,23 @@
         <v>-1623625.87867048</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I313" t="n">
-        <v>0</v>
+        <v>64.2</v>
       </c>
       <c r="J313" t="n">
-        <v>64.2</v>
-      </c>
-      <c r="K313" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L313" t="inlineStr">
+        <v>64.38</v>
+      </c>
+      <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11748,26 +10815,23 @@
         <v>-1623418.74287048</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I314" t="n">
-        <v>0</v>
+        <v>64.23</v>
       </c>
       <c r="J314" t="n">
-        <v>64.23</v>
-      </c>
-      <c r="K314" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L314" t="inlineStr">
+        <v>64.38</v>
+      </c>
+      <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11792,26 +10856,23 @@
         <v>-1621883.33067048</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I315" t="n">
-        <v>0</v>
+        <v>64.33</v>
       </c>
       <c r="J315" t="n">
-        <v>64.33</v>
-      </c>
-      <c r="K315" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L315" t="inlineStr">
+        <v>64.38</v>
+      </c>
+      <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11836,26 +10897,23 @@
         <v>-1644403.77297048</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I316" t="n">
-        <v>0</v>
+        <v>64.34</v>
       </c>
       <c r="J316" t="n">
-        <v>64.34</v>
-      </c>
-      <c r="K316" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L316" t="inlineStr">
+        <v>64.38</v>
+      </c>
+      <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11880,26 +10938,23 @@
         <v>-1643686.77297048</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I317" t="n">
-        <v>0</v>
+        <v>64.2</v>
       </c>
       <c r="J317" t="n">
-        <v>64.2</v>
-      </c>
-      <c r="K317" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L317" t="inlineStr">
+        <v>64.38</v>
+      </c>
+      <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11924,26 +10979,23 @@
         <v>-1562162.44247048</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I318" t="n">
-        <v>0</v>
+        <v>64.31</v>
       </c>
       <c r="J318" t="n">
-        <v>64.31</v>
-      </c>
-      <c r="K318" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L318" t="inlineStr">
+        <v>64.38</v>
+      </c>
+      <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11968,26 +11020,23 @@
         <v>-1556205.316470481</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I319" t="n">
-        <v>0</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="J319" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="K319" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L319" t="inlineStr">
+        <v>64.38</v>
+      </c>
+      <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12012,26 +11061,23 @@
         <v>-1567758.881970481</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I320" t="n">
-        <v>0</v>
+        <v>64.44</v>
       </c>
       <c r="J320" t="n">
-        <v>64.44</v>
-      </c>
-      <c r="K320" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L320" t="inlineStr">
+        <v>64.38</v>
+      </c>
+      <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12056,26 +11102,23 @@
         <v>-1567744.519170481</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I321" t="n">
-        <v>0</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="J321" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="K321" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L321" t="inlineStr">
+        <v>64.38</v>
+      </c>
+      <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12100,24 +11143,23 @@
         <v>-1552874.70427048</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="n">
-        <v>0</v>
-      </c>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L322" t="inlineStr">
+        <v>64.88</v>
+      </c>
+      <c r="J322" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12144,22 +11186,19 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L323" t="inlineStr">
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12186,22 +11225,19 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L324" t="inlineStr">
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12228,22 +11264,19 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L325" t="inlineStr">
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12270,22 +11303,19 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L326" t="inlineStr">
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12312,22 +11342,19 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L327" t="inlineStr">
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12354,22 +11381,19 @@
       <c r="H328" t="n">
         <v>0</v>
       </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L328" t="inlineStr">
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12396,22 +11420,19 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L329" t="inlineStr">
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12438,22 +11459,19 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L330" t="inlineStr">
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12480,22 +11498,19 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L331" t="inlineStr">
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12522,22 +11537,19 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L332" t="inlineStr">
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12564,22 +11576,19 @@
       <c r="H333" t="n">
         <v>0</v>
       </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L333" t="inlineStr">
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12606,22 +11615,19 @@
       <c r="H334" t="n">
         <v>0</v>
       </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L334" t="inlineStr">
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12648,22 +11654,19 @@
       <c r="H335" t="n">
         <v>0</v>
       </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L335" t="inlineStr">
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -12690,22 +11693,19 @@
       <c r="H336" t="n">
         <v>0</v>
       </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L336" t="inlineStr">
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -12732,22 +11732,19 @@
       <c r="H337" t="n">
         <v>0</v>
       </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L337" t="inlineStr">
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -12774,22 +11771,19 @@
       <c r="H338" t="n">
         <v>0</v>
       </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L338" t="inlineStr">
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -12816,22 +11810,19 @@
       <c r="H339" t="n">
         <v>0</v>
       </c>
-      <c r="I339" t="n">
-        <v>0</v>
-      </c>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L339" t="inlineStr">
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -12858,22 +11849,19 @@
       <c r="H340" t="n">
         <v>0</v>
       </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L340" t="inlineStr">
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -12900,22 +11888,19 @@
       <c r="H341" t="n">
         <v>0</v>
       </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L341" t="inlineStr">
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -12942,22 +11927,19 @@
       <c r="H342" t="n">
         <v>0</v>
       </c>
-      <c r="I342" t="n">
-        <v>0</v>
-      </c>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L342" t="inlineStr">
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -12984,22 +11966,19 @@
       <c r="H343" t="n">
         <v>0</v>
       </c>
-      <c r="I343" t="n">
-        <v>0</v>
-      </c>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L343" t="inlineStr">
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -13026,22 +12005,19 @@
       <c r="H344" t="n">
         <v>0</v>
       </c>
-      <c r="I344" t="n">
-        <v>0</v>
-      </c>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L344" t="inlineStr">
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M344" t="n">
-        <v>1</v>
-      </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -13068,22 +12044,19 @@
       <c r="H345" t="n">
         <v>0</v>
       </c>
-      <c r="I345" t="n">
-        <v>0</v>
-      </c>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L345" t="inlineStr">
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M345" t="n">
-        <v>1</v>
-      </c>
-      <c r="N345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -13110,22 +12083,19 @@
       <c r="H346" t="n">
         <v>0</v>
       </c>
-      <c r="I346" t="n">
-        <v>0</v>
-      </c>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L346" t="inlineStr">
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M346" t="n">
-        <v>1</v>
-      </c>
-      <c r="N346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -13152,22 +12122,19 @@
       <c r="H347" t="n">
         <v>0</v>
       </c>
-      <c r="I347" t="n">
-        <v>0</v>
-      </c>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L347" t="inlineStr">
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M347" t="n">
-        <v>1</v>
-      </c>
-      <c r="N347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -13194,22 +12161,19 @@
       <c r="H348" t="n">
         <v>0</v>
       </c>
-      <c r="I348" t="n">
-        <v>0</v>
-      </c>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L348" t="inlineStr">
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M348" t="n">
-        <v>1</v>
-      </c>
-      <c r="N348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -13236,22 +12200,19 @@
       <c r="H349" t="n">
         <v>0</v>
       </c>
-      <c r="I349" t="n">
-        <v>0</v>
-      </c>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L349" t="inlineStr">
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M349" t="n">
-        <v>1</v>
-      </c>
-      <c r="N349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -13278,22 +12239,19 @@
       <c r="H350" t="n">
         <v>0</v>
       </c>
-      <c r="I350" t="n">
-        <v>0</v>
-      </c>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L350" t="inlineStr">
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M350" t="n">
-        <v>1</v>
-      </c>
-      <c r="N350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -13320,22 +12278,19 @@
       <c r="H351" t="n">
         <v>0</v>
       </c>
-      <c r="I351" t="n">
-        <v>0</v>
-      </c>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L351" t="inlineStr">
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M351" t="n">
-        <v>1</v>
-      </c>
-      <c r="N351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -13362,22 +12317,19 @@
       <c r="H352" t="n">
         <v>0</v>
       </c>
-      <c r="I352" t="n">
-        <v>0</v>
-      </c>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L352" t="inlineStr">
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M352" t="n">
-        <v>1</v>
-      </c>
-      <c r="N352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -13404,22 +12356,19 @@
       <c r="H353" t="n">
         <v>0</v>
       </c>
-      <c r="I353" t="n">
-        <v>0</v>
-      </c>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L353" t="inlineStr">
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M353" t="n">
-        <v>1</v>
-      </c>
-      <c r="N353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -13446,22 +12395,19 @@
       <c r="H354" t="n">
         <v>0</v>
       </c>
-      <c r="I354" t="n">
-        <v>0</v>
-      </c>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L354" t="inlineStr">
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M354" t="n">
-        <v>1</v>
-      </c>
-      <c r="N354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -13488,22 +12434,19 @@
       <c r="H355" t="n">
         <v>0</v>
       </c>
-      <c r="I355" t="n">
-        <v>0</v>
-      </c>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L355" t="inlineStr">
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M355" t="n">
-        <v>1</v>
-      </c>
-      <c r="N355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -13530,22 +12473,19 @@
       <c r="H356" t="n">
         <v>0</v>
       </c>
-      <c r="I356" t="n">
-        <v>0</v>
-      </c>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L356" t="inlineStr">
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M356" t="n">
-        <v>1</v>
-      </c>
-      <c r="N356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -13572,22 +12512,19 @@
       <c r="H357" t="n">
         <v>0</v>
       </c>
-      <c r="I357" t="n">
-        <v>0</v>
-      </c>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L357" t="inlineStr">
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M357" t="n">
-        <v>1</v>
-      </c>
-      <c r="N357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -13614,22 +12551,19 @@
       <c r="H358" t="n">
         <v>0</v>
       </c>
-      <c r="I358" t="n">
-        <v>0</v>
-      </c>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L358" t="inlineStr">
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M358" t="n">
-        <v>1</v>
-      </c>
-      <c r="N358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -13656,22 +12590,19 @@
       <c r="H359" t="n">
         <v>0</v>
       </c>
-      <c r="I359" t="n">
-        <v>0</v>
-      </c>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L359" t="inlineStr">
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M359" t="n">
-        <v>1</v>
-      </c>
-      <c r="N359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -13698,22 +12629,19 @@
       <c r="H360" t="n">
         <v>0</v>
       </c>
-      <c r="I360" t="n">
-        <v>0</v>
-      </c>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L360" t="inlineStr">
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M360" t="n">
-        <v>1</v>
-      </c>
-      <c r="N360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -13740,22 +12668,19 @@
       <c r="H361" t="n">
         <v>0</v>
       </c>
-      <c r="I361" t="n">
-        <v>0</v>
-      </c>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L361" t="inlineStr">
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M361" t="n">
-        <v>1</v>
-      </c>
-      <c r="N361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -13782,22 +12707,19 @@
       <c r="H362" t="n">
         <v>0</v>
       </c>
-      <c r="I362" t="n">
-        <v>0</v>
-      </c>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L362" t="inlineStr">
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M362" t="n">
-        <v>1</v>
-      </c>
-      <c r="N362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -13824,22 +12746,19 @@
       <c r="H363" t="n">
         <v>0</v>
       </c>
-      <c r="I363" t="n">
-        <v>0</v>
-      </c>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L363" t="inlineStr">
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M363" t="n">
-        <v>1</v>
-      </c>
-      <c r="N363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -13866,22 +12785,19 @@
       <c r="H364" t="n">
         <v>0</v>
       </c>
-      <c r="I364" t="n">
-        <v>0</v>
-      </c>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L364" t="inlineStr">
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M364" t="n">
-        <v>1</v>
-      </c>
-      <c r="N364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -13908,22 +12824,19 @@
       <c r="H365" t="n">
         <v>0</v>
       </c>
-      <c r="I365" t="n">
-        <v>0</v>
-      </c>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L365" t="inlineStr">
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M365" t="n">
-        <v>1</v>
-      </c>
-      <c r="N365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -13950,22 +12863,19 @@
       <c r="H366" t="n">
         <v>0</v>
       </c>
-      <c r="I366" t="n">
-        <v>0</v>
-      </c>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L366" t="inlineStr">
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M366" t="n">
-        <v>1</v>
-      </c>
-      <c r="N366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -13992,22 +12902,19 @@
       <c r="H367" t="n">
         <v>0</v>
       </c>
-      <c r="I367" t="n">
-        <v>0</v>
-      </c>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L367" t="inlineStr">
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M367" t="n">
-        <v>1</v>
-      </c>
-      <c r="N367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -14034,22 +12941,19 @@
       <c r="H368" t="n">
         <v>0</v>
       </c>
-      <c r="I368" t="n">
-        <v>0</v>
-      </c>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L368" t="inlineStr">
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M368" t="n">
-        <v>1</v>
-      </c>
-      <c r="N368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -14076,22 +12980,19 @@
       <c r="H369" t="n">
         <v>0</v>
       </c>
-      <c r="I369" t="n">
-        <v>0</v>
-      </c>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L369" t="inlineStr">
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M369" t="n">
-        <v>1</v>
-      </c>
-      <c r="N369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -14118,22 +13019,19 @@
       <c r="H370" t="n">
         <v>0</v>
       </c>
-      <c r="I370" t="n">
-        <v>0</v>
-      </c>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L370" t="inlineStr">
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M370" t="n">
-        <v>1</v>
-      </c>
-      <c r="N370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -14160,22 +13058,19 @@
       <c r="H371" t="n">
         <v>0</v>
       </c>
-      <c r="I371" t="n">
-        <v>0</v>
-      </c>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L371" t="inlineStr">
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M371" t="n">
-        <v>1</v>
-      </c>
-      <c r="N371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -14202,22 +13097,19 @@
       <c r="H372" t="n">
         <v>0</v>
       </c>
-      <c r="I372" t="n">
-        <v>0</v>
-      </c>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L372" t="inlineStr">
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M372" t="n">
-        <v>1</v>
-      </c>
-      <c r="N372" t="inlineStr"/>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -14244,22 +13136,19 @@
       <c r="H373" t="n">
         <v>0</v>
       </c>
-      <c r="I373" t="n">
-        <v>0</v>
-      </c>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L373" t="inlineStr">
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M373" t="n">
-        <v>1</v>
-      </c>
-      <c r="N373" t="inlineStr"/>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -14286,22 +13175,19 @@
       <c r="H374" t="n">
         <v>0</v>
       </c>
-      <c r="I374" t="n">
-        <v>0</v>
-      </c>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L374" t="inlineStr">
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M374" t="n">
-        <v>1</v>
-      </c>
-      <c r="N374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -14328,22 +13214,19 @@
       <c r="H375" t="n">
         <v>0</v>
       </c>
-      <c r="I375" t="n">
-        <v>0</v>
-      </c>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L375" t="inlineStr">
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M375" t="n">
-        <v>1</v>
-      </c>
-      <c r="N375" t="inlineStr"/>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -14370,22 +13253,19 @@
       <c r="H376" t="n">
         <v>0</v>
       </c>
-      <c r="I376" t="n">
-        <v>0</v>
-      </c>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L376" t="inlineStr">
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M376" t="n">
-        <v>1</v>
-      </c>
-      <c r="N376" t="inlineStr"/>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -14412,22 +13292,19 @@
       <c r="H377" t="n">
         <v>0</v>
       </c>
-      <c r="I377" t="n">
-        <v>0</v>
-      </c>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L377" t="inlineStr">
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M377" t="n">
-        <v>1</v>
-      </c>
-      <c r="N377" t="inlineStr"/>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -14454,22 +13331,19 @@
       <c r="H378" t="n">
         <v>0</v>
       </c>
-      <c r="I378" t="n">
-        <v>0</v>
-      </c>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L378" t="inlineStr">
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M378" t="n">
-        <v>1</v>
-      </c>
-      <c r="N378" t="inlineStr"/>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -14496,22 +13370,19 @@
       <c r="H379" t="n">
         <v>0</v>
       </c>
-      <c r="I379" t="n">
-        <v>0</v>
-      </c>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L379" t="inlineStr">
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M379" t="n">
-        <v>1</v>
-      </c>
-      <c r="N379" t="inlineStr"/>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -14538,22 +13409,19 @@
       <c r="H380" t="n">
         <v>0</v>
       </c>
-      <c r="I380" t="n">
-        <v>0</v>
-      </c>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L380" t="inlineStr">
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M380" t="n">
-        <v>1</v>
-      </c>
-      <c r="N380" t="inlineStr"/>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -14580,22 +13448,19 @@
       <c r="H381" t="n">
         <v>0</v>
       </c>
-      <c r="I381" t="n">
-        <v>0</v>
-      </c>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L381" t="inlineStr">
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M381" t="n">
-        <v>1</v>
-      </c>
-      <c r="N381" t="inlineStr"/>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -14622,22 +13487,19 @@
       <c r="H382" t="n">
         <v>0</v>
       </c>
-      <c r="I382" t="n">
-        <v>0</v>
-      </c>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L382" t="inlineStr">
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M382" t="n">
-        <v>1</v>
-      </c>
-      <c r="N382" t="inlineStr"/>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -14664,22 +13526,19 @@
       <c r="H383" t="n">
         <v>0</v>
       </c>
-      <c r="I383" t="n">
-        <v>0</v>
-      </c>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L383" t="inlineStr">
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M383" t="n">
-        <v>1</v>
-      </c>
-      <c r="N383" t="inlineStr"/>
+      <c r="L383" t="n">
+        <v>1</v>
+      </c>
+      <c r="M383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -14706,22 +13565,19 @@
       <c r="H384" t="n">
         <v>0</v>
       </c>
-      <c r="I384" t="n">
-        <v>0</v>
-      </c>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L384" t="inlineStr">
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M384" t="n">
-        <v>1</v>
-      </c>
-      <c r="N384" t="inlineStr"/>
+      <c r="L384" t="n">
+        <v>1</v>
+      </c>
+      <c r="M384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -14748,22 +13604,19 @@
       <c r="H385" t="n">
         <v>0</v>
       </c>
-      <c r="I385" t="n">
-        <v>0</v>
-      </c>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L385" t="inlineStr">
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M385" t="n">
-        <v>1</v>
-      </c>
-      <c r="N385" t="inlineStr"/>
+      <c r="L385" t="n">
+        <v>1</v>
+      </c>
+      <c r="M385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -14790,22 +13643,19 @@
       <c r="H386" t="n">
         <v>0</v>
       </c>
-      <c r="I386" t="n">
-        <v>0</v>
-      </c>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L386" t="inlineStr">
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M386" t="n">
-        <v>1</v>
-      </c>
-      <c r="N386" t="inlineStr"/>
+      <c r="L386" t="n">
+        <v>1</v>
+      </c>
+      <c r="M386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -14832,22 +13682,19 @@
       <c r="H387" t="n">
         <v>0</v>
       </c>
-      <c r="I387" t="n">
-        <v>0</v>
-      </c>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L387" t="inlineStr">
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M387" t="n">
-        <v>1</v>
-      </c>
-      <c r="N387" t="inlineStr"/>
+      <c r="L387" t="n">
+        <v>1</v>
+      </c>
+      <c r="M387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -14874,22 +13721,19 @@
       <c r="H388" t="n">
         <v>0</v>
       </c>
-      <c r="I388" t="n">
-        <v>0</v>
-      </c>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L388" t="inlineStr">
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M388" t="n">
-        <v>1</v>
-      </c>
-      <c r="N388" t="inlineStr"/>
+      <c r="L388" t="n">
+        <v>1</v>
+      </c>
+      <c r="M388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -14916,22 +13760,19 @@
       <c r="H389" t="n">
         <v>0</v>
       </c>
-      <c r="I389" t="n">
-        <v>0</v>
-      </c>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L389" t="inlineStr">
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M389" t="n">
-        <v>1</v>
-      </c>
-      <c r="N389" t="inlineStr"/>
+      <c r="L389" t="n">
+        <v>1</v>
+      </c>
+      <c r="M389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -14958,22 +13799,19 @@
       <c r="H390" t="n">
         <v>0</v>
       </c>
-      <c r="I390" t="n">
-        <v>0</v>
-      </c>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L390" t="inlineStr">
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M390" t="n">
-        <v>1</v>
-      </c>
-      <c r="N390" t="inlineStr"/>
+      <c r="L390" t="n">
+        <v>1</v>
+      </c>
+      <c r="M390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -15000,24 +13838,21 @@
       <c r="H391" t="n">
         <v>0</v>
       </c>
-      <c r="I391" t="n">
-        <v>0</v>
-      </c>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="L391" t="inlineStr">
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M391" t="n">
-        <v>1</v>
-      </c>
-      <c r="N391" t="inlineStr"/>
+      <c r="L391" t="n">
+        <v>1</v>
+      </c>
+      <c r="M391" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest XLM.xlsx
+++ b/BackTest/2020-01-25 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-344547.4221228901</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-342927.4221228901</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-349580.6269228901</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-350456.6269228901</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-350456.6269228901</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-348758.5392228901</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-349598.6904228901</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-430424.5744228901</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-484998.0597228901</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-473884.4275228902</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-479544.4275228902</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-479174.4275228902</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-484274.4275228902</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-497574.4275228902</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-497069.8472228902</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-507367.8567228902</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-507367.8567228902</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-511128.0567228902</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-511128.0567228902</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-511128.0567228902</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-453047.0590228902</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-452857.1755228902</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-452710.3375228902</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-498609.3375228902</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-498459.0067228902</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-485407.4151228902</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-485708.0766228902</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-500261.6077228902</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-500213.9836228902</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-500382.1638228902</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-460413.9790228902</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-460995.9179228902</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-460995.9179228902</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-460995.9179228902</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-459494.4164213902</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-459528.1939213902</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-459528.1939213902</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-459528.1939213902</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-416851.8068213902</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-418356.4711213902</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-451888.8836213902</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-491492.7250213902</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-487052.8848556402</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-480055.8271556402</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-461282.7622556402</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-461282.7622556402</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-549716.1257556402</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-549361.3919556402</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-547995.6671556402</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-540627.0289556402</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-541886.0289556402</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-541366.3392556402</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-539303.3379556402</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-539672.5653556401</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-592518.2465556401</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-611477.6864556401</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-611477.6864556401</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-611514.6442556401</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-573800.6442556401</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-574462.8723556401</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-574462.8723556401</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-574462.8723556401</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-577750.06235564</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-577750.06235564</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-632468.03125564</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-558073.82435564</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-555118.74855564</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-432103.92645564</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-432103.92645564</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-402377.72665564</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-439476.69791264</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-439431.91181264</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-417532.15321264</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-417532.15321264</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-417532.15321264</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-417532.15321264</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-417426.08161264</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-416727.08161264</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-412727.08161264</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-412727.08161264</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-412035.44101264</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-422567.44101264</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-422567.44101264</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-422904.70501264</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-426084.6121761401</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-431318.7926761401</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-421329.6886761401</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-421352.0861761401</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-421352.0861761401</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-426277.7838761401</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-426269.7838761401</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-429269.7838761401</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-429159.5444761401</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-429174.0341761401</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-429079.0341761401</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-429079.0341761401</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-429043.1682761401</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-429259.1840761401</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-431289.2897761401</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-437654.4697761401</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-437121.2829761401</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-438011.4065761401</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-472057.4065761401</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-473718.4065761401</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-473918.4065761401</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-473918.4065761401</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-515251.8054761401</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-515251.8054761401</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-515251.8054761401</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-522240.7053761401</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-522762.9228761402</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-538068.3814761401</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-538589.3090761402</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-532438.4788761402</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-532429.5435761402</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-544702.2619761402</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-573310.4706761402</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-573651.4166761402</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-580790.4745761402</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-580790.4745761402</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-580790.4745761402</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-582781.8745761402</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-582781.8745761402</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-582781.8745761402</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-582951.4322761402</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-582965.1072761402</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-582965.1072761402</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-916003.6780761402</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-916003.6780761402</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-1025510.36627614</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-1025510.36627614</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -9955,11 +9955,17 @@
         <v>-1515398.38659684</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>64.59999999999999</v>
+      </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9988,11 +9994,17 @@
         <v>-1515398.38659684</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>64.5</v>
+      </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10021,11 +10033,17 @@
         <v>-1516426.99109684</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>64.5</v>
+      </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10054,11 +10072,17 @@
         <v>-1519618.08509684</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>64.48999999999999</v>
+      </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10087,11 +10111,17 @@
         <v>-1519375.03089684</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>64.34</v>
+      </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10120,11 +10150,17 @@
         <v>-1519375.03089684</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>64.5</v>
+      </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10153,11 +10189,17 @@
         <v>-1533541.17299684</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>64.5</v>
+      </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10186,11 +10228,17 @@
         <v>-1604218.28769684</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>64.34</v>
+      </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10219,11 +10267,17 @@
         <v>-1600245.67357048</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>64.3</v>
+      </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10252,11 +10306,17 @@
         <v>-1584588.77667048</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>64.56999999999999</v>
+      </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10285,11 +10345,17 @@
         <v>-1603361.84157048</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>64.70999999999999</v>
+      </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10318,11 +10384,17 @@
         <v>-1604261.84157048</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>64.62</v>
+      </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10351,11 +10423,17 @@
         <v>-1604261.84157048</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>64.59999999999999</v>
+      </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10384,11 +10462,17 @@
         <v>-1604217.52957048</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>64.59999999999999</v>
+      </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10417,11 +10501,17 @@
         <v>-1605532.52087048</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>64.73</v>
+      </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10450,15 +10540,17 @@
         <v>-1616070.53947048</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>64.38</v>
       </c>
-      <c r="J305" t="n">
-        <v>64.38</v>
-      </c>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10487,17 +10579,15 @@
         <v>-1616070.53947048</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>64.37</v>
       </c>
-      <c r="J306" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L306" t="n">
@@ -10528,17 +10618,15 @@
         <v>-1616070.53947048</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>64.37</v>
       </c>
-      <c r="J307" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L307" t="n">
@@ -10569,17 +10657,15 @@
         <v>-1618590.72847048</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>64.37</v>
       </c>
-      <c r="J308" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L308" t="n">
@@ -10610,14 +10696,12 @@
         <v>-1618590.72847048</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>64.34</v>
       </c>
-      <c r="J309" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10651,14 +10735,12 @@
         <v>-1587874.28357048</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>64.34</v>
       </c>
-      <c r="J310" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10692,14 +10774,12 @@
         <v>-1624658.91427048</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>64.42</v>
       </c>
-      <c r="J311" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10733,14 +10813,12 @@
         <v>-1623784.91427048</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
         <v>64.09999999999999</v>
       </c>
-      <c r="J312" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10774,14 +10852,12 @@
         <v>-1623625.87867048</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>64.2</v>
       </c>
-      <c r="J313" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10815,14 +10891,12 @@
         <v>-1623418.74287048</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314" t="n">
         <v>64.23</v>
       </c>
-      <c r="J314" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10856,14 +10930,12 @@
         <v>-1621883.33067048</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>64.33</v>
       </c>
-      <c r="J315" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10897,14 +10969,12 @@
         <v>-1644403.77297048</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316" t="n">
         <v>64.34</v>
       </c>
-      <c r="J316" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10938,14 +11008,12 @@
         <v>-1643686.77297048</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>64.2</v>
       </c>
-      <c r="J317" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10979,14 +11047,12 @@
         <v>-1562162.44247048</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I318" t="n">
         <v>64.31</v>
       </c>
-      <c r="J318" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11020,14 +11086,12 @@
         <v>-1556205.316470481</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="J319" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11061,14 +11125,12 @@
         <v>-1567758.881970481</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320" t="n">
         <v>64.44</v>
       </c>
-      <c r="J320" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11102,14 +11164,12 @@
         <v>-1567744.519170481</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I321" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="J321" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11143,14 +11203,12 @@
         <v>-1552874.70427048</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I322" t="n">
         <v>64.88</v>
       </c>
-      <c r="J322" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11187,9 +11245,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11226,9 +11282,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11265,9 +11319,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11304,9 +11356,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11343,9 +11393,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11382,9 +11430,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11421,9 +11467,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11460,9 +11504,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11499,9 +11541,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11538,9 +11578,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11577,9 +11615,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11616,9 +11652,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11655,9 +11689,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11694,9 +11726,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11733,9 +11763,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11772,9 +11800,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11811,9 +11837,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11850,9 +11874,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11889,9 +11911,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11928,9 +11948,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11967,9 +11985,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12006,9 +12022,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12045,9 +12059,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12084,9 +12096,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12123,9 +12133,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12162,9 +12170,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12201,9 +12207,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12240,9 +12244,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12279,9 +12281,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12318,9 +12318,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12357,9 +12355,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12396,9 +12392,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12435,9 +12429,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12474,9 +12466,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12513,9 +12503,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12552,9 +12540,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12591,9 +12577,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12630,9 +12614,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12669,9 +12651,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12708,9 +12688,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12747,9 +12725,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12786,9 +12762,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12825,9 +12799,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12864,9 +12836,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12903,9 +12873,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12942,9 +12910,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12981,9 +12947,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13020,9 +12984,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13059,9 +13021,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13098,9 +13058,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13137,9 +13095,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13176,9 +13132,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13215,9 +13169,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13254,9 +13206,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13293,9 +13243,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13332,9 +13280,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13371,9 +13317,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13410,9 +13354,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13449,9 +13391,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13488,9 +13428,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13527,9 +13465,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13566,9 +13502,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13605,9 +13539,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13644,9 +13576,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13683,9 +13613,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13722,9 +13650,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13761,9 +13687,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13800,9 +13724,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13839,9 +13761,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>64.38</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13853,6 +13773,6 @@
       <c r="M391" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest XLM.xlsx
+++ b/BackTest/2020-01-25 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -748,7 +748,7 @@
         <v>-430424.5744228901</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-484998.0597228901</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-473884.4275228902</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-479544.4275228902</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-479174.4275228902</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-484274.4275228902</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-497574.4275228902</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-497069.8472228902</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-507367.8567228902</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-507367.8567228902</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-511128.0567228902</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-511128.0567228902</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-511128.0567228902</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-453047.0590228902</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-452857.1755228902</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-452710.3375228902</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-498609.3375228902</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-498459.0067228902</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-485407.4151228902</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-485708.0766228902</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-500261.6077228902</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-500213.9836228902</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-460995.9179228902</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-611477.6864556401</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-611477.6864556401</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-611514.6442556401</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-573800.6442556401</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-574462.8723556401</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-574462.8723556401</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-574462.8723556401</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-577750.06235564</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-577750.06235564</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-632468.03125564</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-558073.82435564</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-555118.74855564</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-432103.92645564</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-432103.92645564</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-402377.72665564</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-439476.69791264</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-439431.91181264</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-417532.15321264</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-417532.15321264</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-417532.15321264</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-417532.15321264</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-417426.08161264</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-416727.08161264</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-412727.08161264</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-412727.08161264</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-412035.44101264</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-422567.44101264</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-422567.44101264</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-422904.70501264</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-426084.6121761401</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-431318.7926761401</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-421329.6886761401</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-421352.0861761401</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-421352.0861761401</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-426277.7838761401</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-426269.7838761401</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-429269.7838761401</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-429159.5444761401</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-429174.0341761401</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-429079.0341761401</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-429079.0341761401</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-429043.1682761401</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-429259.1840761401</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-431289.2897761401</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-437654.4697761401</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-437121.2829761401</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-438011.4065761401</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-472057.4065761401</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-473718.4065761401</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-473918.4065761401</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-473918.4065761401</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-515251.8054761401</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-515251.8054761401</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-515251.8054761401</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-522240.7053761401</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-522762.9228761402</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-538068.3814761401</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-538589.3090761402</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-532438.4788761402</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-532429.5435761402</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-544702.2619761402</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-573310.4706761402</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-573651.4166761402</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-580790.4745761402</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-580790.4745761402</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-580790.4745761402</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-582781.8745761402</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-582781.8745761402</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-582781.8745761402</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-582951.4322761402</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-582965.1072761402</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-582965.1072761402</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-916003.6780761402</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-916003.6780761402</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-1025510.36627614</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-1025510.36627614</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -9856,10 +9856,14 @@
         <v>-1492600.32759684</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>64.65000000000001</v>
+      </c>
+      <c r="J287" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
@@ -9889,11 +9893,19 @@
         <v>-1496904.89499684</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>64.83</v>
+      </c>
+      <c r="J288" t="n">
+        <v>64.65000000000001</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9922,11 +9934,19 @@
         <v>-1496904.89499684</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="J289" t="n">
+        <v>64.65000000000001</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9960,7 +9980,9 @@
       <c r="I290" t="n">
         <v>64.59999999999999</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -9999,7 +10021,9 @@
       <c r="I291" t="n">
         <v>64.5</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10038,7 +10062,9 @@
       <c r="I292" t="n">
         <v>64.5</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10077,7 +10103,9 @@
       <c r="I293" t="n">
         <v>64.48999999999999</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10116,7 +10144,9 @@
       <c r="I294" t="n">
         <v>64.34</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10155,7 +10185,9 @@
       <c r="I295" t="n">
         <v>64.5</v>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10194,7 +10226,9 @@
       <c r="I296" t="n">
         <v>64.5</v>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10233,7 +10267,9 @@
       <c r="I297" t="n">
         <v>64.34</v>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10272,7 +10308,9 @@
       <c r="I298" t="n">
         <v>64.3</v>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10311,7 +10349,9 @@
       <c r="I299" t="n">
         <v>64.56999999999999</v>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10350,7 +10390,9 @@
       <c r="I300" t="n">
         <v>64.70999999999999</v>
       </c>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10389,7 +10431,9 @@
       <c r="I301" t="n">
         <v>64.62</v>
       </c>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10428,7 +10472,9 @@
       <c r="I302" t="n">
         <v>64.59999999999999</v>
       </c>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10462,12 +10508,12 @@
         <v>-1604217.52957048</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10501,12 +10547,12 @@
         <v>-1605532.52087048</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>64.73</v>
-      </c>
-      <c r="J304" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10540,12 +10586,12 @@
         <v>-1616070.53947048</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>64.38</v>
-      </c>
-      <c r="J305" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10584,7 +10630,9 @@
       <c r="I306" t="n">
         <v>64.37</v>
       </c>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10618,12 +10666,12 @@
         <v>-1616070.53947048</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="J307" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10662,7 +10710,9 @@
       <c r="I308" t="n">
         <v>64.37</v>
       </c>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10701,7 +10751,9 @@
       <c r="I309" t="n">
         <v>64.34</v>
       </c>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10740,7 +10792,9 @@
       <c r="I310" t="n">
         <v>64.34</v>
       </c>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10774,12 +10828,12 @@
         <v>-1624658.91427048</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>64.42</v>
-      </c>
-      <c r="J311" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10818,7 +10872,9 @@
       <c r="I312" t="n">
         <v>64.09999999999999</v>
       </c>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10857,7 +10913,9 @@
       <c r="I313" t="n">
         <v>64.2</v>
       </c>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10896,7 +10954,9 @@
       <c r="I314" t="n">
         <v>64.23</v>
       </c>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10930,12 +10990,12 @@
         <v>-1621883.33067048</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>64.33</v>
-      </c>
-      <c r="J315" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10974,7 +11034,9 @@
       <c r="I316" t="n">
         <v>64.34</v>
       </c>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11013,7 +11075,9 @@
       <c r="I317" t="n">
         <v>64.2</v>
       </c>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11052,7 +11116,9 @@
       <c r="I318" t="n">
         <v>64.31</v>
       </c>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11086,12 +11152,12 @@
         <v>-1556205.316470481</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="J319" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11130,7 +11196,9 @@
       <c r="I320" t="n">
         <v>64.44</v>
       </c>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11164,12 +11232,12 @@
         <v>-1567744.519170481</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="J321" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11203,12 +11271,12 @@
         <v>-1552874.70427048</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>64.88</v>
-      </c>
-      <c r="J322" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11245,7 +11313,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11282,7 +11352,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11319,7 +11391,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11356,7 +11430,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11393,7 +11469,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11430,7 +11508,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11467,7 +11547,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11504,7 +11586,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11541,7 +11625,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11578,7 +11664,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11615,7 +11703,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11652,7 +11742,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11689,7 +11781,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11726,7 +11820,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11763,7 +11859,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11797,17 +11895,19 @@
         <v>-1469866.02231221</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>64.65000000000001</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L338" t="n">
-        <v>1</v>
+        <v>1.021759474091261</v>
       </c>
       <c r="M338" t="inlineStr"/>
     </row>
@@ -11838,11 +11938,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11875,11 +11971,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11912,11 +12004,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11949,11 +12037,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11986,11 +12070,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12023,11 +12103,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12060,11 +12136,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12093,15 +12165,11 @@
         <v>-1487569.59861221</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12130,15 +12198,11 @@
         <v>-1487569.59861221</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12167,15 +12231,11 @@
         <v>-1504651.481812211</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12204,15 +12264,11 @@
         <v>-1504651.481812211</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12241,15 +12297,11 @@
         <v>-1572471.512512211</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12278,15 +12330,11 @@
         <v>-1568422.938512211</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12315,15 +12363,11 @@
         <v>-1568983.938512211</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12356,11 +12400,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12393,11 +12433,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12430,11 +12466,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12467,11 +12499,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12504,11 +12532,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12537,15 +12561,11 @@
         <v>-1579038.053612211</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12578,11 +12598,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12615,11 +12631,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12652,11 +12664,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12689,11 +12697,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12726,11 +12730,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12763,11 +12763,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12800,11 +12796,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12837,11 +12829,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12874,11 +12862,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12911,11 +12895,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12948,11 +12928,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12985,11 +12961,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13022,11 +12994,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13059,11 +13027,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13096,11 +13060,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13133,11 +13093,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13170,11 +13126,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13207,11 +13159,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13244,11 +13192,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13281,11 +13225,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13318,11 +13258,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13355,11 +13291,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13392,11 +13324,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13429,11 +13357,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13466,11 +13390,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13503,11 +13423,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13540,11 +13456,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13577,11 +13489,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13614,11 +13522,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13651,11 +13555,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13688,11 +13588,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13725,11 +13621,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13762,17 +13654,13 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
       <c r="M391" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest XLM.xlsx
+++ b/BackTest/2020-01-25 BackTest XLM.xlsx
@@ -451,7 +451,7 @@
         <v>-344547.4221228901</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-342927.4221228901</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-349580.6269228901</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-350456.6269228901</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-350456.6269228901</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-348758.5392228901</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-349598.6904228901</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-454802.4905228901</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-455288.9076228901</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-481424.0044228901</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-451888.8836213902</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-451888.8836213902</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-491492.7250213902</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-487052.8848556402</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-480055.8271556402</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-461282.7622556402</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-461282.7622556402</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-549716.1257556402</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-549361.3919556402</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-547995.6671556402</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-540627.0289556402</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-541886.0289556402</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-541366.3392556402</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-539303.3379556402</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-539672.5653556401</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-592518.2465556401</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-611477.6864556401</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-573800.6442556401</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-574462.8723556401</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-574462.8723556401</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-574462.8723556401</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-577750.06235564</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-432103.92645564</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-402377.72665564</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-439476.69791264</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-439431.91181264</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-417532.15321264</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-417532.15321264</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-417532.15321264</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-417532.15321264</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-417439.61201264</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-417426.08161264</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-417874.08161264</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-416727.08161264</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-412727.08161264</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-412727.08161264</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-412035.44101264</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-412035.44101264</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-422567.44101264</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-422567.44101264</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-422904.70501264</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-426084.6121761401</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-431318.7926761401</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-421329.6886761401</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-421352.0861761401</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-421352.0861761401</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-426277.7838761401</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-426269.7838761401</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-429269.7838761401</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-429159.5444761401</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-429174.0341761401</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-429079.0341761401</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-429079.0341761401</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-429043.1682761401</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-429259.1840761401</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-431289.2897761401</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-437654.4697761401</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-437121.2829761401</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-438011.4065761401</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-472057.4065761401</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-473718.4065761401</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-473918.4065761401</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-473918.4065761401</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-515251.8054761401</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-515251.8054761401</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-515251.8054761401</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-522240.7053761401</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-522762.9228761402</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-538068.3814761401</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-544702.2619761402</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -9856,14 +9856,10 @@
         <v>-1492600.32759684</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>64.65000000000001</v>
-      </c>
-      <c r="J287" t="n">
-        <v>64.65000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
@@ -9893,19 +9889,11 @@
         <v>-1496904.89499684</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>64.83</v>
-      </c>
-      <c r="J288" t="n">
-        <v>64.65000000000001</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9934,19 +9922,11 @@
         <v>-1496904.89499684</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="J289" t="n">
-        <v>64.65000000000001</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9975,749 +9955,611 @@
         <v>-1515398.38659684</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="C291" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="D291" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="E291" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="F291" t="n">
+        <v>56444.899</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-1515398.38659684</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="C292" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="D292" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="E292" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="F292" t="n">
+        <v>1028.6045</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-1516426.99109684</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>64.41</v>
+      </c>
+      <c r="C293" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="D293" t="n">
+        <v>64.41</v>
+      </c>
+      <c r="E293" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="F293" t="n">
+        <v>3191.094</v>
+      </c>
+      <c r="G293" t="n">
+        <v>-1519618.08509684</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>64.48</v>
+      </c>
+      <c r="C294" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="D294" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="E294" t="n">
+        <v>64.48</v>
+      </c>
+      <c r="F294" t="n">
+        <v>243.0542</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-1519375.03089684</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="C295" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="D295" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="E295" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="F295" t="n">
+        <v>2022.29457364</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-1519375.03089684</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="C296" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="D296" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="E296" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="F296" t="n">
+        <v>14166.1421</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-1533541.17299684</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="C297" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="D297" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="E297" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="F297" t="n">
+        <v>70677.11470000001</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-1604218.28769684</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="C298" t="n">
+        <v>64.56999999999999</v>
+      </c>
+      <c r="D298" t="n">
+        <v>64.56999999999999</v>
+      </c>
+      <c r="E298" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="F298" t="n">
+        <v>3972.61412636</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-1600245.67357048</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>64.78</v>
+      </c>
+      <c r="C299" t="n">
+        <v>64.70999999999999</v>
+      </c>
+      <c r="D299" t="n">
+        <v>64.91</v>
+      </c>
+      <c r="E299" t="n">
+        <v>64.70999999999999</v>
+      </c>
+      <c r="F299" t="n">
+        <v>15656.8969</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-1584588.77667048</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>64.62</v>
+      </c>
+      <c r="C300" t="n">
+        <v>64.62</v>
+      </c>
+      <c r="D300" t="n">
+        <v>64.62</v>
+      </c>
+      <c r="E300" t="n">
+        <v>64.62</v>
+      </c>
+      <c r="F300" t="n">
+        <v>18773.0649</v>
+      </c>
+      <c r="G300" t="n">
+        <v>-1603361.84157048</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
         <v>64.59999999999999</v>
       </c>
-      <c r="J290" t="n">
-        <v>64.65000000000001</v>
-      </c>
-      <c r="K290" t="inlineStr">
+      <c r="C301" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="D301" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="E301" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="F301" t="n">
+        <v>900</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-1604261.84157048</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="C302" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="D302" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="E302" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="F302" t="n">
+        <v>600</v>
+      </c>
+      <c r="G302" t="n">
+        <v>-1604261.84157048</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>64.73</v>
+      </c>
+      <c r="C303" t="n">
+        <v>64.73</v>
+      </c>
+      <c r="D303" t="n">
+        <v>64.73</v>
+      </c>
+      <c r="E303" t="n">
+        <v>64.73</v>
+      </c>
+      <c r="F303" t="n">
+        <v>44.312</v>
+      </c>
+      <c r="G303" t="n">
+        <v>-1604217.52957048</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>64.51000000000001</v>
+      </c>
+      <c r="C304" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="D304" t="n">
+        <v>64.51000000000001</v>
+      </c>
+      <c r="E304" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="F304" t="n">
+        <v>1314.9913</v>
+      </c>
+      <c r="G304" t="n">
+        <v>-1605532.52087048</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>64.37</v>
+      </c>
+      <c r="C305" t="n">
+        <v>64.37</v>
+      </c>
+      <c r="D305" t="n">
+        <v>64.37</v>
+      </c>
+      <c r="E305" t="n">
+        <v>64.37</v>
+      </c>
+      <c r="F305" t="n">
+        <v>10538.0186</v>
+      </c>
+      <c r="G305" t="n">
+        <v>-1616070.53947048</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>64.37</v>
+      </c>
+      <c r="C306" t="n">
+        <v>64.37</v>
+      </c>
+      <c r="D306" t="n">
+        <v>64.37</v>
+      </c>
+      <c r="E306" t="n">
+        <v>64.37</v>
+      </c>
+      <c r="F306" t="n">
+        <v>5113.0339</v>
+      </c>
+      <c r="G306" t="n">
+        <v>-1616070.53947048</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>64.37</v>
+      </c>
+      <c r="C307" t="n">
+        <v>64.37</v>
+      </c>
+      <c r="D307" t="n">
+        <v>64.37</v>
+      </c>
+      <c r="E307" t="n">
+        <v>64.37</v>
+      </c>
+      <c r="F307" t="n">
+        <v>156</v>
+      </c>
+      <c r="G307" t="n">
+        <v>-1616070.53947048</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>64.37</v>
+      </c>
+      <c r="C308" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="D308" t="n">
+        <v>64.37</v>
+      </c>
+      <c r="E308" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="F308" t="n">
+        <v>2520.189</v>
+      </c>
+      <c r="G308" t="n">
+        <v>-1618590.72847048</v>
+      </c>
+      <c r="H308" t="n">
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>64.37</v>
+      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="C291" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="D291" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="E291" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="F291" t="n">
-        <v>56444.899</v>
-      </c>
-      <c r="G291" t="n">
-        <v>-1515398.38659684</v>
-      </c>
-      <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="J291" t="n">
-        <v>64.65000000000001</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="C292" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="D292" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="E292" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="F292" t="n">
-        <v>1028.6045</v>
-      </c>
-      <c r="G292" t="n">
-        <v>-1516426.99109684</v>
-      </c>
-      <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="J292" t="n">
-        <v>64.65000000000001</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>64.41</v>
-      </c>
-      <c r="C293" t="n">
-        <v>64.34</v>
-      </c>
-      <c r="D293" t="n">
-        <v>64.41</v>
-      </c>
-      <c r="E293" t="n">
-        <v>64.34</v>
-      </c>
-      <c r="F293" t="n">
-        <v>3191.094</v>
-      </c>
-      <c r="G293" t="n">
-        <v>-1519618.08509684</v>
-      </c>
-      <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="J293" t="n">
-        <v>64.65000000000001</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>64.48</v>
-      </c>
-      <c r="C294" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="D294" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="E294" t="n">
-        <v>64.48</v>
-      </c>
-      <c r="F294" t="n">
-        <v>243.0542</v>
-      </c>
-      <c r="G294" t="n">
-        <v>-1519375.03089684</v>
-      </c>
-      <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>64.34</v>
-      </c>
-      <c r="J294" t="n">
-        <v>64.65000000000001</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="C295" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="D295" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="E295" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="F295" t="n">
-        <v>2022.29457364</v>
-      </c>
-      <c r="G295" t="n">
-        <v>-1519375.03089684</v>
-      </c>
-      <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="J295" t="n">
-        <v>64.65000000000001</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>64.34</v>
-      </c>
-      <c r="C296" t="n">
-        <v>64.34</v>
-      </c>
-      <c r="D296" t="n">
-        <v>64.34</v>
-      </c>
-      <c r="E296" t="n">
-        <v>64.34</v>
-      </c>
-      <c r="F296" t="n">
-        <v>14166.1421</v>
-      </c>
-      <c r="G296" t="n">
-        <v>-1533541.17299684</v>
-      </c>
-      <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="J296" t="n">
-        <v>64.65000000000001</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>64.34</v>
-      </c>
-      <c r="C297" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="D297" t="n">
-        <v>64.34</v>
-      </c>
-      <c r="E297" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="F297" t="n">
-        <v>70677.11470000001</v>
-      </c>
-      <c r="G297" t="n">
-        <v>-1604218.28769684</v>
-      </c>
-      <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>64.34</v>
-      </c>
-      <c r="J297" t="n">
-        <v>64.65000000000001</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="C298" t="n">
-        <v>64.56999999999999</v>
-      </c>
-      <c r="D298" t="n">
-        <v>64.56999999999999</v>
-      </c>
-      <c r="E298" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="F298" t="n">
-        <v>3972.61412636</v>
-      </c>
-      <c r="G298" t="n">
-        <v>-1600245.67357048</v>
-      </c>
-      <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="J298" t="n">
-        <v>64.65000000000001</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>64.78</v>
-      </c>
-      <c r="C299" t="n">
-        <v>64.70999999999999</v>
-      </c>
-      <c r="D299" t="n">
-        <v>64.91</v>
-      </c>
-      <c r="E299" t="n">
-        <v>64.70999999999999</v>
-      </c>
-      <c r="F299" t="n">
-        <v>15656.8969</v>
-      </c>
-      <c r="G299" t="n">
-        <v>-1584588.77667048</v>
-      </c>
-      <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>64.56999999999999</v>
-      </c>
-      <c r="J299" t="n">
-        <v>64.65000000000001</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>64.62</v>
-      </c>
-      <c r="C300" t="n">
-        <v>64.62</v>
-      </c>
-      <c r="D300" t="n">
-        <v>64.62</v>
-      </c>
-      <c r="E300" t="n">
-        <v>64.62</v>
-      </c>
-      <c r="F300" t="n">
-        <v>18773.0649</v>
-      </c>
-      <c r="G300" t="n">
-        <v>-1603361.84157048</v>
-      </c>
-      <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>64.70999999999999</v>
-      </c>
-      <c r="J300" t="n">
-        <v>64.65000000000001</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="C301" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="D301" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="E301" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="F301" t="n">
-        <v>900</v>
-      </c>
-      <c r="G301" t="n">
-        <v>-1604261.84157048</v>
-      </c>
-      <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>64.62</v>
-      </c>
-      <c r="J301" t="n">
-        <v>64.65000000000001</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="C302" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="D302" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="E302" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="F302" t="n">
-        <v>600</v>
-      </c>
-      <c r="G302" t="n">
-        <v>-1604261.84157048</v>
-      </c>
-      <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="J302" t="n">
-        <v>64.65000000000001</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>64.73</v>
-      </c>
-      <c r="C303" t="n">
-        <v>64.73</v>
-      </c>
-      <c r="D303" t="n">
-        <v>64.73</v>
-      </c>
-      <c r="E303" t="n">
-        <v>64.73</v>
-      </c>
-      <c r="F303" t="n">
-        <v>44.312</v>
-      </c>
-      <c r="G303" t="n">
-        <v>-1604217.52957048</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>64.65000000000001</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>64.51000000000001</v>
-      </c>
-      <c r="C304" t="n">
-        <v>64.38</v>
-      </c>
-      <c r="D304" t="n">
-        <v>64.51000000000001</v>
-      </c>
-      <c r="E304" t="n">
-        <v>64.38</v>
-      </c>
-      <c r="F304" t="n">
-        <v>1314.9913</v>
-      </c>
-      <c r="G304" t="n">
-        <v>-1605532.52087048</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>64.65000000000001</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="C305" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="D305" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="E305" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="F305" t="n">
-        <v>10538.0186</v>
-      </c>
-      <c r="G305" t="n">
-        <v>-1616070.53947048</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>64.65000000000001</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="C306" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="D306" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="E306" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="F306" t="n">
-        <v>5113.0339</v>
-      </c>
-      <c r="G306" t="n">
-        <v>-1616070.53947048</v>
-      </c>
-      <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="J306" t="n">
-        <v>64.65000000000001</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="C307" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="D307" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="E307" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="F307" t="n">
-        <v>156</v>
-      </c>
-      <c r="G307" t="n">
-        <v>-1616070.53947048</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>64.65000000000001</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="C308" t="n">
-        <v>64.34</v>
-      </c>
-      <c r="D308" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="E308" t="n">
-        <v>64.34</v>
-      </c>
-      <c r="F308" t="n">
-        <v>2520.189</v>
-      </c>
-      <c r="G308" t="n">
-        <v>-1618590.72847048</v>
-      </c>
-      <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>64.37</v>
-      </c>
-      <c r="J308" t="n">
-        <v>64.65000000000001</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10751,9 +10593,7 @@
       <c r="I309" t="n">
         <v>64.34</v>
       </c>
-      <c r="J309" t="n">
-        <v>64.65000000000001</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10792,9 +10632,7 @@
       <c r="I310" t="n">
         <v>64.34</v>
       </c>
-      <c r="J310" t="n">
-        <v>64.65000000000001</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10831,9 +10669,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>64.65000000000001</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10872,9 +10708,7 @@
       <c r="I312" t="n">
         <v>64.09999999999999</v>
       </c>
-      <c r="J312" t="n">
-        <v>64.65000000000001</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10913,9 +10747,7 @@
       <c r="I313" t="n">
         <v>64.2</v>
       </c>
-      <c r="J313" t="n">
-        <v>64.65000000000001</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10954,9 +10786,7 @@
       <c r="I314" t="n">
         <v>64.23</v>
       </c>
-      <c r="J314" t="n">
-        <v>64.65000000000001</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10990,12 +10820,12 @@
         <v>-1621883.33067048</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>64.65000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>64.33</v>
+      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11034,9 +10864,7 @@
       <c r="I316" t="n">
         <v>64.34</v>
       </c>
-      <c r="J316" t="n">
-        <v>64.65000000000001</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11075,9 +10903,7 @@
       <c r="I317" t="n">
         <v>64.2</v>
       </c>
-      <c r="J317" t="n">
-        <v>64.65000000000001</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11116,9 +10942,7 @@
       <c r="I318" t="n">
         <v>64.31</v>
       </c>
-      <c r="J318" t="n">
-        <v>64.65000000000001</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11152,12 +10976,12 @@
         <v>-1556205.316470481</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>64.65000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11196,9 +11020,7 @@
       <c r="I320" t="n">
         <v>64.44</v>
       </c>
-      <c r="J320" t="n">
-        <v>64.65000000000001</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11232,12 +11054,12 @@
         <v>-1567744.519170481</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>64.65000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11274,9 +11096,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>64.65000000000001</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11313,9 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>64.65000000000001</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11352,9 +11170,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>64.65000000000001</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11391,9 +11207,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>64.65000000000001</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11430,9 +11244,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>64.65000000000001</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11469,9 +11281,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>64.65000000000001</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11508,9 +11318,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>64.65000000000001</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11547,9 +11355,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>64.65000000000001</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11586,9 +11392,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>64.65000000000001</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11625,9 +11429,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>64.65000000000001</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11664,9 +11466,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>64.65000000000001</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11703,9 +11503,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>64.65000000000001</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11742,9 +11540,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>64.65000000000001</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11781,9 +11577,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>64.65000000000001</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11820,9 +11614,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>64.65000000000001</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11859,9 +11651,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>64.65000000000001</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11895,19 +11685,17 @@
         <v>-1469866.02231221</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>64.65000000000001</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L338" t="n">
-        <v>1.021759474091261</v>
+        <v>1</v>
       </c>
       <c r="M338" t="inlineStr"/>
     </row>
@@ -11938,7 +11726,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11971,7 +11763,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12004,7 +11800,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12037,7 +11837,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12070,7 +11874,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12103,7 +11911,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12136,7 +11948,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12165,11 +11981,15 @@
         <v>-1487569.59861221</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12198,11 +12018,15 @@
         <v>-1487569.59861221</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12231,11 +12055,15 @@
         <v>-1504651.481812211</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12264,11 +12092,15 @@
         <v>-1504651.481812211</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12297,11 +12129,15 @@
         <v>-1572471.512512211</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12330,11 +12166,15 @@
         <v>-1568422.938512211</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12363,11 +12203,15 @@
         <v>-1568983.938512211</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12400,7 +12244,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12433,7 +12281,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12466,7 +12318,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12499,7 +12355,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12532,7 +12392,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12561,11 +12425,15 @@
         <v>-1579038.053612211</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12598,7 +12466,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12631,7 +12503,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12664,7 +12540,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12697,7 +12577,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12730,7 +12614,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12763,7 +12651,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12796,7 +12688,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12829,7 +12725,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12862,7 +12762,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12895,7 +12799,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12928,7 +12836,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12961,7 +12873,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12994,7 +12910,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13027,7 +12947,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13060,7 +12984,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13093,7 +13021,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13126,7 +13058,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13159,7 +13095,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13192,7 +13132,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13225,7 +13169,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13258,7 +13206,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13291,7 +13243,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13324,7 +13280,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13357,7 +13317,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13390,7 +13354,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13423,7 +13391,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13456,7 +13428,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13489,7 +13465,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13522,7 +13502,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13555,7 +13539,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13588,7 +13576,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13621,7 +13613,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13654,7 +13650,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
